--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="41">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -142,26 +142,21 @@
     <t>BẢNG TỔNG HỢP HÀNG TRẢ ĐẠI LÝ THANH HÀ - VĨNH PHÚC</t>
   </si>
   <si>
-    <t>Nhập</t>
-  </si>
-  <si>
-    <t>Trả</t>
-  </si>
-  <si>
-    <t>Bán tại cửa hàng</t>
+    <t>2CX45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +237,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +266,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,66 +450,63 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +515,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,19 +524,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,7 +545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,7 +569,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,22 +587,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -607,7 +611,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,54 +640,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,7 +723,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,25 +744,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,43 +771,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,25 +830,24 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -888,6 +888,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,29 +985,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,80 +1008,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1020,83 +1080,144 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1380,162 +1501,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:E36"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="58"/>
-    <col min="6" max="6" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="58" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="58" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="58" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" style="58"/>
-    <col min="23" max="23" width="15.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="4.85546875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="57"/>
+    <col min="6" max="6" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="57" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="57" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="57" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="57" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="56"/>
-      <c r="O1" s="59"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="55"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="60"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-    </row>
-    <row r="5" spans="1:23" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184" t="s">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="188" t="s">
+      <c r="C5" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="188"/>
-      <c r="E5" s="189" t="s">
+      <c r="D5" s="178"/>
+      <c r="E5" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="190" t="s">
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="192" t="s">
+      <c r="K5" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="193" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="21" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="24" t="s">
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="175"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="191"/>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="181"/>
+      <c r="K6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="194"/>
-    </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160">
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="158">
         <v>571</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="168">
         <v>43990</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="144" t="s">
+      <c r="E7" s="141" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1">
@@ -1545,14 +1658,14 @@
         <v>225000</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:H31" si="0">F7*G7</f>
+        <f t="shared" ref="H7:H32" si="0">F7*G7</f>
         <v>16200000</v>
       </c>
       <c r="I7" s="3">
         <v>0.5</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7:J31" si="1">H7*(1-I7)</f>
+        <f t="shared" ref="J7:J32" si="1">H7*(1-I7)</f>
         <v>8100000</v>
       </c>
       <c r="K7" s="4"/>
@@ -1561,14 +1674,13 @@
         <f>J7</f>
         <v>8100000</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="146" t="s">
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="159"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="143" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7">
@@ -1591,26 +1703,16 @@
       <c r="K8" s="10"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8">
-        <f t="shared" ref="M8:M16" si="2">J8</f>
+        <f t="shared" ref="M8:M17" si="2">J8</f>
         <v>8190000</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="U8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="146" t="s">
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="159"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="143" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="7">
@@ -1636,29 +1738,13 @@
         <f t="shared" si="2"/>
         <v>19530000</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="T9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U9" s="5">
-        <f>F7+F25</f>
-        <v>120</v>
-      </c>
-      <c r="V9" s="5">
-        <f>'HÀNG TRẢ'!E9+'HÀNG TRẢ'!E10+'HÀNG TRẢ'!E20+'HÀNG TRẢ'!E31+'HÀNG TRẢ'!E49+'HÀNG TRẢ'!E50+'HÀNG TRẢ'!E58</f>
-        <v>112</v>
-      </c>
-      <c r="W9" s="5">
-        <f>U9-V9</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="146" t="s">
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="159"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="143" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="7">
@@ -1684,29 +1770,13 @@
         <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="T10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10" s="5">
-        <f>F8+F22+F23+F26+F28+F32</f>
-        <v>216</v>
-      </c>
-      <c r="V10" s="5">
-        <f>'HÀNG TRẢ'!E8+'HÀNG TRẢ'!E11+'HÀNG TRẢ'!E21+'HÀNG TRẢ'!E29+'HÀNG TRẢ'!E32+'HÀNG TRẢ'!E33+'HÀNG TRẢ'!E46+'HÀNG TRẢ'!E48+'HÀNG TRẢ'!E51+'HÀNG TRẢ'!E59+'HÀNG TRẢ'!E34+'HÀNG TRẢ'!E42</f>
-        <v>171</v>
-      </c>
-      <c r="W10" s="5">
-        <f>U10-V10</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
-      <c r="B11" s="178"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="146" t="s">
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="159"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="143" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="7">
@@ -1732,14 +1802,13 @@
         <f t="shared" si="2"/>
         <v>14550000</v>
       </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="146" t="s">
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="159"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="143" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7">
@@ -1765,14 +1834,13 @@
         <f t="shared" si="2"/>
         <v>6600000</v>
       </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="146" t="s">
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="159"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="143" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7">
@@ -1798,55 +1866,53 @@
         <f t="shared" si="2"/>
         <v>10920000</v>
       </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="145" t="s">
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="160"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>12</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>455000</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="14">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160">
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="164">
         <v>587</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="221">
         <v>43995</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="141" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1">
@@ -1872,791 +1938,1033 @@
         <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="145" t="s">
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="165"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>12</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>485000</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="I16" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="I16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
         <f t="shared" si="2"/>
         <v>2910000</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="166"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="154">
+        <v>12</v>
+      </c>
+      <c r="G17" s="156">
+        <v>455000</v>
+      </c>
+      <c r="H17" s="156">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="I17" s="220">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="156">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156">
+        <f t="shared" si="2"/>
+        <v>2730000</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="158">
         <v>479</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B18" s="168">
         <v>43996</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C18" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="166" t="s">
+      <c r="D18" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E18" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>12</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>475000</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <f>J17</f>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <f>J18</f>
         <v>2850000</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="177"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="146" t="s">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="159"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>48</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>485000</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>23280000</v>
       </c>
-      <c r="I18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="1"/>
         <v>11640000</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8">
-        <f t="shared" ref="M18:M31" si="3">J18</f>
-        <v>11640000</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="177"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="146" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7">
-        <v>48</v>
-      </c>
-      <c r="G19" s="8">
-        <v>550000</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>26400000</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="1"/>
-        <v>13200000</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8">
-        <f t="shared" si="3"/>
-        <v>13200000</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="177"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="146" t="s">
-        <v>15</v>
+        <f t="shared" ref="M19:M32" si="3">J19</f>
+        <v>11640000</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="159"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="143" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="7">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G20" s="8">
-        <v>455000</v>
+        <v>550000</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="0"/>
-        <v>38220000</v>
+        <v>26400000</v>
       </c>
       <c r="I20" s="9">
         <v>0.5</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="1"/>
-        <v>19110000</v>
+        <v>13200000</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8">
         <f t="shared" si="3"/>
+        <v>13200000</v>
+      </c>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="159"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7">
+        <v>84</v>
+      </c>
+      <c r="G21" s="8">
+        <v>455000</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>38220000</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
         <v>19110000</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="145" t="s">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8">
+        <f t="shared" si="3"/>
+        <v>19110000</v>
+      </c>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="160"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="11">
         <v>12</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="12">
         <v>455000</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="12">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I21" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="I22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="12">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12">
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>597</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B23" s="16">
         <v>44002</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="15">
         <v>60</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G23" s="18">
         <v>455000</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>27300000</v>
       </c>
-      <c r="I22" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="I23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="18">
         <f t="shared" si="1"/>
         <v>13650000</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18">
         <f t="shared" si="3"/>
         <v>13650000</v>
       </c>
-      <c r="N22" s="73"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="160">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="158">
         <v>635</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B24" s="168">
         <v>44047</v>
       </c>
-      <c r="C23" s="181" t="s">
+      <c r="C24" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D24" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="144" t="s">
+      <c r="E24" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F24" s="83">
         <v>24</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>455000</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="N23" s="85"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="160"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="145" t="s">
+      <c r="E25" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F25" s="85">
         <v>24</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="12">
         <v>465000</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="12">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
-      <c r="I24" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="I25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="12">
         <f t="shared" si="1"/>
         <v>5580000</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12">
         <f t="shared" si="3"/>
         <v>5580000</v>
       </c>
-      <c r="N24" s="87"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="160">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="158">
         <v>763</v>
       </c>
-      <c r="B25" s="195">
+      <c r="B26" s="161">
         <v>44063</v>
       </c>
-      <c r="C25" s="181" t="s">
+      <c r="C26" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D26" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="154" t="s">
+      <c r="E26" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F26" s="83">
         <v>48</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>225000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
         <v>10800000</v>
       </c>
-      <c r="I25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="I26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>5400000</v>
       </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="2">
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="2">
         <f t="shared" si="3"/>
         <v>5400000</v>
       </c>
-      <c r="N25" s="93"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="177"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="198" t="s">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="159"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="155" t="s">
+      <c r="E27" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F27" s="84">
         <v>36</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>455000</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="I26" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="I27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="1"/>
         <v>8190000</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="8">
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="8">
         <f t="shared" si="3"/>
         <v>8190000</v>
       </c>
-      <c r="N26" s="94"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="160"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E28" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="87">
+      <c r="F28" s="85">
         <v>36</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="12">
         <v>485000</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="12">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="I27" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="I28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="12">
         <f t="shared" si="1"/>
         <v>8730000</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="13">
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="12">
         <f t="shared" si="3"/>
         <v>8730000</v>
       </c>
-      <c r="N27" s="95"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="160">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="158">
         <v>764</v>
       </c>
-      <c r="B28" s="195">
+      <c r="B29" s="161">
         <v>44065</v>
       </c>
-      <c r="C28" s="181" t="s">
+      <c r="C29" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D29" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="154" t="s">
+      <c r="E29" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F29" s="83">
         <v>12</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>455000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="2">
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="2">
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="N28" s="93"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="177"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198" t="s">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="159"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="155" t="s">
+      <c r="E30" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="86">
+      <c r="F30" s="84">
         <v>60</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>465000</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <f t="shared" si="0"/>
         <v>27900000</v>
       </c>
-      <c r="I29" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="I30" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="1"/>
         <v>13950000</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="8">
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="8">
         <f t="shared" si="3"/>
         <v>13950000</v>
       </c>
-      <c r="N29" s="94"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="177"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="198" t="s">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="159"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="155" t="s">
+      <c r="E31" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="86">
+      <c r="F31" s="84">
         <v>36</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>475000</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
-      <c r="I30" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="I31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="1"/>
         <v>8550000</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="8">
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="8">
         <f t="shared" si="3"/>
         <v>8550000</v>
       </c>
-      <c r="N30" s="94"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="160"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="156" t="s">
+      <c r="E32" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F32" s="85">
         <v>36</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="12">
         <v>455000</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="12">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="I31" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="J31" s="13">
+      <c r="I32" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="12">
         <f t="shared" si="1"/>
         <v>8190000</v>
       </c>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="13">
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="12">
         <f t="shared" si="3"/>
         <v>8190000</v>
       </c>
-      <c r="N31" s="95"/>
-    </row>
-    <row r="32" spans="1:15" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="171">
+    </row>
+    <row r="33" spans="1:13" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="191">
         <v>794</v>
       </c>
-      <c r="B32" s="174">
+      <c r="B33" s="194">
         <v>44090</v>
       </c>
-      <c r="C32" s="168" t="s">
+      <c r="C33" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="168" t="s">
+      <c r="D33" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="114" t="s">
+      <c r="E33" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F33" s="96">
         <v>48</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G33" s="97">
         <v>455000</v>
       </c>
-      <c r="H32" s="99">
-        <f>F32*G32</f>
+      <c r="H33" s="97">
+        <f>F33*G33</f>
         <v>21840000</v>
       </c>
-      <c r="I32" s="100">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="99">
-        <f>H32*(1-I32)</f>
+      <c r="I33" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="97">
+        <f>H33*(1-I33)</f>
         <v>10920000</v>
       </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="99">
-        <f>J32</f>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="97">
+        <f>J33</f>
         <v>10920000</v>
       </c>
-      <c r="N32" s="99"/>
-    </row>
-    <row r="33" spans="1:14" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="128" t="s">
+    </row>
+    <row r="34" spans="1:13" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="192"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="102">
+      <c r="F34" s="100">
         <v>24</v>
       </c>
-      <c r="G33" s="103">
+      <c r="G34" s="101">
         <v>465000</v>
       </c>
-      <c r="H33" s="103">
-        <f>F33*G33</f>
+      <c r="H34" s="101">
+        <f>F34*G34</f>
         <v>11160000</v>
       </c>
-      <c r="I33" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="J33" s="103">
-        <f>H33*(1-I33)</f>
+      <c r="I34" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="101">
+        <f>H34*(1-I34)</f>
         <v>5580000</v>
       </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="103">
-        <f>J33</f>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="101">
+        <f>J34</f>
         <v>5580000</v>
       </c>
-      <c r="N33" s="103"/>
-    </row>
-    <row r="34" spans="1:14" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="120" t="s">
+    </row>
+    <row r="35" spans="1:13" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="193"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="105">
+      <c r="F35" s="103">
         <v>24</v>
       </c>
-      <c r="G34" s="106">
+      <c r="G35" s="104">
         <v>485000</v>
       </c>
-      <c r="H34" s="106">
-        <f>F34*G34</f>
+      <c r="H35" s="104">
+        <f>F35*G35</f>
         <v>11640000</v>
       </c>
-      <c r="I34" s="107">
-        <v>0.5</v>
-      </c>
-      <c r="J34" s="108">
-        <f>H34*(1-I34)</f>
+      <c r="I35" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="106">
+        <f>H35*(1-I35)</f>
         <v>5820000</v>
       </c>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="106">
-        <f>J34</f>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="104">
+        <f>J35</f>
         <v>5820000</v>
       </c>
-      <c r="N34" s="106"/>
-    </row>
-    <row r="35" spans="1:14" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="109">
+    </row>
+    <row r="36" spans="1:13" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="107">
         <v>675</v>
       </c>
-      <c r="B35" s="110">
+      <c r="B36" s="108">
         <v>44096</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C36" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D36" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="125" t="s">
+      <c r="E36" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="111">
+      <c r="F36" s="109">
         <v>12</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G36" s="110">
         <v>455000</v>
       </c>
-      <c r="H35" s="112">
-        <f>F35*G35</f>
+      <c r="H36" s="110">
+        <f>F36*G36</f>
         <v>5460000</v>
       </c>
-      <c r="I35" s="113">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="112">
-        <f>H35*(1-I35)</f>
+      <c r="I36" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="110">
+        <f>H36*(1-I36)</f>
         <v>2730000</v>
       </c>
-      <c r="K35" s="134"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="112">
-        <f>J35</f>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="110">
+        <f>J36</f>
         <v>2730000</v>
       </c>
-      <c r="N35" s="112"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
+    </row>
+    <row r="37" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="230">
+        <v>816</v>
+      </c>
+      <c r="B37" s="231">
+        <v>44112</v>
+      </c>
+      <c r="C37" s="256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="256" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="232">
+        <v>4</v>
+      </c>
+      <c r="G37" s="234">
+        <v>225000</v>
+      </c>
+      <c r="H37" s="234">
+        <f t="shared" ref="H37:H42" si="4">F37*G37</f>
+        <v>900000</v>
+      </c>
+      <c r="I37" s="235">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="234">
+        <f>H37*(1-I37)</f>
+        <v>450000</v>
+      </c>
+      <c r="K37" s="236"/>
+      <c r="L37" s="236"/>
+      <c r="M37" s="236">
+        <f>J37</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="227" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="237"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="257"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="239">
+        <v>12</v>
+      </c>
+      <c r="G38" s="241">
+        <v>455000</v>
+      </c>
+      <c r="H38" s="241">
+        <f t="shared" si="4"/>
+        <v>5460000</v>
+      </c>
+      <c r="I38" s="242">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="241">
+        <f>H38*(1-I38)</f>
+        <v>2730000</v>
+      </c>
+      <c r="K38" s="243"/>
+      <c r="L38" s="243"/>
+      <c r="M38" s="243">
+        <f>J38</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="244">
+        <v>831</v>
+      </c>
+      <c r="B39" s="245">
+        <v>44125</v>
+      </c>
+      <c r="C39" s="246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="244" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="247">
+        <v>4</v>
+      </c>
+      <c r="G39" s="248">
+        <v>485000</v>
+      </c>
+      <c r="H39" s="248">
+        <f t="shared" si="4"/>
+        <v>1940000</v>
+      </c>
+      <c r="I39" s="249">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="248">
+        <f>H39*(1-I39)</f>
+        <v>970000</v>
+      </c>
+      <c r="K39" s="248"/>
+      <c r="L39" s="248"/>
+      <c r="M39" s="248">
+        <f>J39</f>
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="230">
+        <v>834</v>
+      </c>
+      <c r="B40" s="231">
+        <v>44125</v>
+      </c>
+      <c r="C40" s="256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="256" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="232">
+        <v>120</v>
+      </c>
+      <c r="G40" s="234">
+        <v>225000</v>
+      </c>
+      <c r="H40" s="234">
+        <f t="shared" si="4"/>
+        <v>27000000</v>
+      </c>
+      <c r="I40" s="235">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="234">
+        <f>H40*(1-I40)</f>
+        <v>13500000</v>
+      </c>
+      <c r="K40" s="234"/>
+      <c r="L40" s="234"/>
+      <c r="M40" s="234">
+        <f>J40</f>
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="227" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="237"/>
+      <c r="B41" s="238"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="239">
+        <v>120</v>
+      </c>
+      <c r="G41" s="241">
+        <v>455000</v>
+      </c>
+      <c r="H41" s="241">
+        <f t="shared" si="4"/>
+        <v>54600000</v>
+      </c>
+      <c r="I41" s="242">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="241">
+        <f>H41*(1-I41)</f>
+        <v>27300000</v>
+      </c>
+      <c r="K41" s="241"/>
+      <c r="L41" s="241"/>
+      <c r="M41" s="241">
+        <f>J41</f>
+        <v>27300000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="250">
+        <v>1208</v>
+      </c>
+      <c r="B42" s="251">
+        <v>44132</v>
+      </c>
+      <c r="C42" s="250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="250" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="252" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="253">
+        <v>24</v>
+      </c>
+      <c r="G42" s="254">
+        <v>235000</v>
+      </c>
+      <c r="H42" s="254">
+        <f t="shared" si="4"/>
+        <v>5640000</v>
+      </c>
+      <c r="I42" s="255">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="254">
+        <f>H42*(1-I42)</f>
+        <v>2820000</v>
+      </c>
+      <c r="K42" s="254"/>
+      <c r="L42" s="254"/>
+      <c r="M42" s="254">
+        <f>J42</f>
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="64">
-        <f>SUM(F7:F35)</f>
-        <v>1056</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65">
-        <f>SUM(H7:H35)</f>
-        <v>468480000</v>
-      </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65">
-        <f>SUM(J7:J35)</f>
-        <v>234240000</v>
-      </c>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="54">
-        <f>J36</f>
-        <v>234240000</v>
-      </c>
-      <c r="N36" s="64"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H38" s="143">
-        <f>H36/2</f>
-        <v>234240000</v>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="63">
+        <f>SUM(F7:F42)</f>
+        <v>1352</v>
+      </c>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64">
+        <f>SUM(H7:H42)</f>
+        <v>569480000</v>
+      </c>
+      <c r="I43" s="63"/>
+      <c r="J43" s="64">
+        <f>SUM(J7:J42)</f>
+        <v>284740000</v>
+      </c>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="53">
+        <f>J43</f>
+        <v>284740000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A3:P3"/>
+  <mergeCells count="44">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A3:N3"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C7:C14"/>
@@ -2667,23 +2975,17 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2692,1050 +2994,1050 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="12" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="58"/>
-    <col min="5" max="5" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="58" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="5" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="6.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="12" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="57"/>
+    <col min="5" max="5" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="57" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="57" customWidth="1"/>
+    <col min="11" max="11" width="5" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="56"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="55"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="61"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="60"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-    </row>
-    <row r="6" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+    </row>
+    <row r="6" spans="1:15" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="201" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
       <c r="H6" s="209"/>
       <c r="I6" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="204" t="s">
+      <c r="J6" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="205" t="s">
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="218" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="66" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="65" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="215"/>
-      <c r="B7" s="216"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="210"/>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="205"/>
-    </row>
-    <row r="8" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="M7" s="218"/>
+    </row>
+    <row r="8" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>584</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>43995</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>12</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>455000</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <f>E8*F8</f>
         <v>5460000</v>
       </c>
-      <c r="H8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="29">
+      <c r="H8" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="28">
         <f>G8*(1-H8)</f>
         <v>2730000</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="49">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="48">
         <f>I8</f>
         <v>2730000</v>
       </c>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>482</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>43998</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>4</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>225000</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <f t="shared" ref="G9:G16" si="0">E9*F9</f>
         <v>900000</v>
       </c>
-      <c r="H9" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="29">
+      <c r="H9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="28">
         <f t="shared" ref="I9:I16" si="1">G9*(1-H9)</f>
         <v>450000</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="49">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="48">
         <f t="shared" ref="L9:L27" si="2">I9</f>
         <v>450000</v>
       </c>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160">
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="158">
         <v>480</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="168">
         <v>43998</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>24</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>225000</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="32">
         <v>0.5</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>2700000</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="49">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="48">
         <f t="shared" si="2"/>
         <v>2700000</v>
       </c>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
-      <c r="B11" s="178"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="35" t="s">
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="159"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>22</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>455000</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>10010000</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>0.5</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="1"/>
         <v>5005000</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="49">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="48">
         <f t="shared" si="2"/>
         <v>5005000</v>
       </c>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="35" t="s">
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="159"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>12</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>465000</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>0.5</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="1"/>
         <v>2790000</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="49">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="48">
         <f t="shared" si="2"/>
         <v>2790000</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="35" t="s">
+    <row r="13" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="159"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>485000</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>0.5</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>242500</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="49">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="48">
         <f t="shared" si="2"/>
         <v>242500</v>
       </c>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="39" t="s">
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="160"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>5</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>550000</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <f t="shared" si="0"/>
         <v>2750000</v>
       </c>
-      <c r="H14" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="H14" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>1375000</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="49">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="48">
         <f t="shared" si="2"/>
         <v>1375000</v>
       </c>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160">
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="158">
         <v>484</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="168">
         <v>44002</v>
       </c>
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>485000</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <v>0.5</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>242500</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="49">
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="48">
         <f t="shared" si="2"/>
         <v>242500</v>
       </c>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="39" t="s">
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="160"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <v>1</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>455000</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="H16" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H16" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>227500</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="49">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="48">
         <f t="shared" si="2"/>
         <v>227500</v>
       </c>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96">
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94">
         <v>1151</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="42">
         <v>44006</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <v>24</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <v>485000</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="45">
         <f>E17*F17</f>
         <v>11640000</v>
       </c>
-      <c r="H17" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="48">
+      <c r="H17" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="47">
         <f>G17*(1-H17)</f>
         <v>5820000</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="49">
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="48">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160">
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="158">
         <v>487</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="168">
         <v>44009</v>
       </c>
-      <c r="C18" s="201" t="s">
+      <c r="C18" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>3</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>465000</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <f t="shared" ref="G18:G27" si="3">E18*F18</f>
         <v>1395000</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="32">
         <v>0.5</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" ref="I18:I27" si="4">G18*(1-H18)</f>
         <v>697500</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="49">
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="48">
         <f t="shared" si="2"/>
         <v>697500</v>
       </c>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="39" t="s">
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="160"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="38">
         <v>3</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>485000</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <f t="shared" si="3"/>
         <v>1455000</v>
       </c>
-      <c r="H19" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="H19" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="14">
         <f t="shared" si="4"/>
         <v>727500</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="49">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="48">
         <f t="shared" si="2"/>
         <v>727500</v>
       </c>
-      <c r="M19" s="42"/>
-    </row>
-    <row r="20" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160">
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="158">
         <v>492</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="168">
         <v>44020</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <v>31</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>225000</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <f t="shared" si="3"/>
         <v>6975000</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="32">
         <v>0.5</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
         <v>3487500</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="76">
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="74">
         <f t="shared" si="2"/>
         <v>3487500</v>
       </c>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="177"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="35" t="s">
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="159"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <v>12</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>455000</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>0.5</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="84">
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="82">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M21" s="38"/>
-    </row>
-    <row r="22" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="177"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="35" t="s">
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="159"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <v>12</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <v>465000</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <f t="shared" si="3"/>
         <v>5580000</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>0.5</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="4"/>
         <v>2790000</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="84">
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="82">
         <f t="shared" si="2"/>
         <v>2790000</v>
       </c>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="177"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="35" t="s">
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="159"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <v>12</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>475000</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <f t="shared" si="3"/>
         <v>5700000</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>0.5</v>
       </c>
       <c r="I23" s="10">
         <f t="shared" si="4"/>
         <v>2850000</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="84">
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="82">
         <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
-      <c r="M23" s="38"/>
-    </row>
-    <row r="24" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="177"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="35" t="s">
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="159"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="34">
         <v>12</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <v>485000</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <f t="shared" si="3"/>
         <v>5820000</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>0.5</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="4"/>
         <v>2910000</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="84">
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="82">
         <f t="shared" si="2"/>
         <v>2910000</v>
       </c>
-      <c r="M24" s="38"/>
-    </row>
-    <row r="25" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="177"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="35" t="s">
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="159"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="34">
         <v>12</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <v>485000</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <f t="shared" si="3"/>
         <v>5820000</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>0.5</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" si="4"/>
         <v>2910000</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="84">
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="82">
         <f t="shared" si="2"/>
         <v>2910000</v>
       </c>
-      <c r="M25" s="38"/>
-    </row>
-    <row r="26" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="177"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="35" t="s">
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="159"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="34">
         <v>12</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <v>455000</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>0.5</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="84">
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="82">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M26" s="38"/>
-    </row>
-    <row r="27" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="39" t="s">
+      <c r="M26" s="37"/>
+    </row>
+    <row r="27" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="160"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="38">
         <v>12</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="39">
         <v>455000</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="H27" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="H27" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="14">
         <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="77">
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="75">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M27" s="42"/>
-    </row>
-    <row r="28" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="M27" s="41"/>
+    </row>
+    <row r="28" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>496</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="72">
         <v>44028</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>9</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>475000</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <v>4275000</v>
       </c>
-      <c r="H28" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="29">
+      <c r="H28" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="28">
         <v>2137500</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="49">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="48">
         <v>2137500</v>
       </c>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>497</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="72">
         <v>44029</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>1</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <v>455000</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="26">
         <v>455000</v>
       </c>
-      <c r="H29" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="29">
+      <c r="H29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="28">
         <v>227500</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="49">
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="48">
         <v>227500</v>
       </c>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>610</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="72">
         <v>44031</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>60</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>455000</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>27300000</v>
       </c>
-      <c r="H30" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="29">
+      <c r="H30" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="28">
         <v>13650000</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="49">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="48">
         <v>13650000</v>
       </c>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="160">
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="158">
         <v>617</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="168">
         <v>44034</v>
       </c>
       <c r="C31" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <v>5</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <v>225000</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="31">
         <v>1125000</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="32">
         <v>0.5</v>
       </c>
       <c r="I31" s="4">
         <v>562500</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="76">
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="74">
         <v>562500</v>
       </c>
-      <c r="M31" s="34"/>
-    </row>
-    <row r="32" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="163"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="160"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="212"/>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="38">
         <v>12</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>455000</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>5460000</v>
       </c>
-      <c r="H32" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="H32" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="14">
         <v>2730000</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="77">
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="75">
         <v>2730000</v>
       </c>
-      <c r="M32" s="42"/>
-    </row>
-    <row r="33" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97">
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="95">
         <v>618</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="71">
         <v>44036</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="79">
         <v>12</v>
       </c>
-      <c r="F33" s="226">
+      <c r="F33" s="157">
         <v>455000</v>
       </c>
-      <c r="G33" s="78">
+      <c r="G33" s="76">
         <v>5460000</v>
       </c>
-      <c r="H33" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="80">
+      <c r="H33" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="78">
         <v>2730000</v>
       </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="82">
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80">
         <v>2730000</v>
       </c>
-      <c r="M33" s="83"/>
-    </row>
-    <row r="34" spans="1:17" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="217">
+      <c r="M33" s="81"/>
+    </row>
+    <row r="34" spans="1:17" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="191">
         <v>656</v>
       </c>
-      <c r="B34" s="162">
+      <c r="B34" s="168">
         <v>44053</v>
       </c>
-      <c r="C34" s="218" t="s">
+      <c r="C34" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="147" t="s">
+      <c r="D34" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="151">
+      <c r="E34" s="148">
         <v>1</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>455000</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="31">
         <f t="shared" ref="G34:G42" si="5">E34*F34</f>
         <v>455000</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="32">
         <v>0.5</v>
       </c>
       <c r="I34" s="2">
@@ -3748,189 +4050,189 @@
         <f>I34</f>
         <v>227500</v>
       </c>
-      <c r="M34" s="147"/>
+      <c r="M34" s="144"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="219"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="148" t="s">
+      <c r="A35" s="192"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="152">
+      <c r="E35" s="149">
         <v>1</v>
       </c>
-      <c r="F35" s="36">
-        <v>455000</v>
-      </c>
-      <c r="G35" s="36">
+      <c r="F35" s="35">
+        <v>465000</v>
+      </c>
+      <c r="G35" s="35">
         <f t="shared" si="5"/>
-        <v>455000</v>
-      </c>
-      <c r="H35" s="37">
+        <v>465000</v>
+      </c>
+      <c r="H35" s="36">
         <v>0.5</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="6"/>
-        <v>227500</v>
+        <v>232500</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8">
         <f t="shared" ref="L35:L42" si="7">I35</f>
-        <v>227500</v>
-      </c>
-      <c r="M35" s="148"/>
+        <v>232500</v>
+      </c>
+      <c r="M35" s="145"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="219"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="148" t="s">
+      <c r="A36" s="192"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="152">
+      <c r="E36" s="149">
         <v>1</v>
       </c>
-      <c r="F36" s="36">
-        <v>455000</v>
-      </c>
-      <c r="G36" s="36">
+      <c r="F36" s="35">
+        <v>475000</v>
+      </c>
+      <c r="G36" s="35">
         <f t="shared" si="5"/>
-        <v>455000</v>
-      </c>
-      <c r="H36" s="37">
+        <v>475000</v>
+      </c>
+      <c r="H36" s="36">
         <v>0.5</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="6"/>
-        <v>227500</v>
+        <v>237500</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8">
         <f t="shared" si="7"/>
-        <v>227500</v>
-      </c>
-      <c r="M36" s="148"/>
-    </row>
-    <row r="37" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="219"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="148" t="s">
+        <v>237500</v>
+      </c>
+      <c r="M36" s="145"/>
+    </row>
+    <row r="37" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="192"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="152">
+      <c r="E37" s="149">
         <v>1</v>
       </c>
-      <c r="F37" s="36">
-        <v>455000</v>
-      </c>
-      <c r="G37" s="36">
+      <c r="F37" s="35">
+        <v>485000</v>
+      </c>
+      <c r="G37" s="35">
         <f t="shared" si="5"/>
-        <v>455000</v>
-      </c>
-      <c r="H37" s="37">
+        <v>485000</v>
+      </c>
+      <c r="H37" s="36">
         <v>0.5</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="6"/>
-        <v>227500</v>
+        <v>242500</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8">
         <f t="shared" si="7"/>
-        <v>227500</v>
-      </c>
-      <c r="M37" s="148"/>
-      <c r="Q37" s="119"/>
-    </row>
-    <row r="38" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="219"/>
-      <c r="B38" s="178"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="148" t="s">
+        <v>242500</v>
+      </c>
+      <c r="M37" s="145"/>
+      <c r="Q37" s="117"/>
+    </row>
+    <row r="38" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="192"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="152">
+      <c r="E38" s="149">
         <v>1</v>
       </c>
-      <c r="F38" s="36">
-        <v>455000</v>
-      </c>
-      <c r="G38" s="36">
+      <c r="F38" s="35">
+        <v>485000</v>
+      </c>
+      <c r="G38" s="35">
         <f t="shared" si="5"/>
-        <v>455000</v>
-      </c>
-      <c r="H38" s="37">
+        <v>485000</v>
+      </c>
+      <c r="H38" s="36">
         <v>0.5</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="6"/>
-        <v>227500</v>
+        <v>242500</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8">
         <f t="shared" si="7"/>
-        <v>227500</v>
-      </c>
-      <c r="M38" s="148"/>
-      <c r="Q38" s="119"/>
-    </row>
-    <row r="39" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="219"/>
-      <c r="B39" s="178"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="148" t="s">
+        <v>242500</v>
+      </c>
+      <c r="M38" s="145"/>
+      <c r="Q38" s="117"/>
+    </row>
+    <row r="39" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="192"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="152">
+      <c r="E39" s="149">
         <v>1</v>
       </c>
-      <c r="F39" s="36">
-        <v>455000</v>
-      </c>
-      <c r="G39" s="36">
+      <c r="F39" s="35">
+        <v>550000</v>
+      </c>
+      <c r="G39" s="35">
         <f t="shared" si="5"/>
-        <v>455000</v>
-      </c>
-      <c r="H39" s="37">
+        <v>550000</v>
+      </c>
+      <c r="H39" s="36">
         <v>0.5</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="6"/>
-        <v>227500</v>
+        <v>275000</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8">
         <f t="shared" si="7"/>
-        <v>227500</v>
-      </c>
-      <c r="M39" s="148"/>
-      <c r="Q39" s="119"/>
-    </row>
-    <row r="40" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="219"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="148" t="s">
+        <v>275000</v>
+      </c>
+      <c r="M39" s="145"/>
+      <c r="Q39" s="117"/>
+    </row>
+    <row r="40" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="192"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="152">
+      <c r="E40" s="149">
         <v>1</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="35">
         <v>455000</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="35">
         <f t="shared" si="5"/>
         <v>455000</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="36">
         <v>0.5</v>
       </c>
       <c r="I40" s="8">
@@ -3943,793 +4245,1092 @@
         <f t="shared" si="7"/>
         <v>227500</v>
       </c>
-      <c r="M40" s="148"/>
-      <c r="Q40" s="119"/>
-    </row>
-    <row r="41" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="221"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="149" t="s">
+      <c r="M40" s="145"/>
+      <c r="Q40" s="117"/>
+    </row>
+    <row r="41" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="193"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="150">
         <v>1</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="39">
         <v>455000</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="39">
         <f t="shared" si="5"/>
         <v>455000</v>
       </c>
-      <c r="H41" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="H41" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="12">
         <f t="shared" si="6"/>
         <v>227500</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13">
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12">
         <f t="shared" si="7"/>
         <v>227500</v>
       </c>
-      <c r="M41" s="149"/>
-      <c r="Q41" s="119"/>
-    </row>
-    <row r="42" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="223">
+      <c r="M41" s="146"/>
+      <c r="Q41" s="117"/>
+    </row>
+    <row r="42" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="258">
         <v>654</v>
       </c>
-      <c r="B42" s="72">
+      <c r="B42" s="71">
         <v>44053</v>
       </c>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="150" t="s">
+      <c r="D42" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="25">
         <v>24</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="26">
         <v>455000</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="26">
         <f t="shared" si="5"/>
         <v>10920000</v>
       </c>
-      <c r="H42" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="225">
+      <c r="H42" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="156">
         <f t="shared" si="6"/>
         <v>5460000</v>
       </c>
-      <c r="J42" s="225"/>
-      <c r="K42" s="225"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
       <c r="L42" s="2">
         <f t="shared" si="7"/>
         <v>5460000</v>
       </c>
-      <c r="M42" s="150"/>
-      <c r="Q42" s="119"/>
-    </row>
-    <row r="43" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="160">
+      <c r="M42" s="147"/>
+      <c r="Q42" s="117"/>
+    </row>
+    <row r="43" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="158">
         <v>642</v>
       </c>
-      <c r="B43" s="162">
+      <c r="B43" s="168">
         <v>44056</v>
       </c>
       <c r="C43" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="88">
+      <c r="E43" s="86">
         <v>24</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <v>485000</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="31">
         <v>5460000</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="32">
         <v>0.5</v>
       </c>
       <c r="I43" s="4">
         <v>2730000</v>
       </c>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="4">
         <v>2730000</v>
       </c>
-      <c r="M43" s="34"/>
-      <c r="N43" s="71"/>
-      <c r="Q43" s="119"/>
-    </row>
-    <row r="44" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="163"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="70"/>
+      <c r="Q43" s="117"/>
+    </row>
+    <row r="44" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="160"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="212"/>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44" s="87">
         <v>5</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="39">
         <v>455000</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="39">
         <v>5460000</v>
       </c>
-      <c r="H44" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="15">
+      <c r="H44" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="14">
         <v>2730000</v>
       </c>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="15">
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="14">
         <v>2730000</v>
       </c>
-      <c r="M44" s="42"/>
-      <c r="N44" s="58"/>
-      <c r="Q44" s="119"/>
-    </row>
-    <row r="45" spans="1:17" s="101" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="97">
+      <c r="M44" s="41"/>
+      <c r="N44" s="57"/>
+      <c r="Q44" s="117"/>
+    </row>
+    <row r="45" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95">
         <v>767</v>
       </c>
-      <c r="B45" s="72">
+      <c r="B45" s="71">
         <v>44065</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="79">
         <v>12</v>
       </c>
-      <c r="F45" s="78">
+      <c r="F45" s="76">
         <v>485000</v>
       </c>
-      <c r="G45" s="78">
+      <c r="G45" s="76">
         <v>5460000</v>
       </c>
-      <c r="H45" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="80">
+      <c r="H45" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="78">
         <v>2730000</v>
       </c>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="82">
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="80">
         <v>2730000</v>
       </c>
-      <c r="M45" s="139"/>
-      <c r="N45" s="58"/>
-      <c r="Q45" s="119"/>
-    </row>
-    <row r="46" spans="1:17" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="171">
+      <c r="M45" s="137"/>
+      <c r="N45" s="57"/>
+      <c r="Q45" s="117"/>
+    </row>
+    <row r="46" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="191">
         <v>664</v>
       </c>
-      <c r="B46" s="174">
+      <c r="B46" s="194">
         <v>44088</v>
       </c>
-      <c r="C46" s="206" t="s">
+      <c r="C46" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="90">
+      <c r="E46" s="88">
         <v>24</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="31">
         <v>455000</v>
       </c>
-      <c r="G46" s="115">
-        <f t="shared" ref="G46:G57" si="8">E46*F46</f>
+      <c r="G46" s="113">
+        <f t="shared" ref="G46:G58" si="8">E46*F46</f>
         <v>10920000</v>
       </c>
-      <c r="H46" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="117">
+      <c r="H46" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="115">
         <f>G46*(1-H46)</f>
         <v>5460000</v>
       </c>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="118">
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="116">
         <f>I46</f>
         <v>5460000</v>
       </c>
-      <c r="M46" s="98"/>
-      <c r="N46" s="101"/>
-    </row>
-    <row r="47" spans="1:17" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="120" t="s">
+      <c r="M46" s="96"/>
+      <c r="N46" s="99"/>
+    </row>
+    <row r="47" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="193"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="92">
+      <c r="E47" s="90">
         <v>24</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="39">
         <v>475000</v>
       </c>
-      <c r="G47" s="121">
+      <c r="G47" s="119">
         <f t="shared" si="8"/>
         <v>11400000</v>
       </c>
-      <c r="H47" s="122">
-        <v>0.5</v>
-      </c>
-      <c r="I47" s="108">
-        <f t="shared" ref="I47:I61" si="9">G47*(1-H47)</f>
+      <c r="H47" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="106">
+        <f t="shared" ref="I47:I62" si="9">G47*(1-H47)</f>
         <v>5700000</v>
       </c>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="123">
-        <f t="shared" ref="L47:L61" si="10">I47</f>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="121">
+        <f t="shared" ref="L47:L62" si="10">I47</f>
         <v>5700000</v>
       </c>
-      <c r="M47" s="105"/>
-      <c r="N47" s="101"/>
-    </row>
-    <row r="48" spans="1:17" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="111">
+      <c r="M47" s="103"/>
+      <c r="N47" s="99"/>
+    </row>
+    <row r="48" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="109">
         <v>666</v>
       </c>
-      <c r="B48" s="110">
+      <c r="B48" s="108">
         <v>44091</v>
       </c>
-      <c r="C48" s="124" t="s">
+      <c r="C48" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="125" t="s">
+      <c r="D48" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="25">
         <v>42</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>455000</v>
       </c>
-      <c r="G48" s="140">
+      <c r="G48" s="138">
         <f t="shared" si="8"/>
         <v>19110000</v>
       </c>
-      <c r="H48" s="138">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="126">
+      <c r="H48" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="124">
         <f t="shared" si="9"/>
         <v>9555000</v>
       </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="127">
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="125">
         <f t="shared" si="10"/>
         <v>9555000</v>
       </c>
-      <c r="M48" s="111"/>
-      <c r="N48" s="101"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="99"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="111">
+      <c r="A49" s="109">
         <v>669</v>
       </c>
-      <c r="B49" s="110">
+      <c r="B49" s="108">
         <v>44092</v>
       </c>
-      <c r="C49" s="124" t="s">
+      <c r="C49" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="125" t="s">
+      <c r="D49" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="25">
         <v>24</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="26">
         <v>225000</v>
       </c>
-      <c r="G49" s="140">
+      <c r="G49" s="138">
         <f t="shared" si="8"/>
         <v>5400000</v>
       </c>
-      <c r="H49" s="138">
-        <v>0.5</v>
-      </c>
-      <c r="I49" s="126">
+      <c r="H49" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="124">
         <f t="shared" si="9"/>
         <v>2700000</v>
       </c>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="127">
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="125">
         <f t="shared" si="10"/>
         <v>2700000</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="101"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="99"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="171">
+      <c r="A50" s="191">
         <v>677</v>
       </c>
-      <c r="B50" s="174">
+      <c r="B50" s="194">
         <v>44096</v>
       </c>
-      <c r="C50" s="206" t="s">
+      <c r="C50" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="90">
+      <c r="E50" s="88">
         <v>1</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>225000</v>
       </c>
-      <c r="G50" s="115">
+      <c r="G50" s="113">
         <f t="shared" si="8"/>
         <v>225000</v>
       </c>
-      <c r="H50" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="117">
+      <c r="H50" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="115">
         <f t="shared" si="9"/>
         <v>112500</v>
       </c>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="118">
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="116">
         <f t="shared" si="10"/>
         <v>112500</v>
       </c>
-      <c r="M50" s="98"/>
-      <c r="N50" s="101"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="99"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="172"/>
-      <c r="B51" s="175"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="128" t="s">
+      <c r="A51" s="192"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="91">
+      <c r="E51" s="89">
         <v>1</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="35">
         <v>455000</v>
       </c>
-      <c r="G51" s="141">
+      <c r="G51" s="139">
         <f t="shared" si="8"/>
         <v>455000</v>
       </c>
-      <c r="H51" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I51" s="136">
+      <c r="H51" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="134">
         <f t="shared" si="9"/>
         <v>227500</v>
       </c>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="137">
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="135">
         <f t="shared" si="10"/>
         <v>227500</v>
       </c>
-      <c r="M51" s="102"/>
-      <c r="N51" s="101"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="99"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="172"/>
-      <c r="B52" s="175"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="128" t="s">
+      <c r="A52" s="192"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="206"/>
+      <c r="D52" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="91">
+      <c r="E52" s="89">
         <v>1</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="35">
         <v>465000</v>
       </c>
-      <c r="G52" s="141">
+      <c r="G52" s="139">
         <f t="shared" si="8"/>
         <v>465000</v>
       </c>
-      <c r="H52" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I52" s="136">
+      <c r="H52" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="134">
         <f t="shared" si="9"/>
         <v>232500</v>
       </c>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="137">
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="135">
         <f t="shared" si="10"/>
         <v>232500</v>
       </c>
-      <c r="M52" s="102"/>
-      <c r="N52" s="101"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="99"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="172"/>
-      <c r="B53" s="175"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="128" t="s">
+      <c r="A53" s="192"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="91">
+      <c r="E53" s="89">
         <v>1</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="35">
         <v>475000</v>
       </c>
-      <c r="G53" s="141">
+      <c r="G53" s="139">
         <f t="shared" si="8"/>
         <v>475000</v>
       </c>
-      <c r="H53" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I53" s="136">
+      <c r="H53" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="134">
         <f t="shared" si="9"/>
         <v>237500</v>
       </c>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="137">
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="135">
         <f t="shared" si="10"/>
         <v>237500</v>
       </c>
-      <c r="M53" s="102"/>
-      <c r="N53" s="101"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="99"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="172"/>
-      <c r="B54" s="175"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="128" t="s">
+      <c r="A54" s="192"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="91">
+      <c r="E54" s="89">
         <v>1</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="35">
         <v>485000</v>
       </c>
-      <c r="G54" s="141">
+      <c r="G54" s="139">
         <f t="shared" si="8"/>
         <v>485000</v>
       </c>
-      <c r="H54" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I54" s="136">
+      <c r="H54" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="134">
         <f t="shared" si="9"/>
         <v>242500</v>
       </c>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="137">
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="135">
         <f t="shared" si="10"/>
         <v>242500</v>
       </c>
-      <c r="M54" s="130"/>
-      <c r="N54" s="101"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="99"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="172"/>
-      <c r="B55" s="175"/>
-      <c r="C55" s="207"/>
-      <c r="D55" s="128" t="s">
+      <c r="A55" s="192"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="91">
+      <c r="E55" s="89">
         <v>1</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="35">
         <v>485000</v>
       </c>
-      <c r="G55" s="141">
+      <c r="G55" s="139">
         <f t="shared" si="8"/>
         <v>485000</v>
       </c>
-      <c r="H55" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I55" s="136">
+      <c r="H55" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="134">
         <f t="shared" si="9"/>
         <v>242500</v>
       </c>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="137">
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="135">
         <f t="shared" si="10"/>
         <v>242500</v>
       </c>
-      <c r="M55" s="130"/>
-      <c r="N55" s="131"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="129"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="172"/>
-      <c r="B56" s="175"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="128" t="s">
+      <c r="A56" s="192"/>
+      <c r="B56" s="195"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="91">
+      <c r="E56" s="89">
         <v>1</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="35">
         <v>455000</v>
       </c>
-      <c r="G56" s="141">
+      <c r="G56" s="139">
         <f t="shared" si="8"/>
         <v>455000</v>
       </c>
-      <c r="H56" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I56" s="136">
+      <c r="H56" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="134">
         <f t="shared" si="9"/>
         <v>227500</v>
       </c>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="137">
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="135">
         <f t="shared" si="10"/>
         <v>227500</v>
       </c>
-      <c r="M56" s="130"/>
-      <c r="N56" s="131"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="129"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="173"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="208"/>
-      <c r="D57" s="120" t="s">
+      <c r="A57" s="261"/>
+      <c r="B57" s="262"/>
+      <c r="C57" s="263"/>
+      <c r="D57" s="264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="265">
+        <v>1</v>
+      </c>
+      <c r="F57" s="266">
+        <v>550000</v>
+      </c>
+      <c r="G57" s="267">
+        <f t="shared" si="8"/>
+        <v>550000</v>
+      </c>
+      <c r="H57" s="268">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="269">
+        <f t="shared" si="9"/>
+        <v>275000</v>
+      </c>
+      <c r="J57" s="270"/>
+      <c r="K57" s="270"/>
+      <c r="L57" s="271">
+        <f t="shared" si="10"/>
+        <v>275000</v>
+      </c>
+      <c r="M57" s="272"/>
+      <c r="N57" s="129"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="193"/>
+      <c r="B58" s="196"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="92">
+      <c r="E58" s="90">
         <v>1</v>
       </c>
-      <c r="F57" s="40">
+      <c r="F58" s="39">
         <v>455000</v>
       </c>
-      <c r="G57" s="121">
+      <c r="G58" s="119">
         <f t="shared" si="8"/>
         <v>455000</v>
       </c>
-      <c r="H57" s="122">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="108">
+      <c r="H58" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="106">
         <f t="shared" si="9"/>
         <v>227500</v>
       </c>
-      <c r="J57" s="123"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="123">
+      <c r="J58" s="121"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="121">
         <f t="shared" si="10"/>
         <v>227500</v>
       </c>
-      <c r="M57" s="95"/>
-      <c r="N57" s="131"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="160">
-        <v>809</v>
-      </c>
-      <c r="B58" s="174">
+      <c r="M58" s="93"/>
+      <c r="N58" s="129"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="158">
+        <v>817</v>
+      </c>
+      <c r="B59" s="194">
         <v>44107</v>
       </c>
-      <c r="C58" s="171" t="s">
+      <c r="C59" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="93" t="s">
+      <c r="D59" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="90">
-        <v>23</v>
-      </c>
-      <c r="F58" s="32">
+      <c r="E59" s="88">
+        <v>21</v>
+      </c>
+      <c r="F59" s="31">
         <v>225000</v>
       </c>
-      <c r="G58" s="115">
-        <f t="shared" ref="G58:G61" si="11">E58*F58</f>
-        <v>5175000</v>
-      </c>
-      <c r="H58" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="117">
+      <c r="G59" s="113">
+        <f t="shared" ref="G59:G62" si="11">E59*F59</f>
+        <v>4725000</v>
+      </c>
+      <c r="H59" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="115">
         <f t="shared" si="9"/>
-        <v>2587500</v>
-      </c>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="118">
+        <v>2362500</v>
+      </c>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="116">
         <f t="shared" si="10"/>
-        <v>2587500</v>
-      </c>
-      <c r="M58" s="118"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="177"/>
-      <c r="B59" s="175"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="94" t="s">
+        <v>2362500</v>
+      </c>
+      <c r="M59" s="116"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="159"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="192"/>
+      <c r="D60" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="91">
+      <c r="E60" s="89">
         <v>8</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F60" s="35">
         <v>455000</v>
       </c>
-      <c r="G59" s="141">
+      <c r="G60" s="139">
         <f t="shared" si="11"/>
         <v>3640000</v>
       </c>
-      <c r="H59" s="135">
-        <v>0.5</v>
-      </c>
-      <c r="I59" s="136">
+      <c r="H60" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I60" s="134">
         <f t="shared" si="9"/>
         <v>1820000</v>
       </c>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="137">
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="135">
         <f t="shared" si="10"/>
         <v>1820000</v>
       </c>
-      <c r="M59" s="137"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="95" t="s">
+      <c r="M60" s="135"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="160"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="193"/>
+      <c r="D61" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="92">
+      <c r="E61" s="90">
         <v>12</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F61" s="39">
         <v>485000</v>
       </c>
-      <c r="G60" s="121">
+      <c r="G61" s="119">
         <f t="shared" si="11"/>
         <v>5820000</v>
       </c>
-      <c r="H60" s="122">
-        <v>0.5</v>
-      </c>
-      <c r="I60" s="108">
+      <c r="H61" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="106">
         <f t="shared" si="9"/>
         <v>2910000</v>
       </c>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="123">
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="121">
         <f t="shared" si="10"/>
         <v>2910000</v>
       </c>
-      <c r="M60" s="123"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+      <c r="M61" s="121"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
         <v>810</v>
       </c>
-      <c r="B61" s="110">
+      <c r="B62" s="108">
         <v>44109</v>
       </c>
-      <c r="C61" s="134" t="s">
+      <c r="C62" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="134" t="s">
+      <c r="D62" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E62" s="25">
         <v>36</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F62" s="26">
         <v>485000</v>
       </c>
-      <c r="G61" s="121">
+      <c r="G62" s="119">
         <f t="shared" si="11"/>
         <v>17460000</v>
       </c>
-      <c r="H61" s="138">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="126">
+      <c r="H62" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="124">
         <f t="shared" si="9"/>
         <v>8730000</v>
       </c>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="127">
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="125">
         <f t="shared" si="10"/>
         <v>8730000</v>
       </c>
-      <c r="M61" s="127"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="199" t="s">
+      <c r="M62" s="125"/>
+    </row>
+    <row r="63" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="109">
+        <v>827</v>
+      </c>
+      <c r="B63" s="228">
+        <v>44124</v>
+      </c>
+      <c r="C63" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="107">
+        <v>6</v>
+      </c>
+      <c r="F63" s="138">
+        <v>485000</v>
+      </c>
+      <c r="G63" s="138">
+        <f>F63*E63</f>
+        <v>2910000</v>
+      </c>
+      <c r="H63" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="124">
+        <f t="shared" ref="I63:I69" si="12">G63*(1-H63)</f>
+        <v>1455000</v>
+      </c>
+      <c r="J63" s="260"/>
+      <c r="K63" s="260"/>
+      <c r="L63" s="125">
+        <f>I63</f>
+        <v>1455000</v>
+      </c>
+      <c r="M63" s="229"/>
+    </row>
+    <row r="64" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="109">
+        <v>1226</v>
+      </c>
+      <c r="B64" s="228">
+        <v>44128</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="107">
+        <v>2</v>
+      </c>
+      <c r="F64" s="138">
+        <v>485000</v>
+      </c>
+      <c r="G64" s="138">
+        <f>F64*E64</f>
+        <v>970000</v>
+      </c>
+      <c r="H64" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="124">
+        <f t="shared" si="12"/>
+        <v>485000</v>
+      </c>
+      <c r="J64" s="260"/>
+      <c r="K64" s="260"/>
+      <c r="L64" s="125">
+        <f>I64</f>
+        <v>485000</v>
+      </c>
+      <c r="M64" s="229"/>
+    </row>
+    <row r="65" spans="1:13" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="109">
+        <v>1210</v>
+      </c>
+      <c r="B65" s="228">
+        <v>44135</v>
+      </c>
+      <c r="C65" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="107">
+        <v>12</v>
+      </c>
+      <c r="F65" s="138">
+        <v>235000</v>
+      </c>
+      <c r="G65" s="138">
+        <f>F65*E65</f>
+        <v>2820000</v>
+      </c>
+      <c r="H65" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="124">
+        <f t="shared" si="12"/>
+        <v>1410000</v>
+      </c>
+      <c r="J65" s="260"/>
+      <c r="K65" s="260"/>
+      <c r="L65" s="125">
+        <f>I65</f>
+        <v>1410000</v>
+      </c>
+      <c r="M65" s="229"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="158">
+        <v>1220</v>
+      </c>
+      <c r="B66" s="194">
+        <v>44139</v>
+      </c>
+      <c r="C66" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="91">
+        <v>3</v>
+      </c>
+      <c r="F66" s="31">
+        <v>235000</v>
+      </c>
+      <c r="G66" s="113">
+        <f t="shared" ref="G66:G69" si="13">F66*E66</f>
+        <v>705000</v>
+      </c>
+      <c r="H66" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="115">
+        <f t="shared" si="12"/>
+        <v>352500</v>
+      </c>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="116">
+        <f t="shared" ref="L66:L69" si="14">I66</f>
+        <v>352500</v>
+      </c>
+      <c r="M66" s="91"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="159"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="92">
+        <v>2</v>
+      </c>
+      <c r="F67" s="35">
+        <v>485000</v>
+      </c>
+      <c r="G67" s="139">
+        <f t="shared" si="13"/>
+        <v>970000</v>
+      </c>
+      <c r="H67" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="134">
+        <f t="shared" si="12"/>
+        <v>485000</v>
+      </c>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="135">
+        <f t="shared" si="14"/>
+        <v>485000</v>
+      </c>
+      <c r="M67" s="92"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="160"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="93">
+        <v>12</v>
+      </c>
+      <c r="F68" s="39">
+        <v>455000</v>
+      </c>
+      <c r="G68" s="119">
+        <f t="shared" si="13"/>
+        <v>5460000</v>
+      </c>
+      <c r="H68" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="106">
+        <f t="shared" si="12"/>
+        <v>2730000</v>
+      </c>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="121">
+        <f t="shared" si="14"/>
+        <v>2730000</v>
+      </c>
+      <c r="M68" s="93"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="132">
+        <v>1222</v>
+      </c>
+      <c r="B69" s="228">
+        <v>44142</v>
+      </c>
+      <c r="C69" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="132">
+        <v>1</v>
+      </c>
+      <c r="F69" s="138">
+        <v>485000</v>
+      </c>
+      <c r="G69" s="119">
+        <f t="shared" si="13"/>
+        <v>485000</v>
+      </c>
+      <c r="H69" s="259">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="124">
+        <f t="shared" si="12"/>
+        <v>242500</v>
+      </c>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="125">
+        <f t="shared" si="14"/>
+        <v>242500</v>
+      </c>
+      <c r="M69" s="132"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="200"/>
-      <c r="C62" s="200"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67">
-        <f>SUM(E8:E61)</f>
-        <v>600</v>
-      </c>
-      <c r="F62" s="67"/>
-      <c r="G62" s="68">
-        <f>SUM(G8:G61)</f>
-        <v>249730000</v>
-      </c>
-      <c r="H62" s="67"/>
-      <c r="I62" s="69">
-        <f>SUM(I8:I61)</f>
-        <v>124865000</v>
-      </c>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="70">
-        <f>I62</f>
-        <v>124865000</v>
-      </c>
-      <c r="M62" s="67"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G64" s="142">
-        <f>G62/2</f>
-        <v>124865000</v>
+      <c r="B70" s="217"/>
+      <c r="C70" s="217"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66">
+        <f>SUM(E8:E62)</f>
+        <v>599</v>
+      </c>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67">
+        <f>SUM(G8:G69)</f>
+        <v>264335000</v>
+      </c>
+      <c r="H70" s="66"/>
+      <c r="I70" s="68">
+        <f>SUM(I8:I69)</f>
+        <v>132167500</v>
+      </c>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="69">
+        <f>I70</f>
+        <v>132167500</v>
+      </c>
+      <c r="M70" s="66"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G72" s="140">
+        <f>G70/2</f>
+        <v>132167500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="C50:C57"/>
+  <mergeCells count="42">
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A46:A47"/>
@@ -4743,22 +5344,13 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
   </mergeCells>
   <pageMargins left="0.41" right="0.39" top="0.37" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>2CX45</t>
   </si>
+  <si>
+    <t>BCX45</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +159,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,19 +176,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -238,12 +228,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
@@ -270,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -447,17 +431,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -473,9 +467,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -485,9 +476,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -512,21 +500,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,9 +551,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -599,20 +569,33 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,37 +606,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,15 +653,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -848,177 +806,435 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1029,195 +1245,29 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1501,1461 +1551,1762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="57"/>
-    <col min="6" max="6" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="57" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="57" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="57" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="57" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="4.85546875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="48"/>
+    <col min="6" max="6" width="9.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="48" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="48" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="55"/>
-      <c r="N1" s="58"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="194"/>
+      <c r="N1" s="196"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="60"/>
-      <c r="N2" s="62"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="51"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-    </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
+    </row>
+    <row r="5" spans="1:14" s="86" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179" t="s">
+      <c r="D5" s="229"/>
+      <c r="E5" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="180" t="s">
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="182" t="s">
+      <c r="K5" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-    </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="23" t="s">
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+    </row>
+    <row r="6" spans="1:14" s="86" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="226"/>
+      <c r="B6" s="228"/>
+      <c r="C6" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="181"/>
-      <c r="K6" s="21" t="s">
+      <c r="J6" s="232"/>
+      <c r="K6" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="198" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="209">
         <v>571</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="219">
         <v>43990</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="140">
         <v>72</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>225000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" ref="H7:H32" si="0">F7*G7</f>
         <v>16200000</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" ref="J7:J32" si="1">H7*(1-I7)</f>
         <v>8100000</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
         <f>J7</f>
         <v>8100000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="143" t="s">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="210"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="141">
         <v>36</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>455000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="I8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="1"/>
         <v>8190000</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <f t="shared" ref="M8:M17" si="2">J8</f>
         <v>8190000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="143" t="s">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="210"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="141">
         <v>84</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>465000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>39060000</v>
       </c>
-      <c r="I9" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>19530000</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
         <f t="shared" si="2"/>
         <v>19530000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="159"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="143" t="s">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="210"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="141">
         <v>12</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>475000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
         <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="143" t="s">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="210"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="141">
         <v>60</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>485000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>29100000</v>
       </c>
-      <c r="I11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="1"/>
         <v>14550000</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <f t="shared" si="2"/>
         <v>14550000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="143" t="s">
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="210"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="141">
         <v>24</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>550000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
-      <c r="I12" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" si="1"/>
         <v>6600000</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
         <f t="shared" si="2"/>
         <v>6600000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="143" t="s">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="210"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="141">
         <v>48</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>455000</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>21840000</v>
       </c>
-      <c r="I13" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
         <f t="shared" si="2"/>
         <v>10920000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="142" t="s">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="211"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="142">
         <v>12</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>455000</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="164">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="215">
         <v>587</v>
       </c>
-      <c r="B15" s="221">
+      <c r="B15" s="234">
         <v>43995</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="141" t="s">
+      <c r="E15" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="140">
         <v>12</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>475000</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
         <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="142" t="s">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="216"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="142">
         <v>12</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <v>485000</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="I16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="I16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9">
         <f t="shared" si="2"/>
         <v>2910000</v>
       </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="166"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="219" t="s">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="217"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="154">
+      <c r="F17" s="143">
         <v>12</v>
       </c>
-      <c r="G17" s="156">
+      <c r="G17" s="138">
         <v>455000</v>
       </c>
-      <c r="H17" s="156">
+      <c r="H17" s="138">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I17" s="220">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="156">
+      <c r="I17" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="138">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156">
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="209">
         <v>479</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="219">
         <v>43996</v>
       </c>
-      <c r="C18" s="186" t="s">
+      <c r="C18" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="141" t="s">
+      <c r="E18" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="140">
         <v>12</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>475000</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
         <f>J18</f>
         <v>2850000</v>
       </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="143" t="s">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="210"/>
+      <c r="B19" s="220"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="141">
         <v>48</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>485000</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
         <v>23280000</v>
       </c>
-      <c r="I19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="I19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6">
         <f t="shared" ref="M19:M32" si="3">J19</f>
         <v>11640000</v>
       </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="143" t="s">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="210"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="262"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="141">
         <v>48</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>550000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
-      <c r="I20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>13200000</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6">
         <f t="shared" si="3"/>
         <v>13200000</v>
       </c>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="143" t="s">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="210"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="141">
         <v>84</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>455000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>38220000</v>
       </c>
-      <c r="I21" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>19110000</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
         <f t="shared" si="3"/>
         <v>19110000</v>
       </c>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="142" t="s">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="211"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="142">
         <v>12</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <v>455000</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I22" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="I22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9">
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>597</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="13">
         <v>44002</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <v>60</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="15">
         <v>455000</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="15">
         <f t="shared" si="0"/>
         <v>27300000</v>
       </c>
-      <c r="I23" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="I23" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="15">
         <f t="shared" si="1"/>
         <v>13650000</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15">
         <f t="shared" si="3"/>
         <v>13650000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="158">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="209">
         <v>635</v>
       </c>
-      <c r="B24" s="168">
+      <c r="B24" s="219">
         <v>44047</v>
       </c>
-      <c r="C24" s="164" t="s">
+      <c r="C24" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="164" t="s">
+      <c r="D24" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="141" t="s">
+      <c r="E24" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="140">
         <v>24</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>455000</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166" t="s">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="211"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="142" t="s">
+      <c r="E25" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="142">
         <v>24</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>465000</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
-      <c r="I25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="12">
+      <c r="I25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="9">
         <f t="shared" si="1"/>
         <v>5580000</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9">
         <f t="shared" si="3"/>
         <v>5580000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="158">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="209">
         <v>763</v>
       </c>
-      <c r="B26" s="161">
+      <c r="B26" s="212">
         <v>44063</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="164" t="s">
+      <c r="D26" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="151" t="s">
+      <c r="E26" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="140">
         <v>48</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>225000</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <f t="shared" si="0"/>
         <v>10800000</v>
       </c>
-      <c r="I26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>5400000</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="2">
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="1">
         <f t="shared" si="3"/>
         <v>5400000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="159"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="210"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="84">
+      <c r="F27" s="141">
         <v>36</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>455000</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="I27" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="I27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="1"/>
         <v>8190000</v>
       </c>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="8">
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="6">
         <f t="shared" si="3"/>
         <v>8190000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="211"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="153" t="s">
+      <c r="E28" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="142">
         <v>36</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="9">
         <v>485000</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="I28" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="I28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="1"/>
         <v>8730000</v>
       </c>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="12">
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="9">
         <f t="shared" si="3"/>
         <v>8730000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="158">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="209">
         <v>764</v>
       </c>
-      <c r="B29" s="161">
+      <c r="B29" s="212">
         <v>44065</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="151" t="s">
+      <c r="E29" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="140">
         <v>12</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>455000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="2">
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="1">
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="159"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="210"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="152" t="s">
+      <c r="E30" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="84">
+      <c r="F30" s="141">
         <v>60</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>465000</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <f t="shared" si="0"/>
         <v>27900000</v>
       </c>
-      <c r="I30" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="I30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="1"/>
         <v>13950000</v>
       </c>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="8">
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="6">
         <f t="shared" si="3"/>
         <v>13950000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="159"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="210"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="152" t="s">
+      <c r="E31" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="84">
+      <c r="F31" s="141">
         <v>36</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>475000</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
-      <c r="I31" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="I31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="1"/>
         <v>8550000</v>
       </c>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="8">
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="6">
         <f t="shared" si="3"/>
         <v>8550000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="211"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="153" t="s">
+      <c r="E32" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="142">
         <v>36</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <v>455000</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="I32" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="12">
+      <c r="I32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" si="1"/>
         <v>8190000</v>
       </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="12">
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="9">
         <f t="shared" si="3"/>
         <v>8190000</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="191">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="246">
         <v>794</v>
       </c>
-      <c r="B33" s="194">
+      <c r="B33" s="249">
         <v>44090</v>
       </c>
-      <c r="C33" s="188" t="s">
+      <c r="C33" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="188" t="s">
+      <c r="D33" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="96">
+      <c r="F33" s="147">
         <v>48</v>
       </c>
-      <c r="G33" s="97">
+      <c r="G33" s="84">
         <v>455000</v>
       </c>
-      <c r="H33" s="97">
+      <c r="H33" s="84">
         <f>F33*G33</f>
         <v>21840000</v>
       </c>
-      <c r="I33" s="98">
-        <v>0.5</v>
-      </c>
-      <c r="J33" s="97">
-        <f>H33*(1-I33)</f>
+      <c r="I33" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="84">
+        <f t="shared" ref="J33:J42" si="4">H33*(1-I33)</f>
         <v>10920000</v>
       </c>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="97">
-        <f>J33</f>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="84">
+        <f t="shared" ref="M33:M42" si="5">J33</f>
         <v>10920000</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="192"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="126" t="s">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="247"/>
+      <c r="B34" s="250"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="100">
+      <c r="F34" s="148">
         <v>24</v>
       </c>
-      <c r="G34" s="101">
+      <c r="G34" s="88">
         <v>465000</v>
       </c>
-      <c r="H34" s="101">
+      <c r="H34" s="88">
         <f>F34*G34</f>
         <v>11160000</v>
       </c>
-      <c r="I34" s="102">
-        <v>0.5</v>
-      </c>
-      <c r="J34" s="101">
-        <f>H34*(1-I34)</f>
+      <c r="I34" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="88">
+        <f t="shared" si="4"/>
         <v>5580000</v>
       </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="101">
-        <f>J34</f>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="88">
+        <f t="shared" si="5"/>
         <v>5580000</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="193"/>
-      <c r="B35" s="196"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="118" t="s">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="248"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="103">
+      <c r="F35" s="149">
         <v>24</v>
       </c>
-      <c r="G35" s="104">
+      <c r="G35" s="91">
         <v>485000</v>
       </c>
-      <c r="H35" s="104">
+      <c r="H35" s="91">
         <f>F35*G35</f>
         <v>11640000</v>
       </c>
-      <c r="I35" s="105">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="106">
-        <f>H35*(1-I35)</f>
+      <c r="I35" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="93">
+        <f t="shared" si="4"/>
         <v>5820000</v>
       </c>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="104">
-        <f>J35</f>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="91">
+        <f t="shared" si="5"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="94">
         <v>675</v>
       </c>
-      <c r="B36" s="108">
+      <c r="B36" s="95">
         <v>44096</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="123" t="s">
+      <c r="E36" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="109">
+      <c r="F36" s="96">
         <v>12</v>
       </c>
-      <c r="G36" s="110">
+      <c r="G36" s="97">
         <v>455000</v>
       </c>
-      <c r="H36" s="110">
+      <c r="H36" s="97">
         <f>F36*G36</f>
         <v>5460000</v>
       </c>
-      <c r="I36" s="111">
-        <v>0.5</v>
-      </c>
-      <c r="J36" s="110">
-        <f>H36*(1-I36)</f>
+      <c r="I36" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="97">
+        <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="110">
-        <f>J36</f>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="97">
+        <f t="shared" si="5"/>
         <v>2730000</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="230">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="252">
         <v>816</v>
       </c>
-      <c r="B37" s="231">
+      <c r="B37" s="255">
         <v>44112</v>
       </c>
-      <c r="C37" s="256" t="s">
+      <c r="C37" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="256" t="s">
+      <c r="D37" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="233" t="s">
+      <c r="E37" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="232">
+      <c r="F37" s="157">
         <v>4</v>
       </c>
-      <c r="G37" s="234">
+      <c r="G37" s="159">
         <v>225000</v>
       </c>
-      <c r="H37" s="234">
-        <f t="shared" ref="H37:H42" si="4">F37*G37</f>
+      <c r="H37" s="159">
+        <f t="shared" ref="H37:H42" si="6">F37*G37</f>
         <v>900000</v>
       </c>
-      <c r="I37" s="235">
-        <v>0.5</v>
-      </c>
-      <c r="J37" s="234">
-        <f>H37*(1-I37)</f>
+      <c r="I37" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="159">
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
-      <c r="K37" s="236"/>
-      <c r="L37" s="236"/>
-      <c r="M37" s="236">
-        <f>J37</f>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161">
+        <f t="shared" si="5"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" s="227" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="237"/>
-      <c r="B38" s="238"/>
-      <c r="C38" s="257"/>
-      <c r="D38" s="257"/>
-      <c r="E38" s="240" t="s">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="254"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="239">
+      <c r="F38" s="162">
         <v>12</v>
       </c>
-      <c r="G38" s="241">
+      <c r="G38" s="164">
         <v>455000</v>
       </c>
-      <c r="H38" s="241">
+      <c r="H38" s="164">
+        <f t="shared" si="6"/>
+        <v>5460000</v>
+      </c>
+      <c r="I38" s="165">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="164">
         <f t="shared" si="4"/>
+        <v>2730000</v>
+      </c>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="166">
+        <f t="shared" si="5"/>
+        <v>2730000</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="167">
+        <v>831</v>
+      </c>
+      <c r="B39" s="168">
+        <v>44125</v>
+      </c>
+      <c r="C39" s="169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="170">
+        <v>4</v>
+      </c>
+      <c r="G39" s="171">
+        <v>485000</v>
+      </c>
+      <c r="H39" s="171">
+        <f t="shared" si="6"/>
+        <v>1940000</v>
+      </c>
+      <c r="I39" s="172">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="171">
+        <f t="shared" si="4"/>
+        <v>970000</v>
+      </c>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171">
+        <f t="shared" si="5"/>
+        <v>970000</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="252">
+        <v>834</v>
+      </c>
+      <c r="B40" s="255">
+        <v>44125</v>
+      </c>
+      <c r="C40" s="258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="157">
+        <v>120</v>
+      </c>
+      <c r="G40" s="159">
+        <v>225000</v>
+      </c>
+      <c r="H40" s="159">
+        <f t="shared" si="6"/>
+        <v>27000000</v>
+      </c>
+      <c r="I40" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="159">
+        <f t="shared" si="4"/>
+        <v>13500000</v>
+      </c>
+      <c r="K40" s="159"/>
+      <c r="L40" s="159"/>
+      <c r="M40" s="159">
+        <f t="shared" si="5"/>
+        <v>13500000</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="254"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="260"/>
+      <c r="D41" s="260"/>
+      <c r="E41" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="162">
+        <v>120</v>
+      </c>
+      <c r="G41" s="164">
+        <v>455000</v>
+      </c>
+      <c r="H41" s="164">
+        <f t="shared" si="6"/>
+        <v>54600000</v>
+      </c>
+      <c r="I41" s="165">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="164">
+        <f t="shared" si="4"/>
+        <v>27300000</v>
+      </c>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164">
+        <f t="shared" si="5"/>
+        <v>27300000</v>
+      </c>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+    </row>
+    <row r="42" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="173">
+        <v>1208</v>
+      </c>
+      <c r="B42" s="174">
+        <v>44132</v>
+      </c>
+      <c r="C42" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="173" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="176">
+        <v>24</v>
+      </c>
+      <c r="G42" s="177">
+        <v>235000</v>
+      </c>
+      <c r="H42" s="177">
+        <f t="shared" si="6"/>
+        <v>5640000</v>
+      </c>
+      <c r="I42" s="178">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="177">
+        <f t="shared" si="4"/>
+        <v>2820000</v>
+      </c>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177">
+        <f t="shared" si="5"/>
+        <v>2820000</v>
+      </c>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+    </row>
+    <row r="43" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="252">
+        <v>1239</v>
+      </c>
+      <c r="B43" s="255">
+        <v>44153</v>
+      </c>
+      <c r="C43" s="258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="157">
+        <v>36</v>
+      </c>
+      <c r="G43" s="159">
+        <v>475000</v>
+      </c>
+      <c r="H43" s="159">
+        <f t="shared" ref="H43:H47" si="7">F43*G43</f>
+        <v>17100000</v>
+      </c>
+      <c r="I43" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="159">
+        <f>H43*(1-I43)</f>
+        <v>8550000</v>
+      </c>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="159">
+        <f t="shared" ref="M43:M47" si="8">J43</f>
+        <v>8550000</v>
+      </c>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+    </row>
+    <row r="44" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="253"/>
+      <c r="B44" s="256"/>
+      <c r="C44" s="259"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="157">
+        <v>12</v>
+      </c>
+      <c r="G44" s="202">
+        <v>485000</v>
+      </c>
+      <c r="H44" s="202">
+        <f t="shared" si="7"/>
+        <v>5820000</v>
+      </c>
+      <c r="I44" s="203">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="202">
+        <f>H44*(1-I44)</f>
+        <v>2910000</v>
+      </c>
+      <c r="K44" s="202"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="202">
+        <f t="shared" si="8"/>
+        <v>2910000</v>
+      </c>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+    </row>
+    <row r="45" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="253"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="259"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="157">
+        <v>20</v>
+      </c>
+      <c r="G45" s="202">
+        <v>550000</v>
+      </c>
+      <c r="H45" s="202">
+        <f t="shared" si="7"/>
+        <v>11000000</v>
+      </c>
+      <c r="I45" s="203">
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="202">
+        <f>H45*(1-I45)</f>
+        <v>5500000</v>
+      </c>
+      <c r="K45" s="202"/>
+      <c r="L45" s="202"/>
+      <c r="M45" s="202">
+        <f t="shared" si="8"/>
+        <v>5500000</v>
+      </c>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+    </row>
+    <row r="46" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="254"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="157">
+        <v>24</v>
+      </c>
+      <c r="G46" s="164">
+        <v>455000</v>
+      </c>
+      <c r="H46" s="164">
+        <f t="shared" si="7"/>
+        <v>10920000</v>
+      </c>
+      <c r="I46" s="165">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="164">
+        <f>H46*(1-I46)</f>
         <v>5460000</v>
       </c>
-      <c r="I38" s="242">
-        <v>0.5</v>
-      </c>
-      <c r="J38" s="241">
-        <f>H38*(1-I38)</f>
-        <v>2730000</v>
-      </c>
-      <c r="K38" s="243"/>
-      <c r="L38" s="243"/>
-      <c r="M38" s="243">
-        <f>J38</f>
-        <v>2730000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="244">
-        <v>831</v>
-      </c>
-      <c r="B39" s="245">
-        <v>44125</v>
-      </c>
-      <c r="C39" s="246" t="s">
+      <c r="K46" s="164"/>
+      <c r="L46" s="164"/>
+      <c r="M46" s="164">
+        <f t="shared" si="8"/>
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="204">
+        <v>1244</v>
+      </c>
+      <c r="B47" s="205">
+        <v>44154</v>
+      </c>
+      <c r="C47" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="244" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="244" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="247">
-        <v>4</v>
-      </c>
-      <c r="G39" s="248">
-        <v>485000</v>
-      </c>
-      <c r="H39" s="248">
-        <f t="shared" si="4"/>
-        <v>1940000</v>
-      </c>
-      <c r="I39" s="249">
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="248">
-        <f>H39*(1-I39)</f>
-        <v>970000</v>
-      </c>
-      <c r="K39" s="248"/>
-      <c r="L39" s="248"/>
-      <c r="M39" s="248">
-        <f>J39</f>
-        <v>970000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230">
-        <v>834</v>
-      </c>
-      <c r="B40" s="231">
-        <v>44125</v>
-      </c>
-      <c r="C40" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="256" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="232">
-        <v>120</v>
-      </c>
-      <c r="G40" s="234">
-        <v>225000</v>
-      </c>
-      <c r="H40" s="234">
-        <f t="shared" si="4"/>
-        <v>27000000</v>
-      </c>
-      <c r="I40" s="235">
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="234">
-        <f>H40*(1-I40)</f>
-        <v>13500000</v>
-      </c>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="234">
-        <f>J40</f>
-        <v>13500000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="227" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="237"/>
-      <c r="B41" s="238"/>
-      <c r="C41" s="257"/>
-      <c r="D41" s="257"/>
-      <c r="E41" s="240" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="239">
-        <v>120</v>
-      </c>
-      <c r="G41" s="241">
-        <v>455000</v>
-      </c>
-      <c r="H41" s="241">
-        <f t="shared" si="4"/>
-        <v>54600000</v>
-      </c>
-      <c r="I41" s="242">
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="241">
-        <f>H41*(1-I41)</f>
-        <v>27300000</v>
-      </c>
-      <c r="K41" s="241"/>
-      <c r="L41" s="241"/>
-      <c r="M41" s="241">
-        <f>J41</f>
-        <v>27300000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="250">
-        <v>1208</v>
-      </c>
-      <c r="B42" s="251">
-        <v>44132</v>
-      </c>
-      <c r="C42" s="250" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="250" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="252" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="253">
+      <c r="D47" s="204"/>
+      <c r="E47" s="206" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="157">
         <v>24</v>
       </c>
-      <c r="G42" s="254">
-        <v>235000</v>
-      </c>
-      <c r="H42" s="254">
-        <f t="shared" si="4"/>
-        <v>5640000</v>
-      </c>
-      <c r="I42" s="255">
-        <v>0.5</v>
-      </c>
-      <c r="J42" s="254">
-        <f>H42*(1-I42)</f>
-        <v>2820000</v>
-      </c>
-      <c r="K42" s="254"/>
-      <c r="L42" s="254"/>
-      <c r="M42" s="254">
-        <f>J42</f>
-        <v>2820000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="183" t="s">
+      <c r="G47" s="207">
+        <v>255000</v>
+      </c>
+      <c r="H47" s="207">
+        <f t="shared" si="7"/>
+        <v>6120000</v>
+      </c>
+      <c r="I47" s="208">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="207">
+        <f>H47*(1-I47)</f>
+        <v>3060000</v>
+      </c>
+      <c r="K47" s="207"/>
+      <c r="L47" s="207"/>
+      <c r="M47" s="207">
+        <f t="shared" si="8"/>
+        <v>3060000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="63">
-        <f>SUM(F7:F42)</f>
-        <v>1352</v>
-      </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64">
-        <f>SUM(H7:H42)</f>
-        <v>569480000</v>
-      </c>
-      <c r="I43" s="63"/>
-      <c r="J43" s="64">
-        <f>SUM(J7:J42)</f>
-        <v>284740000</v>
-      </c>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="53">
-        <f>J43</f>
-        <v>284740000</v>
+      <c r="B48" s="241"/>
+      <c r="C48" s="241"/>
+      <c r="D48" s="241"/>
+      <c r="E48" s="242"/>
+      <c r="F48" s="54">
+        <f>SUM(F7:F47)</f>
+        <v>1468</v>
+      </c>
+      <c r="G48" s="54"/>
+      <c r="H48" s="55">
+        <f>SUM(H7:H47)</f>
+        <v>620440000</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="55">
+        <f>SUM(J7:J47)</f>
+        <v>310220000</v>
+      </c>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="44">
+        <f>J48</f>
+        <v>310220000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
+  <mergeCells count="48">
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="C18:C22"/>
@@ -2963,6 +3314,22 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A7:A14"/>
@@ -2978,6 +3345,7 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
@@ -2994,2328 +3362,2634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="12" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="57"/>
-    <col min="5" max="5" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="57" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="57" customWidth="1"/>
-    <col min="11" max="11" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="6.42578125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12" style="196" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="48"/>
+    <col min="5" max="5" width="9.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="5" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="55"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="46"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="60"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="290" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-    </row>
-    <row r="6" spans="1:15" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="215" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
+      <c r="O3" s="290"/>
+    </row>
+    <row r="6" spans="1:15" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="282" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="286" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="280" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="208" t="s">
+      <c r="D6" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="210" t="s">
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="275" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="208" t="s">
+      <c r="J6" s="273" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="218" t="s">
+      <c r="K6" s="273"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="291" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="65" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="49" t="s">
+    <row r="7" spans="1:15" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="282"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="210"/>
-      <c r="J7" s="49" t="s">
+      <c r="I7" s="275"/>
+      <c r="J7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="218"/>
-    </row>
-    <row r="8" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="M7" s="291"/>
+    </row>
+    <row r="8" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>584</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="62">
         <v>43995</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="17">
         <v>12</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="18">
         <v>455000</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="18">
         <f>E8*F8</f>
         <v>5460000</v>
       </c>
-      <c r="H8" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="20">
         <f>G8*(1-H8)</f>
         <v>2730000</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="48">
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="39">
         <f>I8</f>
         <v>2730000</v>
       </c>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>482</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="62">
         <v>43998</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="17">
         <v>4</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="18">
         <v>225000</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="18">
         <f t="shared" ref="G9:G16" si="0">E9*F9</f>
         <v>900000</v>
       </c>
-      <c r="H9" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="H9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="20">
         <f t="shared" ref="I9:I16" si="1">G9*(1-H9)</f>
         <v>450000</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="48">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="39">
         <f t="shared" ref="L9:L27" si="2">I9</f>
         <v>450000</v>
       </c>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="158">
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="209">
         <v>480</v>
       </c>
-      <c r="B10" s="168">
+      <c r="B10" s="219">
         <v>43998</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="22">
         <v>24</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="23">
         <v>225000</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>5400000</v>
       </c>
-      <c r="H10" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>2700000</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="48">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="39">
         <f t="shared" si="2"/>
         <v>2700000</v>
       </c>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="34" t="s">
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="210"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="26">
         <v>22</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="27">
         <v>455000</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>10010000</v>
       </c>
-      <c r="H11" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="H11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
         <v>5005000</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="48">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="39">
         <f t="shared" si="2"/>
         <v>5005000</v>
       </c>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="34" t="s">
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="210"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="26">
         <v>12</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="27">
         <v>465000</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
-      <c r="H12" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>2790000</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="48">
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="39">
         <f t="shared" si="2"/>
         <v>2790000</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="34" t="s">
+    <row r="13" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="210"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="27">
         <v>485000</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="H13" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>242500</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="48">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="39">
         <f t="shared" si="2"/>
         <v>242500</v>
       </c>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="38" t="s">
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="211"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="30">
         <v>5</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="31">
         <v>550000</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="31">
         <f t="shared" si="0"/>
         <v>2750000</v>
       </c>
-      <c r="H14" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="1"/>
         <v>1375000</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="48">
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="39">
         <f t="shared" si="2"/>
         <v>1375000</v>
       </c>
-      <c r="M14" s="41"/>
-    </row>
-    <row r="15" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="158">
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="209">
         <v>484</v>
       </c>
-      <c r="B15" s="168">
+      <c r="B15" s="219">
         <v>44002</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="22">
         <v>1</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="23">
         <v>485000</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="23">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="H15" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>242500</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="48">
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="39">
         <f t="shared" si="2"/>
         <v>242500</v>
       </c>
-      <c r="M15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="38" t="s">
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="211"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="30">
         <v>1</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="31">
         <v>455000</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="31">
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="H16" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H16" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11">
         <f t="shared" si="1"/>
         <v>227500</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="48">
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="39">
         <f t="shared" si="2"/>
         <v>227500</v>
       </c>
-      <c r="M16" s="41"/>
-    </row>
-    <row r="17" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94">
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>1151</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="154">
         <v>44006</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="34">
         <v>24</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="36">
         <v>485000</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="36">
         <f>E17*F17</f>
         <v>11640000</v>
       </c>
-      <c r="H17" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="47">
+      <c r="H17" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="38">
         <f>G17*(1-H17)</f>
         <v>5820000</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="48">
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="39">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="M17" s="44"/>
-    </row>
-    <row r="18" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158">
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="209">
         <v>487</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="219">
         <v>44009</v>
       </c>
-      <c r="C18" s="202" t="s">
+      <c r="C18" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="22">
         <v>3</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="23">
         <v>465000</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="23">
         <f t="shared" ref="G18:G27" si="3">E18*F18</f>
         <v>1395000</v>
       </c>
-      <c r="H18" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" ref="I18:I27" si="4">G18*(1-H18)</f>
         <v>697500</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="48">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="39">
         <f t="shared" si="2"/>
         <v>697500</v>
       </c>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="38" t="s">
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="211"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="30">
         <v>3</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="31">
         <v>485000</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="31">
         <f t="shared" si="3"/>
         <v>1455000</v>
       </c>
-      <c r="H19" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="11">
         <f t="shared" si="4"/>
         <v>727500</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="48">
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="39">
         <f t="shared" si="2"/>
         <v>727500</v>
       </c>
-      <c r="M19" s="41"/>
-    </row>
-    <row r="20" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="158">
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="209">
         <v>492</v>
       </c>
-      <c r="B20" s="168">
+      <c r="B20" s="219">
         <v>44020</v>
       </c>
-      <c r="C20" s="202" t="s">
+      <c r="C20" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="22">
         <v>31</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="23">
         <v>225000</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <f t="shared" si="3"/>
         <v>6975000</v>
       </c>
-      <c r="H20" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="4"/>
         <v>3487500</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="74">
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="64">
         <f t="shared" si="2"/>
         <v>3487500</v>
       </c>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="34" t="s">
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="210"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="26">
         <v>12</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="27">
         <v>455000</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="27">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="H21" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="H21" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="82">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="72">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="34" t="s">
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="210"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="26">
         <v>12</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="27">
         <v>465000</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="27">
         <f t="shared" si="3"/>
         <v>5580000</v>
       </c>
-      <c r="H22" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="H22" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="8">
         <f t="shared" si="4"/>
         <v>2790000</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="82">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="72">
         <f t="shared" si="2"/>
         <v>2790000</v>
       </c>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="34" t="s">
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="210"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="271"/>
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="26">
         <v>12</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="27">
         <v>475000</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="27">
         <f t="shared" si="3"/>
         <v>5700000</v>
       </c>
-      <c r="H23" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="H23" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" si="4"/>
         <v>2850000</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="82">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="72">
         <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="34" t="s">
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="210"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="26">
         <v>12</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="27">
         <v>485000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="27">
         <f t="shared" si="3"/>
         <v>5820000</v>
       </c>
-      <c r="H24" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="H24" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="8">
         <f t="shared" si="4"/>
         <v>2910000</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="82">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="72">
         <f t="shared" si="2"/>
         <v>2910000</v>
       </c>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="34" t="s">
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="210"/>
+      <c r="B25" s="220"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="26">
         <v>12</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="27">
         <v>485000</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="27">
         <f t="shared" si="3"/>
         <v>5820000</v>
       </c>
-      <c r="H25" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="H25" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="4"/>
         <v>2910000</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="82">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="72">
         <f t="shared" si="2"/>
         <v>2910000</v>
       </c>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="159"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="34" t="s">
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="210"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="26">
         <v>12</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="27">
         <v>455000</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="27">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="H26" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="10">
+      <c r="H26" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="82">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="72">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="38" t="s">
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="211"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="30">
         <v>12</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="31">
         <v>455000</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="31">
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="H27" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="11">
         <f t="shared" si="4"/>
         <v>2730000</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="75">
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="65">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M27" s="41"/>
-    </row>
-    <row r="28" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>496</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="62">
         <v>44028</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="17">
         <v>9</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="18">
         <v>475000</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="18">
         <v>4275000</v>
       </c>
-      <c r="H28" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="28">
+      <c r="H28" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="20">
         <v>2137500</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="48">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="39">
         <v>2137500</v>
       </c>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>497</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="62">
         <v>44029</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="17">
         <v>1</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="18">
         <v>455000</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="18">
         <v>455000</v>
       </c>
-      <c r="H29" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="28">
+      <c r="H29" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="20">
         <v>227500</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="48">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="39">
         <v>227500</v>
       </c>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>610</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="62">
         <v>44031</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="17">
         <v>60</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="18">
         <v>455000</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="18">
         <v>27300000</v>
       </c>
-      <c r="H30" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="28">
+      <c r="H30" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="20">
         <v>13650000</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="48">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="39">
         <v>13650000</v>
       </c>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="158">
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="209">
         <v>617</v>
       </c>
-      <c r="B31" s="168">
+      <c r="B31" s="219">
         <v>44034</v>
       </c>
-      <c r="C31" s="211" t="s">
+      <c r="C31" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="22">
         <v>5</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="23">
         <v>225000</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="23">
         <v>1125000</v>
       </c>
-      <c r="H31" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="H31" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="3">
         <v>562500</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="74">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="64">
         <v>562500</v>
       </c>
-      <c r="M31" s="33"/>
-    </row>
-    <row r="32" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="160"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="38" t="s">
+      <c r="M31" s="25"/>
+    </row>
+    <row r="32" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="211"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="279"/>
+      <c r="D32" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="30">
         <v>12</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="31">
         <v>455000</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="31">
         <v>5460000</v>
       </c>
-      <c r="H32" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="H32" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="11">
         <v>2730000</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="75">
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="65">
         <v>2730000</v>
       </c>
-      <c r="M32" s="41"/>
-    </row>
-    <row r="33" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95">
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="82">
         <v>618</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="153">
         <v>44036</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="79">
+      <c r="E33" s="69">
         <v>12</v>
       </c>
-      <c r="F33" s="157">
+      <c r="F33" s="139">
         <v>455000</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="66">
         <v>5460000</v>
       </c>
-      <c r="H33" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="78">
+      <c r="H33" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="68">
         <v>2730000</v>
       </c>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80">
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70">
         <v>2730000</v>
       </c>
-      <c r="M33" s="81"/>
-    </row>
-    <row r="34" spans="1:17" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="191">
+      <c r="M33" s="71"/>
+    </row>
+    <row r="34" spans="1:17" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="246">
         <v>656</v>
       </c>
-      <c r="B34" s="168">
+      <c r="B34" s="219">
         <v>44053</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="144" t="s">
+      <c r="D34" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="148">
+      <c r="E34" s="131">
         <v>1</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="23">
         <v>455000</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="23">
         <f t="shared" ref="G34:G42" si="5">E34*F34</f>
         <v>455000</v>
       </c>
-      <c r="H34" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="H34" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" ref="I34:I42" si="6">G34*(1-H34)</f>
         <v>227500</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
         <f>I34</f>
         <v>227500</v>
       </c>
-      <c r="M34" s="144"/>
+      <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="192"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="145" t="s">
+      <c r="A35" s="247"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="284"/>
+      <c r="D35" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="149">
+      <c r="E35" s="132">
         <v>1</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="27">
         <v>465000</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="27">
         <f t="shared" si="5"/>
         <v>465000</v>
       </c>
-      <c r="H35" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="6">
         <f t="shared" si="6"/>
         <v>232500</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
         <f t="shared" ref="L35:L42" si="7">I35</f>
         <v>232500</v>
       </c>
-      <c r="M35" s="145"/>
+      <c r="M35" s="128"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="192"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="145" t="s">
+      <c r="A36" s="247"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="284"/>
+      <c r="D36" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="149">
+      <c r="E36" s="132">
         <v>1</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="27">
         <v>475000</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="27">
         <f t="shared" si="5"/>
         <v>475000</v>
       </c>
-      <c r="H36" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="H36" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="6"/>
         <v>237500</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <f t="shared" si="7"/>
         <v>237500</v>
       </c>
-      <c r="M36" s="145"/>
-    </row>
-    <row r="37" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="192"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="145" t="s">
+      <c r="M36" s="128"/>
+    </row>
+    <row r="37" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="247"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="284"/>
+      <c r="D37" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="132">
         <v>1</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="27">
         <v>485000</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="27">
         <f t="shared" si="5"/>
         <v>485000</v>
       </c>
-      <c r="H37" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="H37" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="6">
         <f t="shared" si="6"/>
         <v>242500</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <f t="shared" si="7"/>
         <v>242500</v>
       </c>
-      <c r="M37" s="145"/>
-      <c r="Q37" s="117"/>
-    </row>
-    <row r="38" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="192"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="199"/>
-      <c r="D38" s="145" t="s">
+      <c r="M37" s="128"/>
+      <c r="Q37" s="104"/>
+    </row>
+    <row r="38" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="247"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="284"/>
+      <c r="D38" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="149">
+      <c r="E38" s="132">
         <v>1</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="27">
         <v>485000</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="27">
         <f t="shared" si="5"/>
         <v>485000</v>
       </c>
-      <c r="H38" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="H38" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="6">
         <f t="shared" si="6"/>
         <v>242500</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <f t="shared" si="7"/>
         <v>242500</v>
       </c>
-      <c r="M38" s="145"/>
-      <c r="Q38" s="117"/>
-    </row>
-    <row r="39" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="192"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="199"/>
-      <c r="D39" s="145" t="s">
+      <c r="M38" s="128"/>
+      <c r="Q38" s="104"/>
+    </row>
+    <row r="39" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="247"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="284"/>
+      <c r="D39" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="149">
+      <c r="E39" s="132">
         <v>1</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="27">
         <v>550000</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="27">
         <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-      <c r="H39" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="H39" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="6">
         <f t="shared" si="6"/>
         <v>275000</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <f t="shared" si="7"/>
         <v>275000</v>
       </c>
-      <c r="M39" s="145"/>
-      <c r="Q39" s="117"/>
-    </row>
-    <row r="40" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="192"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="199"/>
-      <c r="D40" s="145" t="s">
+      <c r="M39" s="128"/>
+      <c r="Q39" s="104"/>
+    </row>
+    <row r="40" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="247"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="284"/>
+      <c r="D40" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="149">
+      <c r="E40" s="132">
         <v>1</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="27">
         <v>455000</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="27">
         <f t="shared" si="5"/>
         <v>455000</v>
       </c>
-      <c r="H40" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="H40" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="6">
         <f t="shared" si="6"/>
         <v>227500</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <f t="shared" si="7"/>
         <v>227500</v>
       </c>
-      <c r="M40" s="145"/>
-      <c r="Q40" s="117"/>
-    </row>
-    <row r="41" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="193"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="146" t="s">
+      <c r="M40" s="128"/>
+      <c r="Q40" s="104"/>
+    </row>
+    <row r="41" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="248"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="150">
+      <c r="E41" s="133">
         <v>1</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="31">
         <v>455000</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="31">
         <f t="shared" si="5"/>
         <v>455000</v>
       </c>
-      <c r="H41" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="12">
+      <c r="H41" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="9">
         <f t="shared" si="6"/>
         <v>227500</v>
       </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
         <f t="shared" si="7"/>
         <v>227500</v>
       </c>
-      <c r="M41" s="146"/>
-      <c r="Q41" s="117"/>
-    </row>
-    <row r="42" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="258">
+      <c r="M41" s="129"/>
+      <c r="Q41" s="104"/>
+    </row>
+    <row r="42" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="179">
         <v>654</v>
       </c>
-      <c r="B42" s="71">
+      <c r="B42" s="153">
         <v>44053</v>
       </c>
-      <c r="C42" s="155" t="s">
+      <c r="C42" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="147" t="s">
+      <c r="D42" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="17">
         <v>24</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="18">
         <v>455000</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="18">
         <f t="shared" si="5"/>
         <v>10920000</v>
       </c>
-      <c r="H42" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="156">
+      <c r="H42" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="138">
         <f t="shared" si="6"/>
         <v>5460000</v>
       </c>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="2">
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="1">
         <f t="shared" si="7"/>
         <v>5460000</v>
       </c>
-      <c r="M42" s="147"/>
-      <c r="Q42" s="117"/>
-    </row>
-    <row r="43" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="158">
+      <c r="M42" s="130"/>
+      <c r="Q42" s="104"/>
+    </row>
+    <row r="43" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="209">
         <v>642</v>
       </c>
-      <c r="B43" s="168">
+      <c r="B43" s="219">
         <v>44056</v>
       </c>
-      <c r="C43" s="211" t="s">
+      <c r="C43" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="73">
         <v>24</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="23">
         <v>485000</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="23">
         <v>5460000</v>
       </c>
-      <c r="H43" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="4">
+      <c r="H43" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="3">
         <v>2730000</v>
       </c>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="4">
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="3">
         <v>2730000</v>
       </c>
-      <c r="M43" s="33"/>
-      <c r="N43" s="70"/>
-      <c r="Q43" s="117"/>
-    </row>
-    <row r="44" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="160"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="212"/>
-      <c r="D44" s="87" t="s">
+      <c r="M43" s="25"/>
+      <c r="N43" s="61"/>
+      <c r="Q43" s="104"/>
+    </row>
+    <row r="44" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="211"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="87">
+      <c r="E44" s="74">
         <v>5</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="31">
         <v>455000</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="31">
         <v>5460000</v>
       </c>
-      <c r="H44" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="14">
+      <c r="H44" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="11">
         <v>2730000</v>
       </c>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="14">
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="11">
         <v>2730000</v>
       </c>
-      <c r="M44" s="41"/>
-      <c r="N44" s="57"/>
-      <c r="Q44" s="117"/>
-    </row>
-    <row r="45" spans="1:17" s="99" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95">
+      <c r="M44" s="33"/>
+      <c r="N44" s="48"/>
+      <c r="Q44" s="104"/>
+    </row>
+    <row r="45" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="82">
         <v>767</v>
       </c>
-      <c r="B45" s="71">
+      <c r="B45" s="153">
         <v>44065</v>
       </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="79" t="s">
+      <c r="D45" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="79">
+      <c r="E45" s="69">
         <v>12</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="66">
         <v>485000</v>
       </c>
-      <c r="G45" s="76">
+      <c r="G45" s="66">
         <v>5460000</v>
       </c>
-      <c r="H45" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="78">
+      <c r="H45" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="68">
         <v>2730000</v>
       </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="80">
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="70">
         <v>2730000</v>
       </c>
-      <c r="M45" s="137"/>
-      <c r="N45" s="57"/>
-      <c r="Q45" s="117"/>
-    </row>
-    <row r="46" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="191">
+      <c r="M45" s="124"/>
+      <c r="N45" s="48"/>
+      <c r="Q45" s="104"/>
+    </row>
+    <row r="46" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="246">
         <v>664</v>
       </c>
-      <c r="B46" s="194">
+      <c r="B46" s="249">
         <v>44088</v>
       </c>
-      <c r="C46" s="205" t="s">
+      <c r="C46" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="75">
         <v>24</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="23">
         <v>455000</v>
       </c>
-      <c r="G46" s="113">
+      <c r="G46" s="100">
         <f t="shared" ref="G46:G58" si="8">E46*F46</f>
         <v>10920000</v>
       </c>
-      <c r="H46" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="115">
+      <c r="H46" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="102">
         <f>G46*(1-H46)</f>
         <v>5460000</v>
       </c>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="116">
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="103">
         <f>I46</f>
         <v>5460000</v>
       </c>
-      <c r="M46" s="96"/>
-      <c r="N46" s="99"/>
-    </row>
-    <row r="47" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="193"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="118" t="s">
+      <c r="M46" s="83"/>
+      <c r="N46" s="86"/>
+    </row>
+    <row r="47" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="248"/>
+      <c r="B47" s="251"/>
+      <c r="C47" s="277"/>
+      <c r="D47" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="90">
+      <c r="E47" s="77">
         <v>24</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="31">
         <v>475000</v>
       </c>
-      <c r="G47" s="119">
+      <c r="G47" s="106">
         <f t="shared" si="8"/>
         <v>11400000</v>
       </c>
-      <c r="H47" s="120">
-        <v>0.5</v>
-      </c>
-      <c r="I47" s="106">
+      <c r="H47" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="93">
         <f t="shared" ref="I47:I62" si="9">G47*(1-H47)</f>
         <v>5700000</v>
       </c>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="121">
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="108">
         <f t="shared" ref="L47:L62" si="10">I47</f>
         <v>5700000</v>
       </c>
-      <c r="M47" s="103"/>
-      <c r="N47" s="99"/>
-    </row>
-    <row r="48" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="109">
+      <c r="M47" s="90"/>
+      <c r="N47" s="86"/>
+    </row>
+    <row r="48" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="96">
         <v>666</v>
       </c>
-      <c r="B48" s="108">
+      <c r="B48" s="155">
         <v>44091</v>
       </c>
-      <c r="C48" s="122" t="s">
+      <c r="C48" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="123" t="s">
+      <c r="D48" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="17">
         <v>42</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="18">
         <v>455000</v>
       </c>
-      <c r="G48" s="138">
+      <c r="G48" s="125">
         <f t="shared" si="8"/>
         <v>19110000</v>
       </c>
-      <c r="H48" s="136">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="124">
+      <c r="H48" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="111">
         <f t="shared" si="9"/>
         <v>9555000</v>
       </c>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="125">
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="112">
         <f t="shared" si="10"/>
         <v>9555000</v>
       </c>
-      <c r="M48" s="109"/>
-      <c r="N48" s="99"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
+      <c r="A49" s="96">
         <v>669</v>
       </c>
-      <c r="B49" s="108">
+      <c r="B49" s="155">
         <v>44092</v>
       </c>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="123" t="s">
+      <c r="D49" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="17">
         <v>24</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="18">
         <v>225000</v>
       </c>
-      <c r="G49" s="138">
+      <c r="G49" s="125">
         <f t="shared" si="8"/>
         <v>5400000</v>
       </c>
-      <c r="H49" s="136">
-        <v>0.5</v>
-      </c>
-      <c r="I49" s="124">
+      <c r="H49" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="111">
         <f t="shared" si="9"/>
         <v>2700000</v>
       </c>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="125">
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="112">
         <f t="shared" si="10"/>
         <v>2700000</v>
       </c>
-      <c r="M49" s="109"/>
-      <c r="N49" s="99"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="191">
+      <c r="A50" s="246">
         <v>677</v>
       </c>
-      <c r="B50" s="194">
+      <c r="B50" s="249">
         <v>44096</v>
       </c>
-      <c r="C50" s="205" t="s">
+      <c r="C50" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="88">
+      <c r="E50" s="75">
         <v>1</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="23">
         <v>225000</v>
       </c>
-      <c r="G50" s="113">
+      <c r="G50" s="100">
         <f t="shared" si="8"/>
         <v>225000</v>
       </c>
-      <c r="H50" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="115">
+      <c r="H50" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="102">
         <f t="shared" si="9"/>
         <v>112500</v>
       </c>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="116">
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="103">
         <f t="shared" si="10"/>
         <v>112500</v>
       </c>
-      <c r="M50" s="96"/>
-      <c r="N50" s="99"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="192"/>
-      <c r="B51" s="195"/>
-      <c r="C51" s="206"/>
-      <c r="D51" s="126" t="s">
+      <c r="A51" s="247"/>
+      <c r="B51" s="250"/>
+      <c r="C51" s="292"/>
+      <c r="D51" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="89">
+      <c r="E51" s="76">
         <v>1</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="27">
         <v>455000</v>
       </c>
-      <c r="G51" s="139">
+      <c r="G51" s="126">
         <f t="shared" si="8"/>
         <v>455000</v>
       </c>
-      <c r="H51" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I51" s="134">
+      <c r="H51" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="121">
         <f t="shared" si="9"/>
         <v>227500</v>
       </c>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="135">
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="122">
         <f t="shared" si="10"/>
         <v>227500</v>
       </c>
-      <c r="M51" s="100"/>
-      <c r="N51" s="99"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="192"/>
-      <c r="B52" s="195"/>
-      <c r="C52" s="206"/>
-      <c r="D52" s="126" t="s">
+      <c r="A52" s="247"/>
+      <c r="B52" s="250"/>
+      <c r="C52" s="292"/>
+      <c r="D52" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="89">
+      <c r="E52" s="76">
         <v>1</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="27">
         <v>465000</v>
       </c>
-      <c r="G52" s="139">
+      <c r="G52" s="126">
         <f t="shared" si="8"/>
         <v>465000</v>
       </c>
-      <c r="H52" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I52" s="134">
+      <c r="H52" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="121">
         <f t="shared" si="9"/>
         <v>232500</v>
       </c>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="135">
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="122">
         <f t="shared" si="10"/>
         <v>232500</v>
       </c>
-      <c r="M52" s="100"/>
-      <c r="N52" s="99"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="86"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="192"/>
-      <c r="B53" s="195"/>
-      <c r="C53" s="206"/>
-      <c r="D53" s="126" t="s">
+      <c r="A53" s="247"/>
+      <c r="B53" s="250"/>
+      <c r="C53" s="292"/>
+      <c r="D53" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="89">
+      <c r="E53" s="76">
         <v>1</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="27">
         <v>475000</v>
       </c>
-      <c r="G53" s="139">
+      <c r="G53" s="126">
         <f t="shared" si="8"/>
         <v>475000</v>
       </c>
-      <c r="H53" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I53" s="134">
+      <c r="H53" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="121">
         <f t="shared" si="9"/>
         <v>237500</v>
       </c>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="135">
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="122">
         <f t="shared" si="10"/>
         <v>237500</v>
       </c>
-      <c r="M53" s="100"/>
-      <c r="N53" s="99"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="86"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="192"/>
-      <c r="B54" s="195"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="126" t="s">
+      <c r="A54" s="247"/>
+      <c r="B54" s="250"/>
+      <c r="C54" s="292"/>
+      <c r="D54" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54" s="76">
         <v>1</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="27">
         <v>485000</v>
       </c>
-      <c r="G54" s="139">
+      <c r="G54" s="126">
         <f t="shared" si="8"/>
         <v>485000</v>
       </c>
-      <c r="H54" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I54" s="134">
+      <c r="H54" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="121">
         <f t="shared" si="9"/>
         <v>242500</v>
       </c>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="135">
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="122">
         <f t="shared" si="10"/>
         <v>242500</v>
       </c>
-      <c r="M54" s="128"/>
-      <c r="N54" s="99"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="86"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="192"/>
-      <c r="B55" s="195"/>
-      <c r="C55" s="206"/>
-      <c r="D55" s="126" t="s">
+      <c r="A55" s="247"/>
+      <c r="B55" s="250"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="89">
+      <c r="E55" s="76">
         <v>1</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="27">
         <v>485000</v>
       </c>
-      <c r="G55" s="139">
+      <c r="G55" s="126">
         <f t="shared" si="8"/>
         <v>485000</v>
       </c>
-      <c r="H55" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I55" s="134">
+      <c r="H55" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="121">
         <f t="shared" si="9"/>
         <v>242500</v>
       </c>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="135">
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="122">
         <f t="shared" si="10"/>
         <v>242500</v>
       </c>
-      <c r="M55" s="128"/>
-      <c r="N55" s="129"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="116"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="192"/>
-      <c r="B56" s="195"/>
-      <c r="C56" s="206"/>
-      <c r="D56" s="126" t="s">
+      <c r="A56" s="247"/>
+      <c r="B56" s="250"/>
+      <c r="C56" s="292"/>
+      <c r="D56" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E56" s="76">
         <v>1</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="27">
         <v>455000</v>
       </c>
-      <c r="G56" s="139">
+      <c r="G56" s="126">
         <f t="shared" si="8"/>
         <v>455000</v>
       </c>
-      <c r="H56" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I56" s="134">
+      <c r="H56" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="121">
         <f t="shared" si="9"/>
         <v>227500</v>
       </c>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="135">
+      <c r="J56" s="114"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="122">
         <f t="shared" si="10"/>
         <v>227500</v>
       </c>
-      <c r="M56" s="128"/>
-      <c r="N56" s="129"/>
+      <c r="M56" s="115"/>
+      <c r="N56" s="116"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="261"/>
-      <c r="B57" s="262"/>
-      <c r="C57" s="263"/>
-      <c r="D57" s="264" t="s">
+      <c r="A57" s="264"/>
+      <c r="B57" s="267"/>
+      <c r="C57" s="293"/>
+      <c r="D57" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="265">
+      <c r="E57" s="183">
         <v>1</v>
       </c>
-      <c r="F57" s="266">
+      <c r="F57" s="184">
         <v>550000</v>
       </c>
-      <c r="G57" s="267">
+      <c r="G57" s="185">
         <f t="shared" si="8"/>
         <v>550000</v>
       </c>
-      <c r="H57" s="268">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="269">
+      <c r="H57" s="186">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="187">
         <f t="shared" si="9"/>
         <v>275000</v>
       </c>
-      <c r="J57" s="270"/>
-      <c r="K57" s="270"/>
-      <c r="L57" s="271">
+      <c r="J57" s="188"/>
+      <c r="K57" s="188"/>
+      <c r="L57" s="189">
         <f t="shared" si="10"/>
         <v>275000</v>
       </c>
-      <c r="M57" s="272"/>
-      <c r="N57" s="129"/>
+      <c r="M57" s="190"/>
+      <c r="N57" s="116"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="193"/>
-      <c r="B58" s="196"/>
-      <c r="C58" s="207"/>
-      <c r="D58" s="118" t="s">
+      <c r="A58" s="248"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="277"/>
+      <c r="D58" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="90">
+      <c r="E58" s="77">
         <v>1</v>
       </c>
-      <c r="F58" s="39">
+      <c r="F58" s="31">
         <v>455000</v>
       </c>
-      <c r="G58" s="119">
+      <c r="G58" s="106">
         <f t="shared" si="8"/>
         <v>455000</v>
       </c>
-      <c r="H58" s="120">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="106">
+      <c r="H58" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="93">
         <f t="shared" si="9"/>
         <v>227500</v>
       </c>
-      <c r="J58" s="121"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="121">
+      <c r="J58" s="108"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="108">
         <f t="shared" si="10"/>
         <v>227500</v>
       </c>
-      <c r="M58" s="93"/>
-      <c r="N58" s="129"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="116"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="158">
+      <c r="A59" s="209">
         <v>817</v>
       </c>
-      <c r="B59" s="194">
+      <c r="B59" s="249">
         <v>44107</v>
       </c>
-      <c r="C59" s="191" t="s">
+      <c r="C59" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="91" t="s">
+      <c r="D59" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="88">
+      <c r="E59" s="75">
         <v>21</v>
       </c>
-      <c r="F59" s="31">
+      <c r="F59" s="23">
         <v>225000</v>
       </c>
-      <c r="G59" s="113">
+      <c r="G59" s="100">
         <f t="shared" ref="G59:G62" si="11">E59*F59</f>
         <v>4725000</v>
       </c>
-      <c r="H59" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="I59" s="115">
+      <c r="H59" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="102">
         <f t="shared" si="9"/>
         <v>2362500</v>
       </c>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="116">
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="103">
         <f t="shared" si="10"/>
         <v>2362500</v>
       </c>
-      <c r="M59" s="116"/>
+      <c r="M59" s="103"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="159"/>
-      <c r="B60" s="195"/>
-      <c r="C60" s="192"/>
-      <c r="D60" s="92" t="s">
+      <c r="A60" s="210"/>
+      <c r="B60" s="250"/>
+      <c r="C60" s="247"/>
+      <c r="D60" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="89">
+      <c r="E60" s="76">
         <v>8</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="27">
         <v>455000</v>
       </c>
-      <c r="G60" s="139">
+      <c r="G60" s="126">
         <f t="shared" si="11"/>
         <v>3640000</v>
       </c>
-      <c r="H60" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I60" s="134">
+      <c r="H60" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I60" s="121">
         <f t="shared" si="9"/>
         <v>1820000</v>
       </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="135">
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="122">
         <f t="shared" si="10"/>
         <v>1820000</v>
       </c>
-      <c r="M60" s="135"/>
+      <c r="M60" s="122"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="160"/>
-      <c r="B61" s="196"/>
-      <c r="C61" s="193"/>
-      <c r="D61" s="93" t="s">
+      <c r="A61" s="211"/>
+      <c r="B61" s="251"/>
+      <c r="C61" s="248"/>
+      <c r="D61" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="90">
+      <c r="E61" s="77">
         <v>12</v>
       </c>
-      <c r="F61" s="39">
+      <c r="F61" s="31">
         <v>485000</v>
       </c>
-      <c r="G61" s="119">
+      <c r="G61" s="106">
         <f t="shared" si="11"/>
         <v>5820000</v>
       </c>
-      <c r="H61" s="120">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="106">
+      <c r="H61" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="93">
         <f t="shared" si="9"/>
         <v>2910000</v>
       </c>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="121">
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="108">
         <f t="shared" si="10"/>
         <v>2910000</v>
       </c>
-      <c r="M61" s="121"/>
+      <c r="M61" s="108"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="12">
         <v>810</v>
       </c>
-      <c r="B62" s="108">
+      <c r="B62" s="155">
         <v>44109</v>
       </c>
-      <c r="C62" s="132" t="s">
+      <c r="C62" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="132" t="s">
+      <c r="D62" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="17">
         <v>36</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="18">
         <v>485000</v>
       </c>
-      <c r="G62" s="119">
+      <c r="G62" s="106">
         <f t="shared" si="11"/>
         <v>17460000</v>
       </c>
-      <c r="H62" s="136">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="124">
+      <c r="H62" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="111">
         <f t="shared" si="9"/>
         <v>8730000</v>
       </c>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="125">
+      <c r="J62" s="119"/>
+      <c r="K62" s="119"/>
+      <c r="L62" s="112">
         <f t="shared" si="10"/>
         <v>8730000</v>
       </c>
-      <c r="M62" s="125"/>
-    </row>
-    <row r="63" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="109">
+      <c r="M62" s="112"/>
+    </row>
+    <row r="63" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="96">
         <v>827</v>
       </c>
-      <c r="B63" s="228">
+      <c r="B63" s="155">
         <v>44124</v>
       </c>
-      <c r="C63" s="109" t="s">
+      <c r="C63" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="107" t="s">
+      <c r="D63" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="107">
+      <c r="E63" s="94">
         <v>6</v>
       </c>
-      <c r="F63" s="138">
+      <c r="F63" s="125">
         <v>485000</v>
       </c>
-      <c r="G63" s="138">
+      <c r="G63" s="125">
         <f>F63*E63</f>
         <v>2910000</v>
       </c>
-      <c r="H63" s="136">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="124">
+      <c r="H63" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="111">
         <f t="shared" ref="I63:I69" si="12">G63*(1-H63)</f>
         <v>1455000</v>
       </c>
-      <c r="J63" s="260"/>
-      <c r="K63" s="260"/>
-      <c r="L63" s="125">
+      <c r="J63" s="181"/>
+      <c r="K63" s="181"/>
+      <c r="L63" s="112">
         <f>I63</f>
         <v>1455000</v>
       </c>
-      <c r="M63" s="229"/>
-    </row>
-    <row r="64" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109">
+      <c r="M63" s="156"/>
+    </row>
+    <row r="64" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="96">
         <v>1226</v>
       </c>
-      <c r="B64" s="228">
+      <c r="B64" s="155">
         <v>44128</v>
       </c>
-      <c r="C64" s="109" t="s">
+      <c r="C64" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="107" t="s">
+      <c r="D64" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="107">
+      <c r="E64" s="94">
         <v>2</v>
       </c>
-      <c r="F64" s="138">
+      <c r="F64" s="125">
         <v>485000</v>
       </c>
-      <c r="G64" s="138">
+      <c r="G64" s="125">
         <f>F64*E64</f>
         <v>970000</v>
       </c>
-      <c r="H64" s="136">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="124">
+      <c r="H64" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="111">
         <f t="shared" si="12"/>
         <v>485000</v>
       </c>
-      <c r="J64" s="260"/>
-      <c r="K64" s="260"/>
-      <c r="L64" s="125">
+      <c r="J64" s="181"/>
+      <c r="K64" s="181"/>
+      <c r="L64" s="112">
         <f>I64</f>
         <v>485000</v>
       </c>
-      <c r="M64" s="229"/>
-    </row>
-    <row r="65" spans="1:13" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="109">
+      <c r="M64" s="156"/>
+    </row>
+    <row r="65" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="96">
         <v>1210</v>
       </c>
-      <c r="B65" s="228">
+      <c r="B65" s="155">
         <v>44135</v>
       </c>
-      <c r="C65" s="109" t="s">
+      <c r="C65" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="107" t="s">
+      <c r="D65" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="107">
+      <c r="E65" s="94">
         <v>12</v>
       </c>
-      <c r="F65" s="138">
+      <c r="F65" s="125">
         <v>235000</v>
       </c>
-      <c r="G65" s="138">
+      <c r="G65" s="125">
         <f>F65*E65</f>
         <v>2820000</v>
       </c>
-      <c r="H65" s="136">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="124">
+      <c r="H65" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="111">
         <f t="shared" si="12"/>
         <v>1410000</v>
       </c>
-      <c r="J65" s="260"/>
-      <c r="K65" s="260"/>
-      <c r="L65" s="125">
+      <c r="J65" s="181"/>
+      <c r="K65" s="181"/>
+      <c r="L65" s="112">
         <f>I65</f>
         <v>1410000</v>
       </c>
-      <c r="M65" s="229"/>
+      <c r="M65" s="156"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="158">
+      <c r="A66" s="209">
         <v>1220</v>
       </c>
-      <c r="B66" s="194">
+      <c r="B66" s="249">
         <v>44139</v>
       </c>
-      <c r="C66" s="158" t="s">
+      <c r="C66" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="91" t="s">
+      <c r="D66" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="78">
         <v>3</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="23">
         <v>235000</v>
       </c>
-      <c r="G66" s="113">
+      <c r="G66" s="100">
         <f t="shared" ref="G66:G69" si="13">F66*E66</f>
         <v>705000</v>
       </c>
-      <c r="H66" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="115">
+      <c r="H66" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="102">
         <f t="shared" si="12"/>
         <v>352500</v>
       </c>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="116">
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="103">
         <f t="shared" ref="L66:L69" si="14">I66</f>
         <v>352500</v>
       </c>
-      <c r="M66" s="91"/>
+      <c r="M66" s="78"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="159"/>
-      <c r="B67" s="195"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="92" t="s">
+      <c r="A67" s="210"/>
+      <c r="B67" s="250"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="92">
+      <c r="E67" s="79">
         <v>2</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="27">
         <v>485000</v>
       </c>
-      <c r="G67" s="139">
+      <c r="G67" s="126">
         <f t="shared" si="13"/>
         <v>970000</v>
       </c>
-      <c r="H67" s="133">
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="134">
+      <c r="H67" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="121">
         <f t="shared" si="12"/>
         <v>485000</v>
       </c>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="135">
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="122">
         <f t="shared" si="14"/>
         <v>485000</v>
       </c>
-      <c r="M67" s="92"/>
+      <c r="M67" s="79"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="160"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="160"/>
-      <c r="D68" s="93" t="s">
+      <c r="A68" s="211"/>
+      <c r="B68" s="251"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="93">
+      <c r="E68" s="80">
         <v>12</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="31">
         <v>455000</v>
       </c>
-      <c r="G68" s="119">
+      <c r="G68" s="106">
         <f t="shared" si="13"/>
         <v>5460000</v>
       </c>
-      <c r="H68" s="120">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="106">
+      <c r="H68" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="93">
         <f t="shared" si="12"/>
         <v>2730000</v>
       </c>
-      <c r="J68" s="93"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="121">
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="108">
         <f t="shared" si="14"/>
         <v>2730000</v>
       </c>
-      <c r="M68" s="93"/>
+      <c r="M68" s="80"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="132">
+      <c r="A69" s="119">
         <v>1222</v>
       </c>
-      <c r="B69" s="228">
+      <c r="B69" s="155">
         <v>44142</v>
       </c>
-      <c r="C69" s="132" t="s">
+      <c r="C69" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="132" t="s">
+      <c r="D69" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="132">
+      <c r="E69" s="119">
         <v>1</v>
       </c>
-      <c r="F69" s="138">
+      <c r="F69" s="125">
         <v>485000</v>
       </c>
-      <c r="G69" s="119">
+      <c r="G69" s="106">
         <f t="shared" si="13"/>
         <v>485000</v>
       </c>
-      <c r="H69" s="259">
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="124">
+      <c r="H69" s="180">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="111">
         <f t="shared" si="12"/>
         <v>242500</v>
       </c>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="125">
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="112">
         <f t="shared" si="14"/>
         <v>242500</v>
       </c>
-      <c r="M69" s="132"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="216" t="s">
+      <c r="M69" s="119"/>
+    </row>
+    <row r="70" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="264">
+        <v>1229</v>
+      </c>
+      <c r="B70" s="267">
+        <v>44145</v>
+      </c>
+      <c r="C70" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="114">
+        <v>12</v>
+      </c>
+      <c r="F70" s="126">
+        <v>465000</v>
+      </c>
+      <c r="G70" s="126">
+        <f t="shared" ref="G70:G78" si="15">F70*E70</f>
+        <v>5580000</v>
+      </c>
+      <c r="H70" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="126">
+        <f t="shared" ref="I70:I78" si="16">G70*(1-H70)</f>
+        <v>2790000</v>
+      </c>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="192">
+        <f t="shared" ref="L70:L79" si="17">I70</f>
+        <v>2790000</v>
+      </c>
+      <c r="M70" s="191"/>
+    </row>
+    <row r="71" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="265"/>
+      <c r="B71" s="268"/>
+      <c r="C71" s="265"/>
+      <c r="D71" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="114">
+        <v>12</v>
+      </c>
+      <c r="F71" s="126">
+        <v>475000</v>
+      </c>
+      <c r="G71" s="126">
+        <f t="shared" si="15"/>
+        <v>5700000</v>
+      </c>
+      <c r="H71" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="126">
+        <f t="shared" si="16"/>
+        <v>2850000</v>
+      </c>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="192">
+        <f t="shared" si="17"/>
+        <v>2850000</v>
+      </c>
+      <c r="M71" s="191"/>
+    </row>
+    <row r="72" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="266"/>
+      <c r="B72" s="269"/>
+      <c r="C72" s="266"/>
+      <c r="D72" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="114">
+        <v>12</v>
+      </c>
+      <c r="F72" s="126">
+        <v>455000</v>
+      </c>
+      <c r="G72" s="126">
+        <f t="shared" si="15"/>
+        <v>5460000</v>
+      </c>
+      <c r="H72" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="126">
+        <f t="shared" si="16"/>
+        <v>2730000</v>
+      </c>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="192">
+        <f t="shared" si="17"/>
+        <v>2730000</v>
+      </c>
+      <c r="M72" s="191"/>
+    </row>
+    <row r="73" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="264">
+        <v>1231</v>
+      </c>
+      <c r="B73" s="267">
+        <v>44146</v>
+      </c>
+      <c r="C73" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="114">
+        <v>24</v>
+      </c>
+      <c r="F73" s="126">
+        <v>465000</v>
+      </c>
+      <c r="G73" s="126">
+        <f t="shared" si="15"/>
+        <v>11160000</v>
+      </c>
+      <c r="H73" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="126">
+        <f t="shared" si="16"/>
+        <v>5580000</v>
+      </c>
+      <c r="J73" s="119"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="192">
+        <f t="shared" si="17"/>
+        <v>5580000</v>
+      </c>
+      <c r="M73" s="191"/>
+    </row>
+    <row r="74" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="265"/>
+      <c r="B74" s="268"/>
+      <c r="C74" s="265"/>
+      <c r="D74" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="114">
+        <v>24</v>
+      </c>
+      <c r="F74" s="126">
+        <v>475000</v>
+      </c>
+      <c r="G74" s="126">
+        <f t="shared" si="15"/>
+        <v>11400000</v>
+      </c>
+      <c r="H74" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="126">
+        <f t="shared" si="16"/>
+        <v>5700000</v>
+      </c>
+      <c r="J74" s="181"/>
+      <c r="K74" s="181"/>
+      <c r="L74" s="192">
+        <f t="shared" si="17"/>
+        <v>5700000</v>
+      </c>
+      <c r="M74" s="191"/>
+    </row>
+    <row r="75" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="265"/>
+      <c r="B75" s="268"/>
+      <c r="C75" s="265"/>
+      <c r="D75" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="114">
+        <v>48</v>
+      </c>
+      <c r="F75" s="126">
+        <v>550000</v>
+      </c>
+      <c r="G75" s="126">
+        <f t="shared" si="15"/>
+        <v>26400000</v>
+      </c>
+      <c r="H75" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="126">
+        <f t="shared" si="16"/>
+        <v>13200000</v>
+      </c>
+      <c r="J75" s="181"/>
+      <c r="K75" s="181"/>
+      <c r="L75" s="192">
+        <f t="shared" si="17"/>
+        <v>13200000</v>
+      </c>
+      <c r="M75" s="191"/>
+    </row>
+    <row r="76" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="266"/>
+      <c r="B76" s="269"/>
+      <c r="C76" s="266"/>
+      <c r="D76" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="114">
+        <v>24</v>
+      </c>
+      <c r="F76" s="126">
+        <v>455000</v>
+      </c>
+      <c r="G76" s="126">
+        <f t="shared" si="15"/>
+        <v>10920000</v>
+      </c>
+      <c r="H76" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="126">
+        <f t="shared" si="16"/>
+        <v>5460000</v>
+      </c>
+      <c r="J76" s="181"/>
+      <c r="K76" s="181"/>
+      <c r="L76" s="192">
+        <f t="shared" si="17"/>
+        <v>5460000</v>
+      </c>
+      <c r="M76" s="191"/>
+    </row>
+    <row r="77" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="148">
+        <v>1240</v>
+      </c>
+      <c r="B77" s="150">
+        <v>44153</v>
+      </c>
+      <c r="C77" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="114">
+        <v>24</v>
+      </c>
+      <c r="F77" s="126">
+        <v>455000</v>
+      </c>
+      <c r="G77" s="126">
+        <f t="shared" si="15"/>
+        <v>10920000</v>
+      </c>
+      <c r="H77" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="126">
+        <f t="shared" si="16"/>
+        <v>5460000</v>
+      </c>
+      <c r="J77" s="181"/>
+      <c r="K77" s="181"/>
+      <c r="L77" s="192">
+        <f t="shared" si="17"/>
+        <v>5460000</v>
+      </c>
+      <c r="M77" s="191"/>
+    </row>
+    <row r="78" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="148">
+        <v>1250</v>
+      </c>
+      <c r="B78" s="150">
+        <v>44153</v>
+      </c>
+      <c r="C78" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="114">
+        <v>24</v>
+      </c>
+      <c r="F78" s="126">
+        <v>225000</v>
+      </c>
+      <c r="G78" s="126">
+        <f t="shared" si="15"/>
+        <v>5400000</v>
+      </c>
+      <c r="H78" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="126">
+        <f t="shared" si="16"/>
+        <v>2700000</v>
+      </c>
+      <c r="J78" s="181"/>
+      <c r="K78" s="181"/>
+      <c r="L78" s="192">
+        <f t="shared" si="17"/>
+        <v>2700000</v>
+      </c>
+      <c r="M78" s="191"/>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="287" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="217"/>
-      <c r="C70" s="217"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66">
-        <f>SUM(E8:E62)</f>
-        <v>599</v>
-      </c>
-      <c r="F70" s="66"/>
-      <c r="G70" s="67">
-        <f>SUM(G8:G69)</f>
-        <v>264335000</v>
-      </c>
-      <c r="H70" s="66"/>
-      <c r="I70" s="68">
-        <f>SUM(I8:I69)</f>
-        <v>132167500</v>
-      </c>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="69">
-        <f>I70</f>
-        <v>132167500</v>
-      </c>
-      <c r="M70" s="66"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G72" s="140">
-        <f>G70/2</f>
-        <v>132167500</v>
-      </c>
+      <c r="B79" s="288"/>
+      <c r="C79" s="289"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57">
+        <f>SUM(E8:E78)</f>
+        <v>841</v>
+      </c>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58">
+        <f>SUM(G8:G78)</f>
+        <v>357275000</v>
+      </c>
+      <c r="H79" s="57"/>
+      <c r="I79" s="59">
+        <f>SUM(I8:I78)</f>
+        <v>178637500</v>
+      </c>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="60">
+        <f t="shared" si="17"/>
+        <v>178637500</v>
+      </c>
+      <c r="M79" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="48">
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="C66:C68"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
@@ -5331,7 +6005,6 @@
     <mergeCell ref="A50:A58"/>
     <mergeCell ref="B50:B58"/>
     <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -5351,8 +6024,15 @@
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="B34:B41"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
-  <pageMargins left="0.41" right="0.39" top="0.37" bottom="0.37" header="0.3" footer="0.3"/>
+  <pageMargins left="0.19" right="0.2" top="0.36" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="HÀNGNHẬP" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="42">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -450,7 +456,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1005,15 +1011,45 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,15 +1066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1089,24 +1116,6 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,6 +1278,81 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1551,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,53 +1690,53 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
     </row>
     <row r="5" spans="1:14" s="86" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="229" t="s">
+      <c r="C5" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="229"/>
-      <c r="E5" s="230" t="s">
+      <c r="D5" s="234"/>
+      <c r="E5" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="231" t="s">
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="233" t="s">
+      <c r="K5" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
     </row>
     <row r="6" spans="1:14" s="86" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="226"/>
-      <c r="B6" s="228"/>
+      <c r="A6" s="231"/>
+      <c r="B6" s="233"/>
       <c r="C6" s="197" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1758,7 @@
       <c r="I6" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="232"/>
+      <c r="J6" s="237"/>
       <c r="K6" s="198" t="s">
         <v>37</v>
       </c>
@@ -1686,16 +1770,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="209">
+      <c r="A7" s="217">
         <v>571</v>
       </c>
-      <c r="B7" s="219">
+      <c r="B7" s="224">
         <v>43990</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="222" t="s">
+      <c r="D7" s="227" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="144" t="s">
@@ -1726,10 +1810,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="210"/>
-      <c r="B8" s="220"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
+      <c r="A8" s="218"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="145" t="s">
         <v>7</v>
       </c>
@@ -1758,10 +1842,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="210"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
+      <c r="A9" s="218"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
       <c r="E9" s="145" t="s">
         <v>8</v>
       </c>
@@ -1790,10 +1874,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="210"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
+      <c r="A10" s="218"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="145" t="s">
         <v>9</v>
       </c>
@@ -1822,10 +1906,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="145" t="s">
         <v>10</v>
       </c>
@@ -1854,10 +1938,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="210"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="145" t="s">
         <v>11</v>
       </c>
@@ -1886,10 +1970,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="145" t="s">
         <v>12</v>
       </c>
@@ -1918,10 +2002,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="211"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="146" t="s">
         <v>13</v>
       </c>
@@ -1950,16 +2034,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215">
+      <c r="A15" s="208">
         <v>587</v>
       </c>
-      <c r="B15" s="234">
+      <c r="B15" s="211">
         <v>43995</v>
       </c>
-      <c r="C15" s="237" t="s">
+      <c r="C15" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="215" t="s">
+      <c r="D15" s="208" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="144" t="s">
@@ -1991,10 +2075,10 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
-      <c r="B16" s="235"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="216"/>
+      <c r="A16" s="209"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="146" t="s">
         <v>14</v>
       </c>
@@ -2024,10 +2108,10 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
-      <c r="B17" s="236"/>
-      <c r="C17" s="239"/>
-      <c r="D17" s="217"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="151" t="s">
         <v>16</v>
       </c>
@@ -2057,16 +2141,16 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="209">
+      <c r="A18" s="217">
         <v>479</v>
       </c>
-      <c r="B18" s="219">
+      <c r="B18" s="224">
         <v>43996</v>
       </c>
-      <c r="C18" s="261" t="s">
+      <c r="C18" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="222" t="s">
+      <c r="D18" s="227" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="144" t="s">
@@ -2098,10 +2182,10 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="210"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="223"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="228"/>
       <c r="E19" s="145" t="s">
         <v>14</v>
       </c>
@@ -2131,10 +2215,10 @@
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="210"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="223"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="228"/>
       <c r="E20" s="145" t="s">
         <v>11</v>
       </c>
@@ -2164,10 +2248,10 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="210"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="223"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="228"/>
       <c r="E21" s="145" t="s">
         <v>15</v>
       </c>
@@ -2197,10 +2281,10 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="211"/>
-      <c r="B22" s="221"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="224"/>
+      <c r="A22" s="219"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="262"/>
+      <c r="D22" s="229"/>
       <c r="E22" s="146" t="s">
         <v>16</v>
       </c>
@@ -2270,16 +2354,16 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="209">
+      <c r="A24" s="217">
         <v>635</v>
       </c>
-      <c r="B24" s="219">
+      <c r="B24" s="224">
         <v>44047</v>
       </c>
-      <c r="C24" s="215" t="s">
+      <c r="C24" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="215" t="s">
+      <c r="D24" s="208" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="144" t="s">
@@ -2310,10 +2394,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="211"/>
-      <c r="B25" s="221"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217" t="s">
+      <c r="A25" s="219"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="146" t="s">
@@ -2344,16 +2428,16 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="209">
+      <c r="A26" s="217">
         <v>763</v>
       </c>
-      <c r="B26" s="212">
+      <c r="B26" s="220">
         <v>44063</v>
       </c>
-      <c r="C26" s="215" t="s">
+      <c r="C26" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="215" t="s">
+      <c r="D26" s="208" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="134" t="s">
@@ -2384,10 +2468,10 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="210"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216" t="s">
+      <c r="A27" s="218"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="135" t="s">
@@ -2418,10 +2502,10 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="211"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217" t="s">
+      <c r="A28" s="219"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="136" t="s">
@@ -2452,16 +2536,16 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="209">
+      <c r="A29" s="217">
         <v>764</v>
       </c>
-      <c r="B29" s="212">
+      <c r="B29" s="220">
         <v>44065</v>
       </c>
-      <c r="C29" s="215" t="s">
+      <c r="C29" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="215" t="s">
+      <c r="D29" s="208" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="134" t="s">
@@ -2492,10 +2576,10 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="210"/>
-      <c r="B30" s="213"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216" t="s">
+      <c r="A30" s="218"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="135" t="s">
@@ -2526,10 +2610,10 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216" t="s">
+      <c r="A31" s="218"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="209" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="135" t="s">
@@ -2560,10 +2644,10 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="211"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217" t="s">
+      <c r="A32" s="219"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="210" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="136" t="s">
@@ -2604,16 +2688,16 @@
       <c r="X32" s="4"/>
     </row>
     <row r="33" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="246">
+      <c r="A33" s="245">
         <v>794</v>
       </c>
-      <c r="B33" s="249">
+      <c r="B33" s="248">
         <v>44090</v>
       </c>
-      <c r="C33" s="243" t="s">
+      <c r="C33" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="242" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="99" t="s">
@@ -2654,10 +2738,10 @@
       <c r="X33" s="4"/>
     </row>
     <row r="34" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="247"/>
-      <c r="B34" s="250"/>
-      <c r="C34" s="244"/>
-      <c r="D34" s="244"/>
+      <c r="A34" s="246"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="243"/>
       <c r="E34" s="113" t="s">
         <v>8</v>
       </c>
@@ -2696,10 +2780,10 @@
       <c r="X34" s="4"/>
     </row>
     <row r="35" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="248"/>
-      <c r="B35" s="251"/>
-      <c r="C35" s="245"/>
-      <c r="D35" s="245"/>
+      <c r="A35" s="247"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="244"/>
       <c r="E35" s="105" t="s">
         <v>10</v>
       </c>
@@ -2788,16 +2872,16 @@
       <c r="X36" s="4"/>
     </row>
     <row r="37" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="252">
+      <c r="A37" s="251">
         <v>816</v>
       </c>
-      <c r="B37" s="255">
+      <c r="B37" s="254">
         <v>44112</v>
       </c>
-      <c r="C37" s="258" t="s">
+      <c r="C37" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="258" t="s">
+      <c r="D37" s="257" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="158" t="s">
@@ -2838,10 +2922,10 @@
       <c r="X37" s="4"/>
     </row>
     <row r="38" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="254"/>
-      <c r="B38" s="257"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
+      <c r="A38" s="253"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
       <c r="E38" s="163" t="s">
         <v>7</v>
       </c>
@@ -2930,16 +3014,16 @@
       <c r="X39" s="4"/>
     </row>
     <row r="40" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="252">
+      <c r="A40" s="251">
         <v>834</v>
       </c>
-      <c r="B40" s="255">
+      <c r="B40" s="254">
         <v>44125</v>
       </c>
-      <c r="C40" s="258" t="s">
+      <c r="C40" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="258" t="s">
+      <c r="D40" s="257" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="158" t="s">
@@ -2980,10 +3064,10 @@
       <c r="X40" s="4"/>
     </row>
     <row r="41" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="254"/>
-      <c r="B41" s="257"/>
-      <c r="C41" s="260"/>
-      <c r="D41" s="260"/>
+      <c r="A41" s="253"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
       <c r="E41" s="163" t="s">
         <v>7</v>
       </c>
@@ -3072,16 +3156,16 @@
       <c r="X42" s="48"/>
     </row>
     <row r="43" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="252">
+      <c r="A43" s="251">
         <v>1239</v>
       </c>
-      <c r="B43" s="255">
+      <c r="B43" s="254">
         <v>44153</v>
       </c>
-      <c r="C43" s="258" t="s">
+      <c r="C43" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="258" t="s">
+      <c r="D43" s="257" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="158" t="s">
@@ -3122,10 +3206,10 @@
       <c r="X43" s="48"/>
     </row>
     <row r="44" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="253"/>
-      <c r="B44" s="256"/>
-      <c r="C44" s="259"/>
-      <c r="D44" s="259"/>
+      <c r="A44" s="252"/>
+      <c r="B44" s="255"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="258"/>
       <c r="E44" s="201" t="s">
         <v>10</v>
       </c>
@@ -3164,10 +3248,10 @@
       <c r="X44" s="48"/>
     </row>
     <row r="45" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="253"/>
-      <c r="B45" s="256"/>
-      <c r="C45" s="259"/>
-      <c r="D45" s="259"/>
+      <c r="A45" s="252"/>
+      <c r="B45" s="255"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="258"/>
       <c r="E45" s="201" t="s">
         <v>11</v>
       </c>
@@ -3206,10 +3290,10 @@
       <c r="X45" s="48"/>
     </row>
     <row r="46" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="254"/>
-      <c r="B46" s="257"/>
-      <c r="C46" s="260"/>
-      <c r="D46" s="260"/>
+      <c r="A46" s="253"/>
+      <c r="B46" s="256"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="259"/>
       <c r="E46" s="163" t="s">
         <v>15</v>
       </c>
@@ -3238,74 +3322,220 @@
       </c>
     </row>
     <row r="47" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="204">
+      <c r="A47" s="207">
         <v>1244</v>
       </c>
-      <c r="B47" s="205">
+      <c r="B47" s="322">
         <v>44154</v>
       </c>
-      <c r="C47" s="204" t="s">
+      <c r="C47" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="204"/>
-      <c r="E47" s="206" t="s">
+      <c r="D47" s="207" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="323" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="157">
+      <c r="F47" s="204">
         <v>24</v>
       </c>
-      <c r="G47" s="207">
+      <c r="G47" s="324">
         <v>255000</v>
       </c>
-      <c r="H47" s="207">
+      <c r="H47" s="324">
         <f t="shared" si="7"/>
         <v>6120000</v>
       </c>
-      <c r="I47" s="208">
-        <v>0.5</v>
-      </c>
-      <c r="J47" s="207">
+      <c r="I47" s="325">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="324">
         <f>H47*(1-I47)</f>
         <v>3060000</v>
       </c>
-      <c r="K47" s="207"/>
-      <c r="L47" s="207"/>
-      <c r="M47" s="207">
+      <c r="K47" s="324"/>
+      <c r="L47" s="324"/>
+      <c r="M47" s="324">
         <f t="shared" si="8"/>
         <v>3060000</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="240" t="s">
+      <c r="A48" s="302">
+        <v>1287</v>
+      </c>
+      <c r="B48" s="303">
+        <v>44179</v>
+      </c>
+      <c r="C48" s="304" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="217" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="305" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="305">
+        <v>60</v>
+      </c>
+      <c r="G48" s="306">
+        <v>455000</v>
+      </c>
+      <c r="H48" s="306">
+        <f t="shared" ref="H48:H51" si="9">F48*G48</f>
+        <v>27300000</v>
+      </c>
+      <c r="I48" s="307">
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="306">
+        <f>H48*(1-I48)</f>
+        <v>13650000</v>
+      </c>
+      <c r="K48" s="306"/>
+      <c r="L48" s="306"/>
+      <c r="M48" s="306">
+        <f>J48</f>
+        <v>13650000</v>
+      </c>
+      <c r="P48" s="308"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="309"/>
+      <c r="B49" s="310"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="312" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="312">
+        <v>36</v>
+      </c>
+      <c r="G49" s="313">
+        <v>485000</v>
+      </c>
+      <c r="H49" s="313">
+        <f t="shared" si="9"/>
+        <v>17460000</v>
+      </c>
+      <c r="I49" s="314">
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="313">
+        <f>H49*(1-I49)</f>
+        <v>8730000</v>
+      </c>
+      <c r="K49" s="313"/>
+      <c r="L49" s="313"/>
+      <c r="M49" s="313">
+        <f t="shared" ref="M49:M51" si="10">J49</f>
+        <v>8730000</v>
+      </c>
+      <c r="P49" s="315"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="309"/>
+      <c r="B50" s="310"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="312" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="312">
+        <v>24</v>
+      </c>
+      <c r="G50" s="313">
+        <v>485000</v>
+      </c>
+      <c r="H50" s="313">
+        <f t="shared" si="9"/>
+        <v>11640000</v>
+      </c>
+      <c r="I50" s="314">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="313">
+        <f>H50*(1-I50)</f>
+        <v>5820000</v>
+      </c>
+      <c r="K50" s="313"/>
+      <c r="L50" s="313"/>
+      <c r="M50" s="313">
+        <f t="shared" si="10"/>
+        <v>5820000</v>
+      </c>
+      <c r="P50" s="312"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="316"/>
+      <c r="B51" s="317"/>
+      <c r="C51" s="318"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="319" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="319">
+        <v>24</v>
+      </c>
+      <c r="G51" s="320">
+        <v>455000</v>
+      </c>
+      <c r="H51" s="320">
+        <f t="shared" si="9"/>
+        <v>10920000</v>
+      </c>
+      <c r="I51" s="321">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="320">
+        <f>H51*(1-I51)</f>
+        <v>5460000</v>
+      </c>
+      <c r="K51" s="320"/>
+      <c r="L51" s="320"/>
+      <c r="M51" s="320">
+        <f t="shared" si="10"/>
+        <v>5460000</v>
+      </c>
+      <c r="P51" s="319"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="241"/>
-      <c r="C48" s="241"/>
-      <c r="D48" s="241"/>
-      <c r="E48" s="242"/>
-      <c r="F48" s="54">
-        <f>SUM(F7:F47)</f>
-        <v>1468</v>
-      </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55">
-        <f>SUM(H7:H47)</f>
-        <v>620440000</v>
-      </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="55">
-        <f>SUM(J7:J47)</f>
-        <v>310220000</v>
-      </c>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="44">
-        <f>J48</f>
-        <v>310220000</v>
+      <c r="B52" s="240"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="240"/>
+      <c r="E52" s="241"/>
+      <c r="F52" s="54">
+        <f>SUM(F7:F51)</f>
+        <v>1612</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55">
+        <f>SUM(H7:H51)</f>
+        <v>687760000</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55">
+        <f>SUM(J7:J51)</f>
+        <v>343880000</v>
+      </c>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="44">
+        <f>J52</f>
+        <v>343880000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="52">
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
@@ -3314,7 +3544,8 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
@@ -3330,7 +3561,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="B7:B14"/>
@@ -3362,10 +3592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,57 +3646,57 @@
       <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="289" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
     </row>
     <row r="6" spans="1:15" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="275" t="s">
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="273" t="s">
+      <c r="J6" s="272" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="273"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="291" t="s">
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="290" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="281"/>
+      <c r="A7" s="281"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="280"/>
       <c r="D7" s="40" t="s">
         <v>23</v>
       </c>
@@ -3482,7 +3712,7 @@
       <c r="H7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="275"/>
+      <c r="I7" s="274"/>
       <c r="J7" s="40" t="s">
         <v>37</v>
       </c>
@@ -3492,7 +3722,7 @@
       <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="291"/>
+      <c r="M7" s="290"/>
     </row>
     <row r="8" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -3571,13 +3801,13 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="209">
+      <c r="A10" s="217">
         <v>480</v>
       </c>
-      <c r="B10" s="219">
+      <c r="B10" s="224">
         <v>43998</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="269" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -3609,9 +3839,9 @@
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="271"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="270"/>
       <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
@@ -3641,9 +3871,9 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="210"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="271"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="270"/>
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
@@ -3675,9 +3905,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="271"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="270"/>
       <c r="D13" s="26" t="s">
         <v>14</v>
       </c>
@@ -3707,9 +3937,9 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="211"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="272"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="271"/>
       <c r="D14" s="30" t="s">
         <v>11</v>
       </c>
@@ -3739,13 +3969,13 @@
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="209">
+      <c r="A15" s="217">
         <v>484</v>
       </c>
-      <c r="B15" s="219">
+      <c r="B15" s="224">
         <v>44002</v>
       </c>
-      <c r="C15" s="270" t="s">
+      <c r="C15" s="269" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -3777,9 +4007,9 @@
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="211"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="272"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="271"/>
       <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
@@ -3847,13 +4077,13 @@
       <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="209">
+      <c r="A18" s="217">
         <v>487</v>
       </c>
-      <c r="B18" s="219">
+      <c r="B18" s="224">
         <v>44009</v>
       </c>
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="269" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -3885,9 +4115,9 @@
       <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="211"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="272"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="271"/>
       <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
@@ -3917,13 +4147,13 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="209">
+      <c r="A20" s="217">
         <v>492</v>
       </c>
-      <c r="B20" s="219">
+      <c r="B20" s="224">
         <v>44020</v>
       </c>
-      <c r="C20" s="270" t="s">
+      <c r="C20" s="269" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -3955,9 +4185,9 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="210"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="271"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="270"/>
       <c r="D21" s="26" t="s">
         <v>7</v>
       </c>
@@ -3987,9 +4217,9 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="210"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="271"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="270"/>
       <c r="D22" s="26" t="s">
         <v>8</v>
       </c>
@@ -4019,9 +4249,9 @@
       <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="210"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="271"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="270"/>
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
@@ -4051,9 +4281,9 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="271"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="225"/>
+      <c r="C24" s="270"/>
       <c r="D24" s="26" t="s">
         <v>10</v>
       </c>
@@ -4083,9 +4313,9 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="210"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="271"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="270"/>
       <c r="D25" s="26" t="s">
         <v>14</v>
       </c>
@@ -4115,9 +4345,9 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="210"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="271"/>
+      <c r="A26" s="218"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="270"/>
       <c r="D26" s="26" t="s">
         <v>15</v>
       </c>
@@ -4147,9 +4377,9 @@
       <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="211"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="272"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="271"/>
       <c r="D27" s="30" t="s">
         <v>16</v>
       </c>
@@ -4284,13 +4514,13 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="209">
+      <c r="A31" s="217">
         <v>617</v>
       </c>
-      <c r="B31" s="219">
+      <c r="B31" s="224">
         <v>44034</v>
       </c>
-      <c r="C31" s="278" t="s">
+      <c r="C31" s="277" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="22" t="s">
@@ -4319,9 +4549,9 @@
       <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="211"/>
-      <c r="B32" s="221"/>
-      <c r="C32" s="279"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="278"/>
       <c r="D32" s="30" t="s">
         <v>7</v>
       </c>
@@ -4383,13 +4613,13 @@
       <c r="M33" s="71"/>
     </row>
     <row r="34" spans="1:17" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="246">
+      <c r="A34" s="245">
         <v>656</v>
       </c>
-      <c r="B34" s="219">
+      <c r="B34" s="224">
         <v>44053</v>
       </c>
-      <c r="C34" s="283" t="s">
+      <c r="C34" s="282" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="127" t="s">
@@ -4421,9 +4651,9 @@
       <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="247"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="284"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="283"/>
       <c r="D35" s="128" t="s">
         <v>8</v>
       </c>
@@ -4453,9 +4683,9 @@
       <c r="M35" s="128"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="247"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="284"/>
+      <c r="A36" s="246"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="283"/>
       <c r="D36" s="128" t="s">
         <v>9</v>
       </c>
@@ -4485,9 +4715,9 @@
       <c r="M36" s="128"/>
     </row>
     <row r="37" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="247"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="284"/>
+      <c r="A37" s="246"/>
+      <c r="B37" s="225"/>
+      <c r="C37" s="283"/>
       <c r="D37" s="128" t="s">
         <v>10</v>
       </c>
@@ -4518,9 +4748,9 @@
       <c r="Q37" s="104"/>
     </row>
     <row r="38" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="247"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="284"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="283"/>
       <c r="D38" s="128" t="s">
         <v>14</v>
       </c>
@@ -4551,9 +4781,9 @@
       <c r="Q38" s="104"/>
     </row>
     <row r="39" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="247"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="284"/>
+      <c r="A39" s="246"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="283"/>
       <c r="D39" s="128" t="s">
         <v>11</v>
       </c>
@@ -4584,9 +4814,9 @@
       <c r="Q39" s="104"/>
     </row>
     <row r="40" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="247"/>
-      <c r="B40" s="220"/>
-      <c r="C40" s="284"/>
+      <c r="A40" s="246"/>
+      <c r="B40" s="225"/>
+      <c r="C40" s="283"/>
       <c r="D40" s="128" t="s">
         <v>15</v>
       </c>
@@ -4617,9 +4847,9 @@
       <c r="Q40" s="104"/>
     </row>
     <row r="41" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="248"/>
-      <c r="B41" s="221"/>
-      <c r="C41" s="285"/>
+      <c r="A41" s="247"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="284"/>
       <c r="D41" s="129" t="s">
         <v>16</v>
       </c>
@@ -4689,13 +4919,13 @@
       <c r="Q42" s="104"/>
     </row>
     <row r="43" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="209">
+      <c r="A43" s="217">
         <v>642</v>
       </c>
-      <c r="B43" s="219">
+      <c r="B43" s="224">
         <v>44056</v>
       </c>
-      <c r="C43" s="278" t="s">
+      <c r="C43" s="277" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="73" t="s">
@@ -4726,9 +4956,9 @@
       <c r="Q43" s="104"/>
     </row>
     <row r="44" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="211"/>
-      <c r="B44" s="221"/>
-      <c r="C44" s="279"/>
+      <c r="A44" s="219"/>
+      <c r="B44" s="226"/>
+      <c r="C44" s="278"/>
       <c r="D44" s="74" t="s">
         <v>15</v>
       </c>
@@ -4794,13 +5024,13 @@
       <c r="Q45" s="104"/>
     </row>
     <row r="46" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="246">
+      <c r="A46" s="245">
         <v>664</v>
       </c>
-      <c r="B46" s="249">
+      <c r="B46" s="248">
         <v>44088</v>
       </c>
-      <c r="C46" s="276" t="s">
+      <c r="C46" s="275" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="99" t="s">
@@ -4833,9 +5063,9 @@
       <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="248"/>
-      <c r="B47" s="251"/>
-      <c r="C47" s="277"/>
+      <c r="A47" s="247"/>
+      <c r="B47" s="250"/>
+      <c r="C47" s="276"/>
       <c r="D47" s="105" t="s">
         <v>9</v>
       </c>
@@ -4944,13 +5174,13 @@
       <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="246">
+      <c r="A50" s="245">
         <v>677</v>
       </c>
-      <c r="B50" s="249">
+      <c r="B50" s="248">
         <v>44096</v>
       </c>
-      <c r="C50" s="276" t="s">
+      <c r="C50" s="275" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="99" t="s">
@@ -4983,9 +5213,9 @@
       <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="247"/>
-      <c r="B51" s="250"/>
-      <c r="C51" s="292"/>
+      <c r="A51" s="246"/>
+      <c r="B51" s="249"/>
+      <c r="C51" s="291"/>
       <c r="D51" s="113" t="s">
         <v>7</v>
       </c>
@@ -5016,9 +5246,9 @@
       <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="247"/>
-      <c r="B52" s="250"/>
-      <c r="C52" s="292"/>
+      <c r="A52" s="246"/>
+      <c r="B52" s="249"/>
+      <c r="C52" s="291"/>
       <c r="D52" s="113" t="s">
         <v>8</v>
       </c>
@@ -5049,9 +5279,9 @@
       <c r="N52" s="86"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="247"/>
-      <c r="B53" s="250"/>
-      <c r="C53" s="292"/>
+      <c r="A53" s="246"/>
+      <c r="B53" s="249"/>
+      <c r="C53" s="291"/>
       <c r="D53" s="113" t="s">
         <v>9</v>
       </c>
@@ -5082,9 +5312,9 @@
       <c r="N53" s="86"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="247"/>
-      <c r="B54" s="250"/>
-      <c r="C54" s="292"/>
+      <c r="A54" s="246"/>
+      <c r="B54" s="249"/>
+      <c r="C54" s="291"/>
       <c r="D54" s="113" t="s">
         <v>10</v>
       </c>
@@ -5115,9 +5345,9 @@
       <c r="N54" s="86"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="247"/>
-      <c r="B55" s="250"/>
-      <c r="C55" s="292"/>
+      <c r="A55" s="246"/>
+      <c r="B55" s="249"/>
+      <c r="C55" s="291"/>
       <c r="D55" s="113" t="s">
         <v>14</v>
       </c>
@@ -5148,9 +5378,9 @@
       <c r="N55" s="116"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="247"/>
-      <c r="B56" s="250"/>
-      <c r="C56" s="292"/>
+      <c r="A56" s="246"/>
+      <c r="B56" s="249"/>
+      <c r="C56" s="291"/>
       <c r="D56" s="113" t="s">
         <v>15</v>
       </c>
@@ -5181,9 +5411,9 @@
       <c r="N56" s="116"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="264"/>
-      <c r="B57" s="267"/>
-      <c r="C57" s="293"/>
+      <c r="A57" s="263"/>
+      <c r="B57" s="266"/>
+      <c r="C57" s="292"/>
       <c r="D57" s="182" t="s">
         <v>11</v>
       </c>
@@ -5214,9 +5444,9 @@
       <c r="N57" s="116"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="248"/>
-      <c r="B58" s="251"/>
-      <c r="C58" s="277"/>
+      <c r="A58" s="247"/>
+      <c r="B58" s="250"/>
+      <c r="C58" s="276"/>
       <c r="D58" s="105" t="s">
         <v>16</v>
       </c>
@@ -5247,13 +5477,13 @@
       <c r="N58" s="116"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="209">
+      <c r="A59" s="217">
         <v>817</v>
       </c>
-      <c r="B59" s="249">
+      <c r="B59" s="248">
         <v>44107</v>
       </c>
-      <c r="C59" s="246" t="s">
+      <c r="C59" s="245" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="78" t="s">
@@ -5285,9 +5515,9 @@
       <c r="M59" s="103"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="210"/>
-      <c r="B60" s="250"/>
-      <c r="C60" s="247"/>
+      <c r="A60" s="218"/>
+      <c r="B60" s="249"/>
+      <c r="C60" s="246"/>
       <c r="D60" s="79" t="s">
         <v>7</v>
       </c>
@@ -5317,9 +5547,9 @@
       <c r="M60" s="122"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="211"/>
-      <c r="B61" s="251"/>
-      <c r="C61" s="248"/>
+      <c r="A61" s="219"/>
+      <c r="B61" s="250"/>
+      <c r="C61" s="247"/>
       <c r="D61" s="80" t="s">
         <v>10</v>
       </c>
@@ -5501,13 +5731,13 @@
       <c r="M65" s="156"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="209">
+      <c r="A66" s="217">
         <v>1220</v>
       </c>
-      <c r="B66" s="249">
+      <c r="B66" s="248">
         <v>44139</v>
       </c>
-      <c r="C66" s="209" t="s">
+      <c r="C66" s="217" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="78" t="s">
@@ -5539,9 +5769,9 @@
       <c r="M66" s="78"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="210"/>
-      <c r="B67" s="250"/>
-      <c r="C67" s="210"/>
+      <c r="A67" s="218"/>
+      <c r="B67" s="249"/>
+      <c r="C67" s="218"/>
       <c r="D67" s="79" t="s">
         <v>14</v>
       </c>
@@ -5571,9 +5801,9 @@
       <c r="M67" s="79"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="211"/>
-      <c r="B68" s="251"/>
-      <c r="C68" s="211"/>
+      <c r="A68" s="219"/>
+      <c r="B68" s="250"/>
+      <c r="C68" s="219"/>
       <c r="D68" s="80" t="s">
         <v>16</v>
       </c>
@@ -5641,13 +5871,13 @@
       <c r="M69" s="119"/>
     </row>
     <row r="70" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="264">
+      <c r="A70" s="263">
         <v>1229</v>
       </c>
-      <c r="B70" s="267">
+      <c r="B70" s="266">
         <v>44145</v>
       </c>
-      <c r="C70" s="264" t="s">
+      <c r="C70" s="263" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="114" t="s">
@@ -5673,15 +5903,15 @@
       <c r="J70" s="78"/>
       <c r="K70" s="78"/>
       <c r="L70" s="192">
-        <f t="shared" ref="L70:L79" si="17">I70</f>
+        <f t="shared" ref="L70:L84" si="17">I70</f>
         <v>2790000</v>
       </c>
       <c r="M70" s="191"/>
     </row>
     <row r="71" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="265"/>
-      <c r="B71" s="268"/>
-      <c r="C71" s="265"/>
+      <c r="A71" s="264"/>
+      <c r="B71" s="267"/>
+      <c r="C71" s="264"/>
       <c r="D71" s="114" t="s">
         <v>9</v>
       </c>
@@ -5711,9 +5941,9 @@
       <c r="M71" s="191"/>
     </row>
     <row r="72" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="266"/>
-      <c r="B72" s="269"/>
-      <c r="C72" s="266"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="268"/>
+      <c r="C72" s="265"/>
       <c r="D72" s="114" t="s">
         <v>16</v>
       </c>
@@ -5743,13 +5973,13 @@
       <c r="M72" s="191"/>
     </row>
     <row r="73" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="264">
+      <c r="A73" s="263">
         <v>1231</v>
       </c>
-      <c r="B73" s="267">
+      <c r="B73" s="266">
         <v>44146</v>
       </c>
-      <c r="C73" s="264" t="s">
+      <c r="C73" s="263" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="114" t="s">
@@ -5781,9 +6011,9 @@
       <c r="M73" s="191"/>
     </row>
     <row r="74" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="265"/>
-      <c r="B74" s="268"/>
-      <c r="C74" s="265"/>
+      <c r="A74" s="264"/>
+      <c r="B74" s="267"/>
+      <c r="C74" s="264"/>
       <c r="D74" s="114" t="s">
         <v>9</v>
       </c>
@@ -5813,9 +6043,9 @@
       <c r="M74" s="191"/>
     </row>
     <row r="75" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="265"/>
-      <c r="B75" s="268"/>
-      <c r="C75" s="265"/>
+      <c r="A75" s="264"/>
+      <c r="B75" s="267"/>
+      <c r="C75" s="264"/>
       <c r="D75" s="114" t="s">
         <v>11</v>
       </c>
@@ -5845,9 +6075,9 @@
       <c r="M75" s="191"/>
     </row>
     <row r="76" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="266"/>
-      <c r="B76" s="269"/>
-      <c r="C76" s="266"/>
+      <c r="A76" s="265"/>
+      <c r="B76" s="268"/>
+      <c r="C76" s="265"/>
       <c r="D76" s="114" t="s">
         <v>15</v>
       </c>
@@ -5952,44 +6182,220 @@
       </c>
       <c r="M78" s="191"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="287" t="s">
+    <row r="79" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="94">
+        <v>1276</v>
+      </c>
+      <c r="B79" s="95">
+        <v>44173</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="94">
+        <v>3</v>
+      </c>
+      <c r="F79" s="125">
+        <v>455000</v>
+      </c>
+      <c r="G79" s="125">
+        <f>F79</f>
+        <v>455000</v>
+      </c>
+      <c r="H79" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="I79" s="125">
+        <f>G79*(1-H79)</f>
+        <v>227500</v>
+      </c>
+      <c r="J79" s="299"/>
+      <c r="K79" s="156"/>
+      <c r="L79" s="192">
+        <f t="shared" si="17"/>
+        <v>227500</v>
+      </c>
+      <c r="M79" s="293"/>
+    </row>
+    <row r="80" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="245">
+        <v>1282</v>
+      </c>
+      <c r="B80" s="248">
+        <v>44175</v>
+      </c>
+      <c r="C80" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="294" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="294">
+        <v>12</v>
+      </c>
+      <c r="F80" s="100">
+        <v>465000</v>
+      </c>
+      <c r="G80" s="100">
+        <f>E80*F80</f>
+        <v>5580000</v>
+      </c>
+      <c r="H80" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="I80" s="100">
+        <f t="shared" ref="I80:I83" si="18">G80*(1-H80)</f>
+        <v>2790000</v>
+      </c>
+      <c r="J80" s="300"/>
+      <c r="K80" s="295"/>
+      <c r="L80" s="192">
+        <f t="shared" si="17"/>
+        <v>2790000</v>
+      </c>
+      <c r="M80" s="296"/>
+    </row>
+    <row r="81" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="247"/>
+      <c r="B81" s="250"/>
+      <c r="C81" s="206"/>
+      <c r="D81" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="117">
+        <v>18</v>
+      </c>
+      <c r="F81" s="106">
+        <v>485000</v>
+      </c>
+      <c r="G81" s="106">
+        <f>E81*F81</f>
+        <v>8730000</v>
+      </c>
+      <c r="H81" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="106">
+        <f t="shared" si="18"/>
+        <v>4365000</v>
+      </c>
+      <c r="J81" s="301"/>
+      <c r="K81" s="297"/>
+      <c r="L81" s="192">
+        <f t="shared" si="17"/>
+        <v>4365000</v>
+      </c>
+      <c r="M81" s="298"/>
+    </row>
+    <row r="82" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="245">
+        <v>1278</v>
+      </c>
+      <c r="B82" s="248">
+        <v>44540</v>
+      </c>
+      <c r="C82" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="294">
+        <v>24</v>
+      </c>
+      <c r="F82" s="100">
+        <v>455000</v>
+      </c>
+      <c r="G82" s="100">
+        <f t="shared" ref="G82:G83" si="19">E82*F82</f>
+        <v>10920000</v>
+      </c>
+      <c r="H82" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="I82" s="100">
+        <f t="shared" si="18"/>
+        <v>5460000</v>
+      </c>
+      <c r="J82" s="300"/>
+      <c r="K82" s="295"/>
+      <c r="L82" s="192">
+        <f t="shared" si="17"/>
+        <v>5460000</v>
+      </c>
+      <c r="M82" s="296"/>
+    </row>
+    <row r="83" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="247"/>
+      <c r="B83" s="250"/>
+      <c r="C83" s="206"/>
+      <c r="D83" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="117">
+        <v>13</v>
+      </c>
+      <c r="F83" s="106">
+        <v>465000</v>
+      </c>
+      <c r="G83" s="106">
+        <f t="shared" si="19"/>
+        <v>6045000</v>
+      </c>
+      <c r="H83" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="106">
+        <f t="shared" si="18"/>
+        <v>3022500</v>
+      </c>
+      <c r="J83" s="301"/>
+      <c r="K83" s="297"/>
+      <c r="L83" s="192">
+        <f t="shared" si="17"/>
+        <v>3022500</v>
+      </c>
+      <c r="M83" s="298"/>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="288"/>
-      <c r="C79" s="289"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57">
-        <f>SUM(E8:E78)</f>
-        <v>841</v>
-      </c>
-      <c r="F79" s="57"/>
-      <c r="G79" s="58">
-        <f>SUM(G8:G78)</f>
-        <v>357275000</v>
-      </c>
-      <c r="H79" s="57"/>
-      <c r="I79" s="59">
-        <f>SUM(I8:I78)</f>
-        <v>178637500</v>
-      </c>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="60">
-        <f t="shared" si="17"/>
-        <v>178637500</v>
-      </c>
-      <c r="M79" s="57"/>
+      <c r="B84" s="287"/>
+      <c r="C84" s="288"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57">
+        <f>SUM(E8:E83)</f>
+        <v>911</v>
+      </c>
+      <c r="F84" s="57"/>
+      <c r="G84" s="58">
+        <f>SUM(G8:G83)</f>
+        <v>389005000</v>
+      </c>
+      <c r="H84" s="57"/>
+      <c r="I84" s="59">
+        <f>SUM(I8:I83)</f>
+        <v>194502500</v>
+      </c>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="60">
+        <f>I84</f>
+        <v>194502500</v>
+      </c>
+      <c r="M84" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A79:C79"/>
+  <mergeCells count="52">
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
@@ -6026,6 +6432,12 @@
     <mergeCell ref="B34:B41"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="C73:C76"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/THANH HÀ/Công nợ Thanh Hà đã sửa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="42">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -456,7 +456,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1023,265 +1023,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,46 +1052,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1353,6 +1068,309 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1635,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P39" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,53 +1708,53 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
     </row>
     <row r="5" spans="1:14" s="86" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="235" t="s">
+      <c r="D5" s="280"/>
+      <c r="E5" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="236" t="s">
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="238" t="s">
+      <c r="K5" s="284" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="284"/>
     </row>
     <row r="6" spans="1:14" s="86" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="231"/>
-      <c r="B6" s="233"/>
+      <c r="A6" s="277"/>
+      <c r="B6" s="279"/>
       <c r="C6" s="197" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1776,7 @@
       <c r="I6" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="237"/>
+      <c r="J6" s="283"/>
       <c r="K6" s="198" t="s">
         <v>37</v>
       </c>
@@ -1770,16 +1788,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217">
+      <c r="A7" s="231">
         <v>571</v>
       </c>
-      <c r="B7" s="224">
+      <c r="B7" s="245">
         <v>43990</v>
       </c>
-      <c r="C7" s="227" t="s">
+      <c r="C7" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="227" t="s">
+      <c r="D7" s="251" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="144" t="s">
@@ -1810,10 +1828,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
-      <c r="B8" s="225"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
       <c r="E8" s="145" t="s">
         <v>7</v>
       </c>
@@ -1842,10 +1860,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
+      <c r="A9" s="232"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="252"/>
       <c r="E9" s="145" t="s">
         <v>8</v>
       </c>
@@ -1874,10 +1892,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="218"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
+      <c r="A10" s="232"/>
+      <c r="B10" s="246"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
       <c r="E10" s="145" t="s">
         <v>9</v>
       </c>
@@ -1906,10 +1924,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
-      <c r="B11" s="225"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
+      <c r="A11" s="232"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="252"/>
       <c r="E11" s="145" t="s">
         <v>10</v>
       </c>
@@ -1938,10 +1956,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="145" t="s">
         <v>11</v>
       </c>
@@ -1970,10 +1988,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
+      <c r="A13" s="232"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="145" t="s">
         <v>12</v>
       </c>
@@ -2002,10 +2020,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="219"/>
-      <c r="B14" s="226"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
+      <c r="A14" s="233"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
       <c r="E14" s="146" t="s">
         <v>13</v>
       </c>
@@ -2034,16 +2052,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="208">
+      <c r="A15" s="254">
         <v>587</v>
       </c>
-      <c r="B15" s="211">
+      <c r="B15" s="286">
         <v>43995</v>
       </c>
-      <c r="C15" s="214" t="s">
+      <c r="C15" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="208" t="s">
+      <c r="D15" s="254" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="144" t="s">
@@ -2075,10 +2093,10 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="209"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="209"/>
+      <c r="A16" s="285"/>
+      <c r="B16" s="287"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="285"/>
       <c r="E16" s="146" t="s">
         <v>14</v>
       </c>
@@ -2107,11 +2125,11 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="210"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="210"/>
+    <row r="17" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="255"/>
+      <c r="B17" s="288"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="255"/>
       <c r="E17" s="151" t="s">
         <v>16</v>
       </c>
@@ -2140,17 +2158,17 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="217">
+    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="231">
         <v>479</v>
       </c>
-      <c r="B18" s="224">
+      <c r="B18" s="245">
         <v>43996</v>
       </c>
-      <c r="C18" s="260" t="s">
+      <c r="C18" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="227" t="s">
+      <c r="D18" s="251" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="144" t="s">
@@ -2181,11 +2199,11 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
-      <c r="B19" s="225"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="228"/>
+    <row r="19" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="232"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="145" t="s">
         <v>14</v>
       </c>
@@ -2214,11 +2232,11 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
-      <c r="B20" s="225"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="228"/>
+    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="232"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="252"/>
       <c r="E20" s="145" t="s">
         <v>11</v>
       </c>
@@ -2247,11 +2265,11 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
-      <c r="B21" s="225"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="228"/>
+    <row r="21" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="232"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="252"/>
       <c r="E21" s="145" t="s">
         <v>15</v>
       </c>
@@ -2280,11 +2298,11 @@
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="219"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="229"/>
+    <row r="22" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="233"/>
+      <c r="B22" s="247"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="253"/>
       <c r="E22" s="146" t="s">
         <v>16</v>
       </c>
@@ -2313,7 +2331,7 @@
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>597</v>
       </c>
@@ -2353,17 +2371,17 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="217">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="231">
         <v>635</v>
       </c>
-      <c r="B24" s="224">
+      <c r="B24" s="245">
         <v>44047</v>
       </c>
-      <c r="C24" s="208" t="s">
+      <c r="C24" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="208" t="s">
+      <c r="D24" s="254" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="144" t="s">
@@ -2393,11 +2411,11 @@
         <v>5460000</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="219"/>
-      <c r="B25" s="226"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="233"/>
+      <c r="B25" s="247"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="146" t="s">
@@ -2427,17 +2445,17 @@
         <v>5580000</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="217">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="231">
         <v>763</v>
       </c>
-      <c r="B26" s="220">
+      <c r="B26" s="292">
         <v>44063</v>
       </c>
-      <c r="C26" s="208" t="s">
+      <c r="C26" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="208" t="s">
+      <c r="D26" s="254" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="134" t="s">
@@ -2467,11 +2485,11 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="218"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="232"/>
+      <c r="B27" s="293"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="135" t="s">
@@ -2501,11 +2519,11 @@
         <v>8190000</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="219"/>
-      <c r="B28" s="222"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="233"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="255" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="136" t="s">
@@ -2535,17 +2553,17 @@
         <v>8730000</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="217">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="231">
         <v>764</v>
       </c>
-      <c r="B29" s="220">
+      <c r="B29" s="292">
         <v>44065</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="254" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="134" t="s">
@@ -2575,11 +2593,11 @@
         <v>2730000</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="218"/>
-      <c r="B30" s="221"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="232"/>
+      <c r="B30" s="293"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="135" t="s">
@@ -2609,11 +2627,11 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
-      <c r="B31" s="221"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="232"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="285" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="135" t="s">
@@ -2643,11 +2661,11 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="219"/>
-      <c r="B32" s="222"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="210" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="233"/>
+      <c r="B32" s="294"/>
+      <c r="C32" s="255"/>
+      <c r="D32" s="255" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="136" t="s">
@@ -2685,19 +2703,18 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="245">
+    </row>
+    <row r="33" spans="1:23" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="262">
         <v>794</v>
       </c>
-      <c r="B33" s="248">
+      <c r="B33" s="265">
         <v>44090</v>
       </c>
-      <c r="C33" s="242" t="s">
+      <c r="C33" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="242" t="s">
+      <c r="D33" s="259" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="99" t="s">
@@ -2735,13 +2752,12 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="246"/>
-      <c r="B34" s="249"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="243"/>
+    </row>
+    <row r="34" spans="1:23" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="263"/>
+      <c r="B34" s="266"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="260"/>
       <c r="E34" s="113" t="s">
         <v>8</v>
       </c>
@@ -2777,13 +2793,12 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="1:24" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="247"/>
-      <c r="B35" s="250"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
+    </row>
+    <row r="35" spans="1:23" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="264"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
       <c r="E35" s="105" t="s">
         <v>10</v>
       </c>
@@ -2819,9 +2834,8 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-    </row>
-    <row r="36" spans="1:24" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:23" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94">
         <v>675</v>
       </c>
@@ -2869,19 +2883,18 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="251">
+    </row>
+    <row r="37" spans="1:23" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="268">
         <v>816</v>
       </c>
-      <c r="B37" s="254">
+      <c r="B37" s="271">
         <v>44112</v>
       </c>
-      <c r="C37" s="257" t="s">
+      <c r="C37" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="257" t="s">
+      <c r="D37" s="243" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="158" t="s">
@@ -2919,13 +2932,12 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-    </row>
-    <row r="38" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="253"/>
-      <c r="B38" s="256"/>
-      <c r="C38" s="259"/>
-      <c r="D38" s="259"/>
+    </row>
+    <row r="38" spans="1:23" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="270"/>
+      <c r="B38" s="273"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="244"/>
       <c r="E38" s="163" t="s">
         <v>7</v>
       </c>
@@ -2961,9 +2973,8 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-    </row>
-    <row r="39" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:23" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="167">
         <v>831</v>
       </c>
@@ -3011,19 +3022,18 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="251">
+    </row>
+    <row r="40" spans="1:23" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="268">
         <v>834</v>
       </c>
-      <c r="B40" s="254">
+      <c r="B40" s="271">
         <v>44125</v>
       </c>
-      <c r="C40" s="257" t="s">
+      <c r="C40" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="257" t="s">
+      <c r="D40" s="243" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="158" t="s">
@@ -3061,13 +3071,12 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="253"/>
-      <c r="B41" s="256"/>
-      <c r="C41" s="259"/>
-      <c r="D41" s="259"/>
+    </row>
+    <row r="41" spans="1:23" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="270"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
       <c r="E41" s="163" t="s">
         <v>7</v>
       </c>
@@ -3103,9 +3112,8 @@
       <c r="U41" s="48"/>
       <c r="V41" s="48"/>
       <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-    </row>
-    <row r="42" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:23" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="173">
         <v>1208</v>
       </c>
@@ -3153,19 +3161,18 @@
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
       <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-    </row>
-    <row r="43" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="251">
+    </row>
+    <row r="43" spans="1:23" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="268">
         <v>1239</v>
       </c>
-      <c r="B43" s="254">
+      <c r="B43" s="271">
         <v>44153</v>
       </c>
-      <c r="C43" s="257" t="s">
+      <c r="C43" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="257" t="s">
+      <c r="D43" s="243" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="158" t="s">
@@ -3185,13 +3192,13 @@
         <v>0.5</v>
       </c>
       <c r="J43" s="159">
-        <f>H43*(1-I43)</f>
+        <f t="shared" ref="J43:J51" si="8">H43*(1-I43)</f>
         <v>8550000</v>
       </c>
       <c r="K43" s="159"/>
       <c r="L43" s="159"/>
       <c r="M43" s="159">
-        <f t="shared" ref="M43:M47" si="8">J43</f>
+        <f t="shared" ref="M43:M47" si="9">J43</f>
         <v>8550000</v>
       </c>
       <c r="O43" s="48"/>
@@ -3203,13 +3210,12 @@
       <c r="U43" s="48"/>
       <c r="V43" s="48"/>
       <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-    </row>
-    <row r="44" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="252"/>
-      <c r="B44" s="255"/>
-      <c r="C44" s="258"/>
-      <c r="D44" s="258"/>
+    </row>
+    <row r="44" spans="1:23" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="269"/>
+      <c r="B44" s="272"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="274"/>
       <c r="E44" s="201" t="s">
         <v>10</v>
       </c>
@@ -3227,13 +3233,13 @@
         <v>0.5</v>
       </c>
       <c r="J44" s="202">
-        <f>H44*(1-I44)</f>
+        <f t="shared" si="8"/>
         <v>2910000</v>
       </c>
       <c r="K44" s="202"/>
       <c r="L44" s="202"/>
       <c r="M44" s="202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2910000</v>
       </c>
       <c r="O44" s="48"/>
@@ -3245,13 +3251,12 @@
       <c r="U44" s="48"/>
       <c r="V44" s="48"/>
       <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-    </row>
-    <row r="45" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="252"/>
-      <c r="B45" s="255"/>
-      <c r="C45" s="258"/>
-      <c r="D45" s="258"/>
+    </row>
+    <row r="45" spans="1:23" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="269"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="274"/>
       <c r="E45" s="201" t="s">
         <v>11</v>
       </c>
@@ -3269,13 +3274,13 @@
         <v>0.5</v>
       </c>
       <c r="J45" s="202">
-        <f>H45*(1-I45)</f>
+        <f t="shared" si="8"/>
         <v>5500000</v>
       </c>
       <c r="K45" s="202"/>
       <c r="L45" s="202"/>
       <c r="M45" s="202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5500000</v>
       </c>
       <c r="O45" s="48"/>
@@ -3287,13 +3292,12 @@
       <c r="U45" s="48"/>
       <c r="V45" s="48"/>
       <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
-    </row>
-    <row r="46" spans="1:24" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="253"/>
-      <c r="B46" s="256"/>
-      <c r="C46" s="259"/>
-      <c r="D46" s="259"/>
+    </row>
+    <row r="46" spans="1:23" s="200" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="270"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
       <c r="E46" s="163" t="s">
         <v>15</v>
       </c>
@@ -3311,241 +3315,353 @@
         <v>0.5</v>
       </c>
       <c r="J46" s="164">
-        <f>H46*(1-I46)</f>
+        <f t="shared" si="8"/>
         <v>5460000</v>
       </c>
       <c r="K46" s="164"/>
       <c r="L46" s="164"/>
       <c r="M46" s="164">
+        <f t="shared" si="9"/>
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="207">
+        <v>1244</v>
+      </c>
+      <c r="B47" s="227">
+        <v>44154</v>
+      </c>
+      <c r="C47" s="207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="207" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="228" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="204">
+        <v>24</v>
+      </c>
+      <c r="G47" s="229">
+        <v>255000</v>
+      </c>
+      <c r="H47" s="229">
+        <f t="shared" si="7"/>
+        <v>6120000</v>
+      </c>
+      <c r="I47" s="230">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="229">
+        <f t="shared" si="8"/>
+        <v>3060000</v>
+      </c>
+      <c r="K47" s="229"/>
+      <c r="L47" s="229"/>
+      <c r="M47" s="229">
+        <f t="shared" si="9"/>
+        <v>3060000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="234">
+        <v>1287</v>
+      </c>
+      <c r="B48" s="237">
+        <v>44179</v>
+      </c>
+      <c r="C48" s="240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="218">
+        <v>60</v>
+      </c>
+      <c r="G48" s="219">
+        <v>455000</v>
+      </c>
+      <c r="H48" s="219">
+        <f t="shared" ref="H48:H51" si="10">F48*G48</f>
+        <v>27300000</v>
+      </c>
+      <c r="I48" s="220">
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="219">
+        <f t="shared" si="8"/>
+        <v>13650000</v>
+      </c>
+      <c r="K48" s="219"/>
+      <c r="L48" s="219"/>
+      <c r="M48" s="219">
+        <f>J48</f>
+        <v>13650000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="235"/>
+      <c r="B49" s="238"/>
+      <c r="C49" s="241"/>
+      <c r="D49" s="232"/>
+      <c r="E49" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="221">
+        <v>36</v>
+      </c>
+      <c r="G49" s="222">
+        <v>485000</v>
+      </c>
+      <c r="H49" s="222">
+        <f t="shared" si="10"/>
+        <v>17460000</v>
+      </c>
+      <c r="I49" s="223">
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="222">
+        <f t="shared" si="8"/>
+        <v>8730000</v>
+      </c>
+      <c r="K49" s="222"/>
+      <c r="L49" s="222"/>
+      <c r="M49" s="222">
+        <f t="shared" ref="M49:M51" si="11">J49</f>
+        <v>8730000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="235"/>
+      <c r="B50" s="238"/>
+      <c r="C50" s="241"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="221">
+        <v>24</v>
+      </c>
+      <c r="G50" s="222">
+        <v>485000</v>
+      </c>
+      <c r="H50" s="222">
+        <f t="shared" si="10"/>
+        <v>11640000</v>
+      </c>
+      <c r="I50" s="223">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="222">
+        <f t="shared" si="8"/>
+        <v>5820000</v>
+      </c>
+      <c r="K50" s="222"/>
+      <c r="L50" s="222"/>
+      <c r="M50" s="222">
+        <f t="shared" si="11"/>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="236"/>
+      <c r="B51" s="239"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="233"/>
+      <c r="E51" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="224">
+        <v>24</v>
+      </c>
+      <c r="G51" s="225">
+        <v>455000</v>
+      </c>
+      <c r="H51" s="225">
+        <f t="shared" si="10"/>
+        <v>10920000</v>
+      </c>
+      <c r="I51" s="226">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="225">
         <f t="shared" si="8"/>
         <v>5460000</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" s="200" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="207">
-        <v>1244</v>
-      </c>
-      <c r="B47" s="322">
-        <v>44154</v>
-      </c>
-      <c r="C47" s="207" t="s">
+      <c r="K51" s="225"/>
+      <c r="L51" s="225"/>
+      <c r="M51" s="225">
+        <f t="shared" si="11"/>
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="234">
+        <v>2421</v>
+      </c>
+      <c r="B52" s="237">
+        <v>44206</v>
+      </c>
+      <c r="C52" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="207" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="323" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="204">
+      <c r="D52" s="331"/>
+      <c r="E52" s="218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="218">
         <v>24</v>
       </c>
-      <c r="G47" s="324">
-        <v>255000</v>
-      </c>
-      <c r="H47" s="324">
-        <f t="shared" si="7"/>
-        <v>6120000</v>
-      </c>
-      <c r="I47" s="325">
-        <v>0.5</v>
-      </c>
-      <c r="J47" s="324">
-        <f>H47*(1-I47)</f>
-        <v>3060000</v>
-      </c>
-      <c r="K47" s="324"/>
-      <c r="L47" s="324"/>
-      <c r="M47" s="324">
-        <f t="shared" si="8"/>
-        <v>3060000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="302">
-        <v>1287</v>
-      </c>
-      <c r="B48" s="303">
-        <v>44179</v>
-      </c>
-      <c r="C48" s="304" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="217" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="305" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="305">
-        <v>60</v>
-      </c>
-      <c r="G48" s="306">
+      <c r="G52" s="219">
         <v>455000</v>
       </c>
-      <c r="H48" s="306">
-        <f t="shared" ref="H48:H51" si="9">F48*G48</f>
-        <v>27300000</v>
-      </c>
-      <c r="I48" s="307">
-        <v>0.5</v>
-      </c>
-      <c r="J48" s="306">
-        <f>H48*(1-I48)</f>
-        <v>13650000</v>
-      </c>
-      <c r="K48" s="306"/>
-      <c r="L48" s="306"/>
-      <c r="M48" s="306">
-        <f>J48</f>
-        <v>13650000</v>
-      </c>
-      <c r="P48" s="308"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="309"/>
-      <c r="B49" s="310"/>
-      <c r="C49" s="311"/>
-      <c r="D49" s="218"/>
-      <c r="E49" s="312" t="s">
+      <c r="H52" s="219">
+        <f t="shared" ref="H52:H54" si="12">F52*G52</f>
+        <v>10920000</v>
+      </c>
+      <c r="I52" s="220">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="219">
+        <f>H52*(1-I52)</f>
+        <v>5460000</v>
+      </c>
+      <c r="K52" s="328"/>
+      <c r="L52" s="328"/>
+      <c r="M52" s="328">
+        <f>J52</f>
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="235"/>
+      <c r="B53" s="238"/>
+      <c r="C53" s="332"/>
+      <c r="D53" s="332"/>
+      <c r="E53" s="221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="221">
+        <v>24</v>
+      </c>
+      <c r="G53" s="222">
+        <v>465000</v>
+      </c>
+      <c r="H53" s="222">
+        <f t="shared" si="12"/>
+        <v>11160000</v>
+      </c>
+      <c r="I53" s="223">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="222">
+        <f>H53*(1-I53)</f>
+        <v>5580000</v>
+      </c>
+      <c r="K53" s="329"/>
+      <c r="L53" s="329"/>
+      <c r="M53" s="329">
+        <f t="shared" ref="M53:M54" si="13">J53</f>
+        <v>5580000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="236"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="333"/>
+      <c r="D54" s="333"/>
+      <c r="E54" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="312">
-        <v>36</v>
-      </c>
-      <c r="G49" s="313">
+      <c r="F54" s="224">
+        <v>24</v>
+      </c>
+      <c r="G54" s="225">
         <v>485000</v>
       </c>
-      <c r="H49" s="313">
-        <f t="shared" si="9"/>
-        <v>17460000</v>
-      </c>
-      <c r="I49" s="314">
-        <v>0.5</v>
-      </c>
-      <c r="J49" s="313">
-        <f>H49*(1-I49)</f>
-        <v>8730000</v>
-      </c>
-      <c r="K49" s="313"/>
-      <c r="L49" s="313"/>
-      <c r="M49" s="313">
-        <f t="shared" ref="M49:M51" si="10">J49</f>
-        <v>8730000</v>
-      </c>
-      <c r="P49" s="315"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="309"/>
-      <c r="B50" s="310"/>
-      <c r="C50" s="311"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="312" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="312">
-        <v>24</v>
-      </c>
-      <c r="G50" s="313">
-        <v>485000</v>
-      </c>
-      <c r="H50" s="313">
-        <f t="shared" si="9"/>
+      <c r="H54" s="225">
+        <f t="shared" si="12"/>
         <v>11640000</v>
       </c>
-      <c r="I50" s="314">
-        <v>0.5</v>
-      </c>
-      <c r="J50" s="313">
-        <f>H50*(1-I50)</f>
+      <c r="I54" s="226">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="225">
+        <f>H54*(1-I54)</f>
         <v>5820000</v>
       </c>
-      <c r="K50" s="313"/>
-      <c r="L50" s="313"/>
-      <c r="M50" s="313">
-        <f t="shared" si="10"/>
+      <c r="K54" s="330"/>
+      <c r="L54" s="330"/>
+      <c r="M54" s="330">
+        <f t="shared" si="13"/>
         <v>5820000</v>
       </c>
-      <c r="P50" s="312"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="316"/>
-      <c r="B51" s="317"/>
-      <c r="C51" s="318"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="319" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="319">
-        <v>24</v>
-      </c>
-      <c r="G51" s="320">
-        <v>455000</v>
-      </c>
-      <c r="H51" s="320">
-        <f t="shared" si="9"/>
-        <v>10920000</v>
-      </c>
-      <c r="I51" s="321">
-        <v>0.5</v>
-      </c>
-      <c r="J51" s="320">
-        <f>H51*(1-I51)</f>
-        <v>5460000</v>
-      </c>
-      <c r="K51" s="320"/>
-      <c r="L51" s="320"/>
-      <c r="M51" s="320">
-        <f t="shared" si="10"/>
-        <v>5460000</v>
-      </c>
-      <c r="P51" s="319"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="239" t="s">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="240"/>
-      <c r="C52" s="240"/>
-      <c r="D52" s="240"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="54">
-        <f>SUM(F7:F51)</f>
-        <v>1612</v>
-      </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55">
-        <f>SUM(H7:H51)</f>
-        <v>687760000</v>
-      </c>
-      <c r="I52" s="54"/>
-      <c r="J52" s="55">
-        <f>SUM(J7:J51)</f>
-        <v>343880000</v>
-      </c>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="44">
-        <f>J52</f>
-        <v>343880000</v>
+      <c r="B55" s="257"/>
+      <c r="C55" s="257"/>
+      <c r="D55" s="257"/>
+      <c r="E55" s="258"/>
+      <c r="F55" s="54">
+        <f>SUM(F7:F54)</f>
+        <v>1684</v>
+      </c>
+      <c r="G55" s="54"/>
+      <c r="H55" s="55">
+        <f>SUM(H7:H54)</f>
+        <v>721480000</v>
+      </c>
+      <c r="I55" s="54"/>
+      <c r="J55" s="55">
+        <f>SUM(J7:J54)</f>
+        <v>360740000</v>
+      </c>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="44">
+        <f>J55</f>
+        <v>360740000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A52:E52"/>
+  <mergeCells count="56">
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A55:E55"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
@@ -3561,29 +3677,19 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3592,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,57 +3752,57 @@
       <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="298" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="289"/>
-      <c r="N3" s="289"/>
-      <c r="O3" s="289"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
     </row>
     <row r="6" spans="1:15" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="279" t="s">
+      <c r="C6" s="313" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="272" t="s">
+      <c r="D6" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="274" t="s">
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="320"/>
+      <c r="I6" s="310" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="272" t="s">
+      <c r="J6" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="290" t="s">
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="303" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="281"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="280"/>
+      <c r="A7" s="315"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="314"/>
       <c r="D7" s="40" t="s">
         <v>23</v>
       </c>
@@ -3712,7 +3818,7 @@
       <c r="H7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="274"/>
+      <c r="I7" s="310"/>
       <c r="J7" s="40" t="s">
         <v>37</v>
       </c>
@@ -3722,7 +3828,7 @@
       <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="290"/>
+      <c r="M7" s="303"/>
     </row>
     <row r="8" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -3801,13 +3907,13 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="217">
+      <c r="A10" s="231">
         <v>480</v>
       </c>
-      <c r="B10" s="224">
+      <c r="B10" s="245">
         <v>43998</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="299" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -3839,9 +3945,9 @@
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
-      <c r="B11" s="225"/>
-      <c r="C11" s="270"/>
+      <c r="A11" s="232"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="300"/>
       <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
@@ -3871,9 +3977,9 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="270"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="300"/>
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
@@ -3905,9 +4011,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="270"/>
+      <c r="A13" s="232"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="300"/>
       <c r="D13" s="26" t="s">
         <v>14</v>
       </c>
@@ -3937,9 +4043,9 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="219"/>
-      <c r="B14" s="226"/>
-      <c r="C14" s="271"/>
+      <c r="A14" s="233"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="301"/>
       <c r="D14" s="30" t="s">
         <v>11</v>
       </c>
@@ -3969,13 +4075,13 @@
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="217">
+      <c r="A15" s="231">
         <v>484</v>
       </c>
-      <c r="B15" s="224">
+      <c r="B15" s="245">
         <v>44002</v>
       </c>
-      <c r="C15" s="269" t="s">
+      <c r="C15" s="299" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -4007,9 +4113,9 @@
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="219"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="271"/>
+      <c r="A16" s="233"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="301"/>
       <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
@@ -4077,13 +4183,13 @@
       <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="217">
+      <c r="A18" s="231">
         <v>487</v>
       </c>
-      <c r="B18" s="224">
+      <c r="B18" s="245">
         <v>44009</v>
       </c>
-      <c r="C18" s="269" t="s">
+      <c r="C18" s="299" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -4115,9 +4221,9 @@
       <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="219"/>
-      <c r="B19" s="226"/>
-      <c r="C19" s="271"/>
+      <c r="A19" s="233"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="301"/>
       <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
@@ -4147,13 +4253,13 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217">
+      <c r="A20" s="231">
         <v>492</v>
       </c>
-      <c r="B20" s="224">
+      <c r="B20" s="245">
         <v>44020</v>
       </c>
-      <c r="C20" s="269" t="s">
+      <c r="C20" s="299" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -4185,9 +4291,9 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
-      <c r="B21" s="225"/>
-      <c r="C21" s="270"/>
+      <c r="A21" s="232"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="300"/>
       <c r="D21" s="26" t="s">
         <v>7</v>
       </c>
@@ -4217,9 +4323,9 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="218"/>
-      <c r="B22" s="225"/>
-      <c r="C22" s="270"/>
+      <c r="A22" s="232"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="300"/>
       <c r="D22" s="26" t="s">
         <v>8</v>
       </c>
@@ -4249,9 +4355,9 @@
       <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="218"/>
-      <c r="B23" s="225"/>
-      <c r="C23" s="270"/>
+      <c r="A23" s="232"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="300"/>
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
@@ -4281,9 +4387,9 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="218"/>
-      <c r="B24" s="225"/>
-      <c r="C24" s="270"/>
+      <c r="A24" s="232"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="300"/>
       <c r="D24" s="26" t="s">
         <v>10</v>
       </c>
@@ -4313,9 +4419,9 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="218"/>
-      <c r="B25" s="225"/>
-      <c r="C25" s="270"/>
+      <c r="A25" s="232"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="300"/>
       <c r="D25" s="26" t="s">
         <v>14</v>
       </c>
@@ -4345,9 +4451,9 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="218"/>
-      <c r="B26" s="225"/>
-      <c r="C26" s="270"/>
+      <c r="A26" s="232"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="300"/>
       <c r="D26" s="26" t="s">
         <v>15</v>
       </c>
@@ -4377,9 +4483,9 @@
       <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="219"/>
-      <c r="B27" s="226"/>
-      <c r="C27" s="271"/>
+      <c r="A27" s="233"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="301"/>
       <c r="D27" s="30" t="s">
         <v>16</v>
       </c>
@@ -4514,13 +4620,13 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="217">
+      <c r="A31" s="231">
         <v>617</v>
       </c>
-      <c r="B31" s="224">
+      <c r="B31" s="245">
         <v>44034</v>
       </c>
-      <c r="C31" s="277" t="s">
+      <c r="C31" s="311" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="22" t="s">
@@ -4549,9 +4655,9 @@
       <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="219"/>
-      <c r="B32" s="226"/>
-      <c r="C32" s="278"/>
+      <c r="A32" s="233"/>
+      <c r="B32" s="247"/>
+      <c r="C32" s="312"/>
       <c r="D32" s="30" t="s">
         <v>7</v>
       </c>
@@ -4613,13 +4719,13 @@
       <c r="M33" s="71"/>
     </row>
     <row r="34" spans="1:17" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="245">
+      <c r="A34" s="262">
         <v>656</v>
       </c>
-      <c r="B34" s="224">
+      <c r="B34" s="245">
         <v>44053</v>
       </c>
-      <c r="C34" s="282" t="s">
+      <c r="C34" s="316" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="127" t="s">
@@ -4651,9 +4757,9 @@
       <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="246"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="283"/>
+      <c r="A35" s="263"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="317"/>
       <c r="D35" s="128" t="s">
         <v>8</v>
       </c>
@@ -4683,9 +4789,9 @@
       <c r="M35" s="128"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="246"/>
-      <c r="B36" s="225"/>
-      <c r="C36" s="283"/>
+      <c r="A36" s="263"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="317"/>
       <c r="D36" s="128" t="s">
         <v>9</v>
       </c>
@@ -4715,9 +4821,9 @@
       <c r="M36" s="128"/>
     </row>
     <row r="37" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="246"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="283"/>
+      <c r="A37" s="263"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="317"/>
       <c r="D37" s="128" t="s">
         <v>10</v>
       </c>
@@ -4748,9 +4854,9 @@
       <c r="Q37" s="104"/>
     </row>
     <row r="38" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="246"/>
-      <c r="B38" s="225"/>
-      <c r="C38" s="283"/>
+      <c r="A38" s="263"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="317"/>
       <c r="D38" s="128" t="s">
         <v>14</v>
       </c>
@@ -4781,9 +4887,9 @@
       <c r="Q38" s="104"/>
     </row>
     <row r="39" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="246"/>
-      <c r="B39" s="225"/>
-      <c r="C39" s="283"/>
+      <c r="A39" s="263"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="317"/>
       <c r="D39" s="128" t="s">
         <v>11</v>
       </c>
@@ -4814,9 +4920,9 @@
       <c r="Q39" s="104"/>
     </row>
     <row r="40" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="246"/>
-      <c r="B40" s="225"/>
-      <c r="C40" s="283"/>
+      <c r="A40" s="263"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="317"/>
       <c r="D40" s="128" t="s">
         <v>15</v>
       </c>
@@ -4847,9 +4953,9 @@
       <c r="Q40" s="104"/>
     </row>
     <row r="41" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="247"/>
-      <c r="B41" s="226"/>
-      <c r="C41" s="284"/>
+      <c r="A41" s="264"/>
+      <c r="B41" s="247"/>
+      <c r="C41" s="318"/>
       <c r="D41" s="129" t="s">
         <v>16</v>
       </c>
@@ -4919,13 +5025,13 @@
       <c r="Q42" s="104"/>
     </row>
     <row r="43" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="217">
+      <c r="A43" s="231">
         <v>642</v>
       </c>
-      <c r="B43" s="224">
+      <c r="B43" s="245">
         <v>44056</v>
       </c>
-      <c r="C43" s="277" t="s">
+      <c r="C43" s="311" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="73" t="s">
@@ -4956,9 +5062,9 @@
       <c r="Q43" s="104"/>
     </row>
     <row r="44" spans="1:17" s="86" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
-      <c r="B44" s="226"/>
-      <c r="C44" s="278"/>
+      <c r="A44" s="233"/>
+      <c r="B44" s="247"/>
+      <c r="C44" s="312"/>
       <c r="D44" s="74" t="s">
         <v>15</v>
       </c>
@@ -5024,13 +5130,13 @@
       <c r="Q45" s="104"/>
     </row>
     <row r="46" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245">
+      <c r="A46" s="262">
         <v>664</v>
       </c>
-      <c r="B46" s="248">
+      <c r="B46" s="265">
         <v>44088</v>
       </c>
-      <c r="C46" s="275" t="s">
+      <c r="C46" s="306" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="99" t="s">
@@ -5063,9 +5169,9 @@
       <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="247"/>
-      <c r="B47" s="250"/>
-      <c r="C47" s="276"/>
+      <c r="A47" s="264"/>
+      <c r="B47" s="267"/>
+      <c r="C47" s="309"/>
       <c r="D47" s="105" t="s">
         <v>9</v>
       </c>
@@ -5174,13 +5280,13 @@
       <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="245">
+      <c r="A50" s="262">
         <v>677</v>
       </c>
-      <c r="B50" s="248">
+      <c r="B50" s="265">
         <v>44096</v>
       </c>
-      <c r="C50" s="275" t="s">
+      <c r="C50" s="306" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="99" t="s">
@@ -5213,9 +5319,9 @@
       <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="246"/>
-      <c r="B51" s="249"/>
-      <c r="C51" s="291"/>
+      <c r="A51" s="263"/>
+      <c r="B51" s="266"/>
+      <c r="C51" s="307"/>
       <c r="D51" s="113" t="s">
         <v>7</v>
       </c>
@@ -5246,9 +5352,9 @@
       <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="246"/>
-      <c r="B52" s="249"/>
-      <c r="C52" s="291"/>
+      <c r="A52" s="263"/>
+      <c r="B52" s="266"/>
+      <c r="C52" s="307"/>
       <c r="D52" s="113" t="s">
         <v>8</v>
       </c>
@@ -5279,9 +5385,9 @@
       <c r="N52" s="86"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="246"/>
-      <c r="B53" s="249"/>
-      <c r="C53" s="291"/>
+      <c r="A53" s="263"/>
+      <c r="B53" s="266"/>
+      <c r="C53" s="307"/>
       <c r="D53" s="113" t="s">
         <v>9</v>
       </c>
@@ -5312,9 +5418,9 @@
       <c r="N53" s="86"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="246"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="291"/>
+      <c r="A54" s="263"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="307"/>
       <c r="D54" s="113" t="s">
         <v>10</v>
       </c>
@@ -5345,9 +5451,9 @@
       <c r="N54" s="86"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="246"/>
-      <c r="B55" s="249"/>
-      <c r="C55" s="291"/>
+      <c r="A55" s="263"/>
+      <c r="B55" s="266"/>
+      <c r="C55" s="307"/>
       <c r="D55" s="113" t="s">
         <v>14</v>
       </c>
@@ -5378,9 +5484,9 @@
       <c r="N55" s="116"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="246"/>
-      <c r="B56" s="249"/>
-      <c r="C56" s="291"/>
+      <c r="A56" s="263"/>
+      <c r="B56" s="266"/>
+      <c r="C56" s="307"/>
       <c r="D56" s="113" t="s">
         <v>15</v>
       </c>
@@ -5411,9 +5517,9 @@
       <c r="N56" s="116"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="263"/>
-      <c r="B57" s="266"/>
-      <c r="C57" s="292"/>
+      <c r="A57" s="304"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="308"/>
       <c r="D57" s="182" t="s">
         <v>11</v>
       </c>
@@ -5444,9 +5550,9 @@
       <c r="N57" s="116"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="247"/>
-      <c r="B58" s="250"/>
-      <c r="C58" s="276"/>
+      <c r="A58" s="264"/>
+      <c r="B58" s="267"/>
+      <c r="C58" s="309"/>
       <c r="D58" s="105" t="s">
         <v>16</v>
       </c>
@@ -5477,13 +5583,13 @@
       <c r="N58" s="116"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="217">
+      <c r="A59" s="231">
         <v>817</v>
       </c>
-      <c r="B59" s="248">
+      <c r="B59" s="265">
         <v>44107</v>
       </c>
-      <c r="C59" s="245" t="s">
+      <c r="C59" s="262" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="78" t="s">
@@ -5515,9 +5621,9 @@
       <c r="M59" s="103"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="218"/>
-      <c r="B60" s="249"/>
-      <c r="C60" s="246"/>
+      <c r="A60" s="232"/>
+      <c r="B60" s="266"/>
+      <c r="C60" s="263"/>
       <c r="D60" s="79" t="s">
         <v>7</v>
       </c>
@@ -5547,9 +5653,9 @@
       <c r="M60" s="122"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="219"/>
-      <c r="B61" s="250"/>
-      <c r="C61" s="247"/>
+      <c r="A61" s="233"/>
+      <c r="B61" s="267"/>
+      <c r="C61" s="264"/>
       <c r="D61" s="80" t="s">
         <v>10</v>
       </c>
@@ -5731,13 +5837,13 @@
       <c r="M65" s="156"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="217">
+      <c r="A66" s="231">
         <v>1220</v>
       </c>
-      <c r="B66" s="248">
+      <c r="B66" s="265">
         <v>44139</v>
       </c>
-      <c r="C66" s="217" t="s">
+      <c r="C66" s="231" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="78" t="s">
@@ -5769,9 +5875,9 @@
       <c r="M66" s="78"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="218"/>
-      <c r="B67" s="249"/>
-      <c r="C67" s="218"/>
+      <c r="A67" s="232"/>
+      <c r="B67" s="266"/>
+      <c r="C67" s="232"/>
       <c r="D67" s="79" t="s">
         <v>14</v>
       </c>
@@ -5801,9 +5907,9 @@
       <c r="M67" s="79"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="219"/>
-      <c r="B68" s="250"/>
-      <c r="C68" s="219"/>
+      <c r="A68" s="233"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="233"/>
       <c r="D68" s="80" t="s">
         <v>16</v>
       </c>
@@ -5871,13 +5977,13 @@
       <c r="M69" s="119"/>
     </row>
     <row r="70" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="263">
+      <c r="A70" s="304">
         <v>1229</v>
       </c>
-      <c r="B70" s="266">
+      <c r="B70" s="305">
         <v>44145</v>
       </c>
-      <c r="C70" s="263" t="s">
+      <c r="C70" s="304" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="114" t="s">
@@ -5903,15 +6009,15 @@
       <c r="J70" s="78"/>
       <c r="K70" s="78"/>
       <c r="L70" s="192">
-        <f t="shared" ref="L70:L84" si="17">I70</f>
+        <f t="shared" ref="L70:L83" si="17">I70</f>
         <v>2790000</v>
       </c>
       <c r="M70" s="191"/>
     </row>
     <row r="71" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="264"/>
-      <c r="B71" s="267"/>
-      <c r="C71" s="264"/>
+      <c r="A71" s="321"/>
+      <c r="B71" s="323"/>
+      <c r="C71" s="321"/>
       <c r="D71" s="114" t="s">
         <v>9</v>
       </c>
@@ -5941,9 +6047,9 @@
       <c r="M71" s="191"/>
     </row>
     <row r="72" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="265"/>
-      <c r="B72" s="268"/>
-      <c r="C72" s="265"/>
+      <c r="A72" s="322"/>
+      <c r="B72" s="324"/>
+      <c r="C72" s="322"/>
       <c r="D72" s="114" t="s">
         <v>16</v>
       </c>
@@ -5973,13 +6079,13 @@
       <c r="M72" s="191"/>
     </row>
     <row r="73" spans="1:13" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="263">
+      <c r="A73" s="304">
         <v>1231</v>
       </c>
-      <c r="B73" s="266">
+      <c r="B73" s="305">
         <v>44146</v>
       </c>
-      <c r="C73" s="263" t="s">
+      <c r="C73" s="304" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="114" t="s">
@@ -6011,9 +6117,9 @@
       <c r="M73" s="191"/>
     </row>
     <row r="74" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="264"/>
-      <c r="B74" s="267"/>
-      <c r="C74" s="264"/>
+      <c r="A74" s="321"/>
+      <c r="B74" s="323"/>
+      <c r="C74" s="321"/>
       <c r="D74" s="114" t="s">
         <v>9</v>
       </c>
@@ -6043,9 +6149,9 @@
       <c r="M74" s="191"/>
     </row>
     <row r="75" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="264"/>
-      <c r="B75" s="267"/>
-      <c r="C75" s="264"/>
+      <c r="A75" s="321"/>
+      <c r="B75" s="323"/>
+      <c r="C75" s="321"/>
       <c r="D75" s="114" t="s">
         <v>11</v>
       </c>
@@ -6075,9 +6181,9 @@
       <c r="M75" s="191"/>
     </row>
     <row r="76" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="265"/>
-      <c r="B76" s="268"/>
-      <c r="C76" s="265"/>
+      <c r="A76" s="322"/>
+      <c r="B76" s="324"/>
+      <c r="C76" s="322"/>
       <c r="D76" s="114" t="s">
         <v>15</v>
       </c>
@@ -6212,28 +6318,28 @@
         <f>G79*(1-H79)</f>
         <v>227500</v>
       </c>
-      <c r="J79" s="299"/>
+      <c r="J79" s="215"/>
       <c r="K79" s="156"/>
       <c r="L79" s="192">
         <f t="shared" si="17"/>
         <v>227500</v>
       </c>
-      <c r="M79" s="293"/>
+      <c r="M79" s="209"/>
     </row>
     <row r="80" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="245">
+      <c r="A80" s="262">
         <v>1282</v>
       </c>
-      <c r="B80" s="248">
+      <c r="B80" s="265">
         <v>44175</v>
       </c>
       <c r="C80" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="294" t="s">
+      <c r="D80" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="294">
+      <c r="E80" s="210">
         <v>12</v>
       </c>
       <c r="F80" s="100">
@@ -6250,17 +6356,17 @@
         <f t="shared" ref="I80:I83" si="18">G80*(1-H80)</f>
         <v>2790000</v>
       </c>
-      <c r="J80" s="300"/>
-      <c r="K80" s="295"/>
+      <c r="J80" s="216"/>
+      <c r="K80" s="211"/>
       <c r="L80" s="192">
         <f t="shared" si="17"/>
         <v>2790000</v>
       </c>
-      <c r="M80" s="296"/>
+      <c r="M80" s="212"/>
     </row>
     <row r="81" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="247"/>
-      <c r="B81" s="250"/>
+      <c r="A81" s="264"/>
+      <c r="B81" s="267"/>
       <c r="C81" s="206"/>
       <c r="D81" s="117" t="s">
         <v>10</v>
@@ -6282,28 +6388,28 @@
         <f t="shared" si="18"/>
         <v>4365000</v>
       </c>
-      <c r="J81" s="301"/>
-      <c r="K81" s="297"/>
+      <c r="J81" s="217"/>
+      <c r="K81" s="213"/>
       <c r="L81" s="192">
         <f t="shared" si="17"/>
         <v>4365000</v>
       </c>
-      <c r="M81" s="298"/>
+      <c r="M81" s="214"/>
     </row>
     <row r="82" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="245">
+      <c r="A82" s="262">
         <v>1278</v>
       </c>
-      <c r="B82" s="248">
+      <c r="B82" s="265">
         <v>44540</v>
       </c>
       <c r="C82" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="294" t="s">
+      <c r="D82" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="294">
+      <c r="E82" s="210">
         <v>24</v>
       </c>
       <c r="F82" s="100">
@@ -6320,17 +6426,17 @@
         <f t="shared" si="18"/>
         <v>5460000</v>
       </c>
-      <c r="J82" s="300"/>
-      <c r="K82" s="295"/>
+      <c r="J82" s="216"/>
+      <c r="K82" s="211"/>
       <c r="L82" s="192">
         <f t="shared" si="17"/>
         <v>5460000</v>
       </c>
-      <c r="M82" s="296"/>
+      <c r="M82" s="212"/>
     </row>
     <row r="83" spans="1:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="247"/>
-      <c r="B83" s="250"/>
+      <c r="A83" s="264"/>
+      <c r="B83" s="267"/>
       <c r="C83" s="206"/>
       <c r="D83" s="117" t="s">
         <v>8</v>
@@ -6352,62 +6458,97 @@
         <f t="shared" si="18"/>
         <v>3022500</v>
       </c>
-      <c r="J83" s="301"/>
-      <c r="K83" s="297"/>
+      <c r="J83" s="217"/>
+      <c r="K83" s="213"/>
       <c r="L83" s="192">
         <f t="shared" si="17"/>
         <v>3022500</v>
       </c>
-      <c r="M83" s="298"/>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="286" t="s">
+      <c r="M83" s="214"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="208">
+        <v>2435</v>
+      </c>
+      <c r="B84" s="325">
+        <v>44222</v>
+      </c>
+      <c r="C84" s="188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="188">
+        <v>12</v>
+      </c>
+      <c r="F84" s="185">
+        <v>455000</v>
+      </c>
+      <c r="G84" s="185">
+        <f>E84*F84</f>
+        <v>5460000</v>
+      </c>
+      <c r="H84" s="186">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="185">
+        <f>G84/2</f>
+        <v>2730000</v>
+      </c>
+      <c r="J84" s="326"/>
+      <c r="K84" s="326"/>
+      <c r="L84" s="327">
+        <f>I84</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="295" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="287"/>
-      <c r="C84" s="288"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57">
-        <f>SUM(E8:E83)</f>
-        <v>911</v>
-      </c>
-      <c r="F84" s="57"/>
-      <c r="G84" s="58">
-        <f>SUM(G8:G83)</f>
-        <v>389005000</v>
-      </c>
-      <c r="H84" s="57"/>
-      <c r="I84" s="59">
-        <f>SUM(I8:I83)</f>
-        <v>194502500</v>
-      </c>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="60">
-        <f>I84</f>
-        <v>194502500</v>
-      </c>
-      <c r="M84" s="57"/>
+      <c r="B85" s="296"/>
+      <c r="C85" s="297"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57">
+        <f>SUM(E8:E84)</f>
+        <v>923</v>
+      </c>
+      <c r="F85" s="57"/>
+      <c r="G85" s="58">
+        <f>SUM(G8:G84)</f>
+        <v>394465000</v>
+      </c>
+      <c r="H85" s="57"/>
+      <c r="I85" s="59">
+        <f>SUM(I8:I84)</f>
+        <v>197232500</v>
+      </c>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="60">
+        <f>I85</f>
+        <v>197232500</v>
+      </c>
+      <c r="M85" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="A50:A58"/>
     <mergeCell ref="B50:B58"/>
     <mergeCell ref="C50:C58"/>
@@ -6424,25 +6565,27 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C34:C41"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A85:C85"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.2" top="0.36" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
